--- a/pack_world_game/design/Packs Items Tables.xlsx
+++ b/pack_world_game/design/Packs Items Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\pack_world\pack_world_game\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B952E9-7630-423E-95EB-75EFF6B4A32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74DF219-90DF-4413-88CD-647DC5D6F0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1125,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB88C1E5-D251-4818-A177-3044F90F9570}">
   <dimension ref="B4:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="S49" sqref="S49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="G40" s="5">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>0.25806451612903225</v>
+        <v>0.22018348623853212</v>
       </c>
     </row>
     <row r="41" spans="5:7" x14ac:dyDescent="0.25">
@@ -1507,11 +1507,11 @@
         <v>9</v>
       </c>
       <c r="F41">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G41" s="5">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>0.25806451612903225</v>
+        <v>0.3669724770642202</v>
       </c>
     </row>
     <row r="42" spans="5:7" x14ac:dyDescent="0.25">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="G42" s="5">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>0.10752688172043011</v>
+        <v>9.1743119266055051E-2</v>
       </c>
     </row>
     <row r="43" spans="5:7" x14ac:dyDescent="0.25">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="G43" s="5">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>0.17204301075268819</v>
+        <v>0.14678899082568808</v>
       </c>
     </row>
     <row r="44" spans="5:7" x14ac:dyDescent="0.25">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="G44" s="5">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>6.4516129032258063E-2</v>
+        <v>5.5045871559633031E-2</v>
       </c>
     </row>
     <row r="45" spans="5:7" x14ac:dyDescent="0.25">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="G45" s="5">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>6.4516129032258063E-2</v>
+        <v>5.5045871559633031E-2</v>
       </c>
     </row>
     <row r="46" spans="5:7" x14ac:dyDescent="0.25">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="G46" s="5">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>6.4516129032258063E-2</v>
+        <v>5.5045871559633031E-2</v>
       </c>
     </row>
     <row r="47" spans="5:7" x14ac:dyDescent="0.25">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="G47" s="5">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>1.0752688172043012E-2</v>
+        <v>9.1743119266055051E-3</v>
       </c>
     </row>
     <row r="49" spans="5:7" ht="26.25" x14ac:dyDescent="0.4">

--- a/pack_world_game/design/Packs Items Tables.xlsx
+++ b/pack_world_game/design/Packs Items Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\pack_world\pack_world_game\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74DF219-90DF-4413-88CD-647DC5D6F0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E623C0F-BD2D-4123-AB2E-5F130A4DD663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="56">
   <si>
     <t>Cost</t>
   </si>
@@ -371,10 +371,10 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}" name="Table137891516" displayName="Table137891516" ref="E39:G47" totalsRowShown="0">
-  <autoFilter ref="E39:G47" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E40:G47">
-    <sortCondition descending="1" ref="F39:F47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}" name="Table137891516" displayName="Table137891516" ref="E39:G46" totalsRowShown="0">
+  <autoFilter ref="E39:G46" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E40:G46">
+    <sortCondition descending="1" ref="F39:F46"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{333EBB11-1697-4271-B03A-E6B773563CFE}" name="ItemID"/>
@@ -416,9 +416,9 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{965A754C-BC3B-4A15-BAA4-D36F0C450007}" name="Table137891520" displayName="Table137891520" ref="E50:G51" totalsRowShown="0">
-  <autoFilter ref="E50:G51" xr:uid="{965A754C-BC3B-4A15-BAA4-D36F0C450007}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E51:G51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{965A754C-BC3B-4A15-BAA4-D36F0C450007}" name="Table137891520" displayName="Table137891520" ref="E49:G50" totalsRowShown="0">
+  <autoFilter ref="E49:G50" xr:uid="{965A754C-BC3B-4A15-BAA4-D36F0C450007}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E50:G50">
     <sortCondition ref="F35:F36"/>
   </sortState>
   <tableColumns count="3">
@@ -1123,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB88C1E5-D251-4818-A177-3044F90F9570}">
-  <dimension ref="B4:X51"/>
+  <dimension ref="B4:X50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="S49" sqref="S49"/>
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,40 +1507,40 @@
         <v>9</v>
       </c>
       <c r="F41">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G41" s="5">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>0.3669724770642202</v>
+        <v>0.45871559633027525</v>
       </c>
     </row>
     <row r="42" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="F42">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G42" s="5">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>9.1743119266055051E-2</v>
+        <v>0.14678899082568808</v>
       </c>
     </row>
     <row r="43" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F43">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G43" s="5">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>0.14678899082568808</v>
+        <v>5.5045871559633031E-2</v>
       </c>
     </row>
     <row r="44" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="45" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -1564,54 +1564,42 @@
     </row>
     <row r="46" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="G46" s="5">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>5.5045871559633031E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47">
-        <v>0.5</v>
-      </c>
-      <c r="G47" s="5">
-        <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
         <v>9.1743119266055051E-3</v>
       </c>
     </row>
-    <row r="49" spans="5:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E49" s="2" t="s">
+    <row r="48" spans="5:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="E48" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="50" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F50" t="s">
-        <v>4</v>
-      </c>
-      <c r="G50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E51" t="s">
         <v>53</v>
       </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51" s="5">
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" s="5">
         <f>Table137891520[[#This Row],[Rate]]/SUM(Table137891520[Rate])</f>
         <v>1</v>
       </c>

--- a/pack_world_game/design/Packs Items Tables.xlsx
+++ b/pack_world_game/design/Packs Items Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\pack_world\pack_world_game\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E623C0F-BD2D-4123-AB2E-5F130A4DD663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A103F6-4D81-419F-B105-C2D95017ABC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Packs" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="57">
   <si>
     <t>Cost</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>TileRock</t>
+  </si>
+  <si>
+    <t>DragonEgg</t>
   </si>
 </sst>
 </file>
@@ -371,10 +374,10 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}" name="Table137891516" displayName="Table137891516" ref="E39:G46" totalsRowShown="0">
-  <autoFilter ref="E39:G46" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E40:G46">
-    <sortCondition descending="1" ref="F39:F46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}" name="Table137891516" displayName="Table137891516" ref="E41:G48" totalsRowShown="0">
+  <autoFilter ref="E41:G48" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E42:G48">
+    <sortCondition descending="1" ref="F41:F48"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{333EBB11-1697-4271-B03A-E6B773563CFE}" name="ItemID"/>
@@ -416,10 +419,10 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{965A754C-BC3B-4A15-BAA4-D36F0C450007}" name="Table137891520" displayName="Table137891520" ref="E49:G50" totalsRowShown="0">
-  <autoFilter ref="E49:G50" xr:uid="{965A754C-BC3B-4A15-BAA4-D36F0C450007}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E50:G50">
-    <sortCondition ref="F35:F36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{965A754C-BC3B-4A15-BAA4-D36F0C450007}" name="Table137891520" displayName="Table137891520" ref="E51:G52" totalsRowShown="0">
+  <autoFilter ref="E51:G52" xr:uid="{965A754C-BC3B-4A15-BAA4-D36F0C450007}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E52:G52">
+    <sortCondition ref="F36:F38"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{DFFD549D-06AC-4FEB-9CAE-81D867FAF7DA}" name="ItemID"/>
@@ -433,8 +436,8 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{BD00E36D-44EA-4B4F-8D6C-1274E45F6098}" name="Table13789181924" displayName="Table13789181924" ref="E30:H32" totalsRowShown="0">
-  <autoFilter ref="E30:H32" xr:uid="{BD00E36D-44EA-4B4F-8D6C-1274E45F6098}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{BD00E36D-44EA-4B4F-8D6C-1274E45F6098}" name="Table13789181924" displayName="Table13789181924" ref="E30:H33" totalsRowShown="0">
+  <autoFilter ref="E30:H33" xr:uid="{BD00E36D-44EA-4B4F-8D6C-1274E45F6098}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{BE923A95-75C9-4062-BE0B-A80844A43C74}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{8A2B068D-BA52-49A9-8B60-7C7AB68DE7AA}" name="Rate"/>
@@ -470,8 +473,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{708B6843-66CB-49E9-9AE4-D34A26BF374A}" name="Table4" displayName="Table4" ref="D5:E11" totalsRowShown="0">
-  <autoFilter ref="D5:E11" xr:uid="{708B6843-66CB-49E9-9AE4-D34A26BF374A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{708B6843-66CB-49E9-9AE4-D34A26BF374A}" name="Table4" displayName="Table4" ref="D5:E12" totalsRowShown="0">
+  <autoFilter ref="D5:E12" xr:uid="{708B6843-66CB-49E9-9AE4-D34A26BF374A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{39852490-B26C-4425-98C9-6963CD28703C}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{2EAF4B5B-2BB6-4FE7-9972-BAD5406BE8F4}" name="Descriptiopn"/>
@@ -537,10 +540,10 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{5110325C-5187-4FDB-BA7F-BFBE8E131005}" name="Table1378915" displayName="Table1378915" ref="E35:G36" totalsRowShown="0">
-  <autoFilter ref="E35:G36" xr:uid="{5110325C-5187-4FDB-BA7F-BFBE8E131005}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E36:G36">
-    <sortCondition ref="F35:F36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{5110325C-5187-4FDB-BA7F-BFBE8E131005}" name="Table1378915" displayName="Table1378915" ref="E36:G38" totalsRowShown="0">
+  <autoFilter ref="E36:G38" xr:uid="{5110325C-5187-4FDB-BA7F-BFBE8E131005}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E37:G38">
+    <sortCondition ref="F36:F38"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{36F17566-CFEC-4201-BC32-CDFBEE168785}" name="ItemID"/>
@@ -947,10 +950,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FEB0EF-3316-4CF7-BB73-CA3D5C3FEAE1}">
-  <dimension ref="C4:K11"/>
+  <dimension ref="C4:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22:I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,6 +1106,11 @@
         <v>52</v>
       </c>
     </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="J6:J11">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Y">
@@ -1123,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB88C1E5-D251-4818-A177-3044F90F9570}">
-  <dimension ref="B4:X50"/>
+  <dimension ref="B4:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,145 +1422,148 @@
     </row>
     <row r="31" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G31">
-        <v>20</v>
-      </c>
-      <c r="H31" s="5">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4">
         <f>Table13789181924[[#This Row],[Rate]]/SUM(Table13789181924[Rate])</f>
-        <v>0.5</v>
+        <v>2.4937655860349127E-3</v>
       </c>
     </row>
     <row r="32" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H32" s="5">
         <f>Table13789181924[[#This Row],[Rate]]/SUM(Table13789181924[Rate])</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="34" spans="5:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E34" s="2" t="s">
+        <v>0.49875311720698251</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33">
+        <v>20</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5">
+        <f>Table13789181924[[#This Row],[Rate]]/SUM(Table13789181924[Rate])</f>
+        <v>0.49875311720698251</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="E35" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E35" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
         <v>4</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E36" t="s">
+    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4">
+        <f>Table1378915[[#This Row],[Rate]]/SUM(Table1378915[Rate])</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
         <v>42</v>
       </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" s="5">
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" s="5">
         <f>Table1378915[[#This Row],[Rate]]/SUM(Table1378915[Rate])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="5:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E38" s="2" t="s">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="E40" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E39" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
         <v>4</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G41" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E40" t="s">
+    <row r="42" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
         <v>10</v>
       </c>
-      <c r="F40">
+      <c r="F42">
         <v>12</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G42" s="5">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
         <v>0.22018348623853212</v>
       </c>
     </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E41" t="s">
+    <row r="43" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
         <v>9</v>
       </c>
-      <c r="F41">
+      <c r="F43">
         <v>25</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G43" s="5">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
         <v>0.45871559633027525</v>
       </c>
     </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E42" t="s">
+    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
         <v>55</v>
       </c>
-      <c r="F42">
+      <c r="F44">
         <v>8</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G44" s="5">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
         <v>0.14678899082568808</v>
       </c>
     </row>
-    <row r="43" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E43" t="s">
+    <row r="45" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
         <v>37</v>
-      </c>
-      <c r="F43">
-        <v>3</v>
-      </c>
-      <c r="G43" s="5">
-        <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>5.5045871559633031E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E44" t="s">
-        <v>23</v>
-      </c>
-      <c r="F44">
-        <v>3</v>
-      </c>
-      <c r="G44" s="5">
-        <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>5.5045871559633031E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E45" t="s">
-        <v>38</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -1562,44 +1573,68 @@
         <v>5.5045871559633031E-2</v>
       </c>
     </row>
-    <row r="46" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F46">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="G46" s="5">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
+        <v>5.5045871559633031E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47" s="5">
+        <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
+        <v>5.5045871559633031E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>0.5</v>
+      </c>
+      <c r="G48" s="5">
+        <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
         <v>9.1743119266055051E-3</v>
       </c>
     </row>
-    <row r="48" spans="5:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E48" s="2" t="s">
+    <row r="50" spans="5:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="E50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E49" t="s">
-        <v>1</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
         <v>4</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G51" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E50" t="s">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
         <v>53</v>
       </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" s="5">
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" s="5">
         <f>Table137891520[[#This Row],[Rate]]/SUM(Table137891520[Rate])</f>
         <v>1</v>
       </c>

--- a/pack_world_game/design/Packs Items Tables.xlsx
+++ b/pack_world_game/design/Packs Items Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\pack_world\pack_world_game\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A103F6-4D81-419F-B105-C2D95017ABC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39020FC7-B8E2-4EE1-B408-C97BBD004832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Packs" sheetId="6" r:id="rId1"/>
@@ -952,7 +952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FEB0EF-3316-4CF7-BB73-CA3D5C3FEAE1}">
   <dimension ref="C4:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
@@ -1133,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB88C1E5-D251-4818-A177-3044F90F9570}">
   <dimension ref="B4:X52"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="S38" sqref="S38"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="S43" sqref="S43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/pack_world_game/design/Packs Items Tables.xlsx
+++ b/pack_world_game/design/Packs Items Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\pack_world\pack_world_game\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39020FC7-B8E2-4EE1-B408-C97BBD004832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2466AF33-8E30-4F4F-B66C-169C83017E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="58">
   <si>
     <t>Cost</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>DragonEgg</t>
+  </si>
+  <si>
+    <t>PackStick</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1137,7 @@
   <dimension ref="B4:X52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="S43" sqref="S43"/>
+      <selection activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,7 +1470,7 @@
     </row>
     <row r="35" spans="5:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E35" s="2" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>

--- a/pack_world_game/design/Packs Items Tables.xlsx
+++ b/pack_world_game/design/Packs Items Tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\pack_world\pack_world_game\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2466AF33-8E30-4F4F-B66C-169C83017E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3CFCB6-A61E-4BCB-A0B9-8FDC97E1BD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="62">
   <si>
     <t>Cost</t>
   </si>
@@ -112,12 +112,6 @@
     <t>TileWater</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -212,6 +206,24 @@
   </si>
   <si>
     <t>PackStick</t>
+  </si>
+  <si>
+    <t>FirstBuildings</t>
+  </si>
+  <si>
+    <t>Wearhouse</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>Gives +1 inventory space</t>
   </si>
 </sst>
 </file>
@@ -304,7 +316,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -352,6 +384,9 @@
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -385,7 +420,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{333EBB11-1697-4271-B03A-E6B773563CFE}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{66779ED5-FBDC-43B6-B577-67F38636A1F1}" name="Rate"/>
-    <tableColumn id="3" xr3:uid="{80EF7A8F-4364-48E9-88BC-D9BE908A8E81}" name="%Chance" dataDxfId="6" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{80EF7A8F-4364-48E9-88BC-D9BE908A8E81}" name="%Chance" dataDxfId="9" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -399,7 +434,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{28E027C3-6619-4F6B-B9B5-4E991BEE7169}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{83798236-E790-4DCB-9325-19CBD2933987}" name="Rate"/>
-    <tableColumn id="3" xr3:uid="{80AE0A84-EBAE-467D-B0FF-B1661CD6F9CA}" name="%Chance" dataDxfId="5" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{80AE0A84-EBAE-467D-B0FF-B1661CD6F9CA}" name="%Chance" dataDxfId="8" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378918[[#This Row],[Rate]]/SUM(Table1378918[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -413,7 +448,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5710BAA2-303B-4130-B397-9E88F263AC1A}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{749EB946-237E-4C13-8450-9CB46D681F3D}" name="Rate"/>
-    <tableColumn id="3" xr3:uid="{29E82DC4-7FBA-46F8-A388-8832C45E81A7}" name="%Chance" dataDxfId="4" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{29E82DC4-7FBA-46F8-A388-8832C45E81A7}" name="%Chance" dataDxfId="7" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891819[[#This Row],[Rate]]/SUM(Table137891819[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -430,7 +465,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{DFFD549D-06AC-4FEB-9CAE-81D867FAF7DA}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{5A314CBA-65C8-411D-9F89-C9E413B3C28A}" name="Rate"/>
-    <tableColumn id="3" xr3:uid="{D8F779D7-C1D3-4D6E-AE28-F4F37BF0FD4C}" name="%Chance" dataDxfId="3" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{D8F779D7-C1D3-4D6E-AE28-F4F37BF0FD4C}" name="%Chance" dataDxfId="6" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891520[[#This Row],[Rate]]/SUM(Table137891520[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -445,8 +480,25 @@
     <tableColumn id="1" xr3:uid="{BE923A95-75C9-4062-BE0B-A80844A43C74}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{8A2B068D-BA52-49A9-8B60-7C7AB68DE7AA}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{96CED9DA-94ED-4108-8E34-6799C464E382}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{B90E081D-90F4-47E6-B8F8-1845ADE3AC33}" name="%Chance" dataDxfId="2" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{B90E081D-90F4-47E6-B8F8-1845ADE3AC33}" name="%Chance" dataDxfId="5" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789181924[[#This Row],[Rate]]/SUM(Table13789181924[Rate])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{650098C8-BEE6-4D14-80C9-295B1257E899}" name="Table1378915202" displayName="Table1378915202" ref="E55:G56" totalsRowShown="0">
+  <autoFilter ref="E55:G56" xr:uid="{650098C8-BEE6-4D14-80C9-295B1257E899}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E56:G56">
+    <sortCondition ref="F36:F38"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{381B99D4-DAE9-4E7B-B588-5D9988B19F22}" name="ItemID"/>
+    <tableColumn id="2" xr3:uid="{D8C82624-656A-47EE-8246-49712DEB46B7}" name="Rate"/>
+    <tableColumn id="3" xr3:uid="{8A8DD7D9-1F12-4887-B5AA-12E962C2FD48}" name="%Chance" dataDxfId="4" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table1378915202[[#This Row],[Rate]]/SUM(Table1378915202[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -487,11 +539,12 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5DD264DE-D047-45F6-A8AA-15A47977664C}" name="Table46" displayName="Table46" ref="H5:K11" totalsRowShown="0">
-  <autoFilter ref="H5:K11" xr:uid="{5DD264DE-D047-45F6-A8AA-15A47977664C}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5DD264DE-D047-45F6-A8AA-15A47977664C}" name="Table46" displayName="Table46" ref="H5:L12" totalsRowShown="0">
+  <autoFilter ref="H5:L12" xr:uid="{5DD264DE-D047-45F6-A8AA-15A47977664C}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{997C8B3F-F0E6-4E58-9D23-D135F012BA96}" name="TileID"/>
     <tableColumn id="2" xr3:uid="{C06A2FFF-D8A0-4374-BC0C-74CE8667732D}" name="Descriptiopn"/>
+    <tableColumn id="5" xr3:uid="{111A289B-2403-445C-9D0D-1F02E6F223EF}" name="Limit"/>
     <tableColumn id="3" xr3:uid="{E8433EC5-F402-420F-AA65-40C639574A0B}" name="Harvestable"/>
     <tableColumn id="4" xr3:uid="{B817F4D1-A0E6-4DF2-A947-290B386494B6}" name="Harvest Drop Table"/>
   </tableColumns>
@@ -505,7 +558,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5FD88E56-EE50-4E96-AF7E-14BF06E4B5D5}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{45FE54DB-459E-467E-AEFD-A964A6E0ACBE}" name="Rate"/>
-    <tableColumn id="3" xr3:uid="{F15086BD-3ABF-42E8-AD67-1A721BE8BDB3}" name="%Chance" dataDxfId="10" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{F15086BD-3ABF-42E8-AD67-1A721BE8BDB3}" name="%Chance" dataDxfId="13" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789[[#This Row],[Rate]]/SUM(Table13789[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -519,7 +572,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B45D3A7A-5A1F-44F3-AEE5-F5F07020D270}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{8D0A6B32-E6FD-4FEB-BD6B-C5D482407A4D}" name="Rate"/>
-    <tableColumn id="3" xr3:uid="{C0196799-3FEE-40C1-A925-239F70EFBC90}" name="%Chance" dataDxfId="9" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{C0196799-3FEE-40C1-A925-239F70EFBC90}" name="%Chance" dataDxfId="12" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913[[#This Row],[Rate]]/SUM(Table1378913[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -534,7 +587,7 @@
     <tableColumn id="1" xr3:uid="{22D67FFD-FBB4-459B-A50A-FD89B7CA47EA}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{ABA1E863-6768-496A-992C-D3ACAA40AD3E}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{21B42FB6-D1C6-45EA-99F9-B424D331BD57}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{5F1A8B4E-B55C-46A2-AA78-2705E90B792F}" name="%Chance" dataDxfId="8" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{5F1A8B4E-B55C-46A2-AA78-2705E90B792F}" name="%Chance" dataDxfId="11" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891314[[#This Row],[Rate]]/SUM(Table137891314[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -551,7 +604,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{36F17566-CFEC-4201-BC32-CDFBEE168785}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{7FAF1644-E0BB-494D-A054-1BEBE28A02F9}" name="Rate"/>
-    <tableColumn id="3" xr3:uid="{5EBDFC1E-8AA4-45D3-B7A3-F1E8D0317C06}" name="%Chance" dataDxfId="7" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{5EBDFC1E-8AA4-45D3-B7A3-F1E8D0317C06}" name="%Chance" dataDxfId="10" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378915[[#This Row],[Rate]]/SUM(Table1378915[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -855,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
@@ -887,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
         <v>2</v>
@@ -903,7 +956,7 @@
     </row>
     <row r="16" spans="4:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D16" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
@@ -911,7 +964,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
@@ -919,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
         <v>2</v>
@@ -927,7 +980,7 @@
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -935,7 +988,7 @@
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -953,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FEB0EF-3316-4CF7-BB73-CA3D5C3FEAE1}">
-  <dimension ref="C4:K12"/>
+  <dimension ref="C4:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,11 +1019,12 @@
     <col min="5" max="5" width="43.85546875" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="58.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:11" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:12" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
@@ -978,7 +1032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>1</v>
       </c>
@@ -992,13 +1046,16 @@
         <v>12</v>
       </c>
       <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
         <v>19</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>5</v>
       </c>
@@ -1012,10 +1069,13 @@
         <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>7</v>
       </c>
@@ -1026,101 +1086,128 @@
         <v>18</v>
       </c>
       <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="J7" t="s">
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" t="s">
         <v>24</v>
       </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
         <v>32</v>
       </c>
-      <c r="E8" t="s">
+      <c r="I10" t="s">
         <v>33</v>
       </c>
-      <c r="H8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="J10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12" t="s">
         <v>24</v>
       </c>
-      <c r="K9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>56</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J6:J11">
+  <conditionalFormatting sqref="K6:K12">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",J6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Y",K6)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="N">
-      <formula>NOT(ISERROR(SEARCH("N",J6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("N",K6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1134,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB88C1E5-D251-4818-A177-3044F90F9570}">
-  <dimension ref="B4:X52"/>
+  <dimension ref="B4:X56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="T40" sqref="T40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="AA39" sqref="AA39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,7 +1276,7 @@
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -1227,7 +1314,7 @@
     </row>
     <row r="9" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1247,7 +1334,7 @@
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -1271,7 +1358,7 @@
     </row>
     <row r="14" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1289,7 +1376,7 @@
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -1301,7 +1388,7 @@
     </row>
     <row r="17" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F17">
         <v>9</v>
@@ -1328,7 +1415,7 @@
     </row>
     <row r="20" spans="5:23" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1347,7 +1434,7 @@
     </row>
     <row r="22" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1360,7 +1447,7 @@
     </row>
     <row r="24" spans="5:23" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E24" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1380,7 +1467,7 @@
     </row>
     <row r="26" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1392,7 +1479,7 @@
     </row>
     <row r="27" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F27">
         <v>10</v>
@@ -1404,7 +1491,7 @@
     </row>
     <row r="29" spans="5:23" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E29" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1425,7 +1512,7 @@
     </row>
     <row r="31" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F31">
         <v>0.1</v>
@@ -1455,7 +1542,7 @@
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F33">
         <v>20</v>
@@ -1470,7 +1557,7 @@
     </row>
     <row r="35" spans="5:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E35" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -1488,7 +1575,7 @@
     </row>
     <row r="37" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1500,7 +1587,7 @@
     </row>
     <row r="38" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F38">
         <v>5</v>
@@ -1554,7 +1641,7 @@
     </row>
     <row r="44" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F44">
         <v>8</v>
@@ -1566,7 +1653,7 @@
     </row>
     <row r="45" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -1590,7 +1677,7 @@
     </row>
     <row r="47" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F47">
         <v>3</v>
@@ -1614,7 +1701,7 @@
     </row>
     <row r="50" spans="5:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E50" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -1632,7 +1719,7 @@
     </row>
     <row r="52" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -1642,9 +1729,39 @@
         <v>1</v>
       </c>
     </row>
+    <row r="54" spans="5:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="E54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" s="5">
+        <f>Table1378915202[[#This Row],[Rate]]/SUM(Table1378915202[Rate])</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="9">
+  <tableParts count="10">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -1654,6 +1771,7 @@
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
--- a/pack_world_game/design/Packs Items Tables.xlsx
+++ b/pack_world_game/design/Packs Items Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\pack_world\pack_world_game\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3CFCB6-A61E-4BCB-A0B9-8FDC97E1BD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465D1001-9184-4C3C-AB81-FF3333846971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -316,27 +316,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -420,7 +400,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{333EBB11-1697-4271-B03A-E6B773563CFE}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{66779ED5-FBDC-43B6-B577-67F38636A1F1}" name="Rate"/>
-    <tableColumn id="3" xr3:uid="{80EF7A8F-4364-48E9-88BC-D9BE908A8E81}" name="%Chance" dataDxfId="9" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{80EF7A8F-4364-48E9-88BC-D9BE908A8E81}" name="%Chance" dataDxfId="7" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -434,7 +414,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{28E027C3-6619-4F6B-B9B5-4E991BEE7169}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{83798236-E790-4DCB-9325-19CBD2933987}" name="Rate"/>
-    <tableColumn id="3" xr3:uid="{80AE0A84-EBAE-467D-B0FF-B1661CD6F9CA}" name="%Chance" dataDxfId="8" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{80AE0A84-EBAE-467D-B0FF-B1661CD6F9CA}" name="%Chance" dataDxfId="6" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378918[[#This Row],[Rate]]/SUM(Table1378918[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -448,7 +428,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5710BAA2-303B-4130-B397-9E88F263AC1A}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{749EB946-237E-4C13-8450-9CB46D681F3D}" name="Rate"/>
-    <tableColumn id="3" xr3:uid="{29E82DC4-7FBA-46F8-A388-8832C45E81A7}" name="%Chance" dataDxfId="7" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{29E82DC4-7FBA-46F8-A388-8832C45E81A7}" name="%Chance" dataDxfId="5" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891819[[#This Row],[Rate]]/SUM(Table137891819[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -465,7 +445,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{DFFD549D-06AC-4FEB-9CAE-81D867FAF7DA}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{5A314CBA-65C8-411D-9F89-C9E413B3C28A}" name="Rate"/>
-    <tableColumn id="3" xr3:uid="{D8F779D7-C1D3-4D6E-AE28-F4F37BF0FD4C}" name="%Chance" dataDxfId="6" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{D8F779D7-C1D3-4D6E-AE28-F4F37BF0FD4C}" name="%Chance" dataDxfId="4" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891520[[#This Row],[Rate]]/SUM(Table137891520[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -480,7 +460,7 @@
     <tableColumn id="1" xr3:uid="{BE923A95-75C9-4062-BE0B-A80844A43C74}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{8A2B068D-BA52-49A9-8B60-7C7AB68DE7AA}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{96CED9DA-94ED-4108-8E34-6799C464E382}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{B90E081D-90F4-47E6-B8F8-1845ADE3AC33}" name="%Chance" dataDxfId="5" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{B90E081D-90F4-47E6-B8F8-1845ADE3AC33}" name="%Chance" dataDxfId="3" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789181924[[#This Row],[Rate]]/SUM(Table13789181924[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -497,7 +477,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{381B99D4-DAE9-4E7B-B588-5D9988B19F22}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{D8C82624-656A-47EE-8246-49712DEB46B7}" name="Rate"/>
-    <tableColumn id="3" xr3:uid="{8A8DD7D9-1F12-4887-B5AA-12E962C2FD48}" name="%Chance" dataDxfId="4" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{8A8DD7D9-1F12-4887-B5AA-12E962C2FD48}" name="%Chance" dataDxfId="2" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378915202[[#This Row],[Rate]]/SUM(Table1378915202[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -558,7 +538,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5FD88E56-EE50-4E96-AF7E-14BF06E4B5D5}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{45FE54DB-459E-467E-AEFD-A964A6E0ACBE}" name="Rate"/>
-    <tableColumn id="3" xr3:uid="{F15086BD-3ABF-42E8-AD67-1A721BE8BDB3}" name="%Chance" dataDxfId="13" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{F15086BD-3ABF-42E8-AD67-1A721BE8BDB3}" name="%Chance" dataDxfId="11" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789[[#This Row],[Rate]]/SUM(Table13789[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -572,7 +552,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B45D3A7A-5A1F-44F3-AEE5-F5F07020D270}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{8D0A6B32-E6FD-4FEB-BD6B-C5D482407A4D}" name="Rate"/>
-    <tableColumn id="3" xr3:uid="{C0196799-3FEE-40C1-A925-239F70EFBC90}" name="%Chance" dataDxfId="12" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{C0196799-3FEE-40C1-A925-239F70EFBC90}" name="%Chance" dataDxfId="10" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913[[#This Row],[Rate]]/SUM(Table1378913[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -587,7 +567,7 @@
     <tableColumn id="1" xr3:uid="{22D67FFD-FBB4-459B-A50A-FD89B7CA47EA}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{ABA1E863-6768-496A-992C-D3ACAA40AD3E}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{21B42FB6-D1C6-45EA-99F9-B424D331BD57}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{5F1A8B4E-B55C-46A2-AA78-2705E90B792F}" name="%Chance" dataDxfId="11" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{5F1A8B4E-B55C-46A2-AA78-2705E90B792F}" name="%Chance" dataDxfId="9" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891314[[#This Row],[Rate]]/SUM(Table137891314[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -604,7 +584,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{36F17566-CFEC-4201-BC32-CDFBEE168785}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{7FAF1644-E0BB-494D-A054-1BEBE28A02F9}" name="Rate"/>
-    <tableColumn id="3" xr3:uid="{5EBDFC1E-8AA4-45D3-B7A3-F1E8D0317C06}" name="%Chance" dataDxfId="10" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{5EBDFC1E-8AA4-45D3-B7A3-F1E8D0317C06}" name="%Chance" dataDxfId="8" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378915[[#This Row],[Rate]]/SUM(Table1378915[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1224,7 +1204,7 @@
   <dimension ref="B4:X56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="AA39" sqref="AA39"/>
+      <selection activeCell="S50" sqref="S50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/pack_world_game/design/Packs Items Tables.xlsx
+++ b/pack_world_game/design/Packs Items Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\pack_world\pack_world_game\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465D1001-9184-4C3C-AB81-FF3333846971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AB0EB3-7D1D-4C97-9845-910A06ED9F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="62">
-  <si>
-    <t>Cost</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="81">
   <si>
     <t>ItemID</t>
   </si>
@@ -49,9 +46,6 @@
     <t>Count</t>
   </si>
   <si>
-    <t>DropTable</t>
-  </si>
-  <si>
     <t>Rate</t>
   </si>
   <si>
@@ -106,9 +100,6 @@
     <t>PackStarter</t>
   </si>
   <si>
-    <t>PackWood</t>
-  </si>
-  <si>
     <t>TileWater</t>
   </si>
   <si>
@@ -187,9 +178,6 @@
     <t>Baby</t>
   </si>
   <si>
-    <t>Food</t>
-  </si>
-  <si>
     <t>Cave</t>
   </si>
   <si>
@@ -224,13 +212,82 @@
   </si>
   <si>
     <t>Gives +1 inventory space</t>
+  </si>
+  <si>
+    <t>Farmhouse</t>
+  </si>
+  <si>
+    <t>Reduces refreshtime of soil within radius of 10</t>
+  </si>
+  <si>
+    <t>Spiderweb</t>
+  </si>
+  <si>
+    <t>Used as material for clothes</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>Placed in tree, drops bugs for food</t>
+  </si>
+  <si>
+    <t>Cobweb</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Starter</t>
+  </si>
+  <si>
+    <t>Buildings</t>
+  </si>
+  <si>
+    <t>TradeHut</t>
+  </si>
+  <si>
+    <t>Increases sell rate of items by x%</t>
+  </si>
+  <si>
+    <t>SmallMoney</t>
+  </si>
+  <si>
+    <t>MudPit</t>
+  </si>
+  <si>
+    <t>SmallDirt</t>
+  </si>
+  <si>
+    <t>Generates dirt tiles</t>
+  </si>
+  <si>
+    <t>SmallMudPit</t>
+  </si>
+  <si>
+    <t>OakLog</t>
+  </si>
+  <si>
+    <t>Birdnest</t>
+  </si>
+  <si>
+    <t>Adds acorns to the drop table of adjaent grass.</t>
+  </si>
+  <si>
+    <t>Farm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +318,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -270,32 +333,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -305,18 +348,84 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -381,26 +490,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{731F2B7D-E99A-4BAA-BD7D-E8E3B97B8769}" name="Table20" displayName="Table20" ref="E6:F7" totalsRowShown="0">
-  <autoFilter ref="E6:F7" xr:uid="{731F2B7D-E99A-4BAA-BD7D-E8E3B97B8769}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{24FA7D84-40DB-4FB1-872F-BAD6A7B8C18C}" name="Table2" displayName="Table2" ref="F5:G6" totalsRowShown="0">
+  <autoFilter ref="F5:G6" xr:uid="{24FA7D84-40DB-4FB1-872F-BAD6A7B8C18C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{249D297B-86F9-4031-A4AB-55C0247C2429}" name="Item"/>
-    <tableColumn id="2" xr3:uid="{ECE66158-9F7B-4E4D-8D8A-FE3C77ADEE5B}" name="Count"/>
+    <tableColumn id="1" xr3:uid="{1D19C17F-6975-4643-9D2C-D3BC2DA13EC9}" name="Item"/>
+    <tableColumn id="2" xr3:uid="{3D1E8AF2-7314-4463-89AD-E54714D15BD2}" name="Count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}" name="Table137891516" displayName="Table137891516" ref="E41:G48" totalsRowShown="0">
-  <autoFilter ref="E41:G48" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E42:G48">
-    <sortCondition descending="1" ref="F41:F48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{5110325C-5187-4FDB-BA7F-BFBE8E131005}" name="Table1378915" displayName="Table1378915" ref="E37:H41" totalsRowShown="0">
+  <autoFilter ref="E37:H41" xr:uid="{5110325C-5187-4FDB-BA7F-BFBE8E131005}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E38:H39">
+    <sortCondition ref="F37:F39"/>
   </sortState>
-  <tableColumns count="3">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{36F17566-CFEC-4201-BC32-CDFBEE168785}" name="ItemID"/>
+    <tableColumn id="2" xr3:uid="{7FAF1644-E0BB-494D-A054-1BEBE28A02F9}" name="Rate"/>
+    <tableColumn id="4" xr3:uid="{FA86084E-4629-4BD7-A80C-6229B8D80F65}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{5EBDFC1E-8AA4-45D3-B7A3-F1E8D0317C06}" name="%Chance" dataDxfId="16" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table1378915[[#This Row],[Rate]]/SUM(Table1378915[Rate])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}" name="Table137891516" displayName="Table137891516" ref="E44:H51" totalsRowShown="0">
+  <autoFilter ref="E44:H51" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E45:H51">
+    <sortCondition descending="1" ref="F44:F51"/>
+  </sortState>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{333EBB11-1697-4271-B03A-E6B773563CFE}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{66779ED5-FBDC-43B6-B577-67F38636A1F1}" name="Rate"/>
-    <tableColumn id="3" xr3:uid="{80EF7A8F-4364-48E9-88BC-D9BE908A8E81}" name="%Chance" dataDxfId="7" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{FA20C3E4-336D-43FD-9C7B-B1827A771EBC}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{80EF7A8F-4364-48E9-88BC-D9BE908A8E81}" name="%Chance" dataDxfId="15" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -408,13 +536,14 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{B9E16C5E-B24F-4003-8D83-DE034BACC562}" name="Table1378918" displayName="Table1378918" ref="E21:G22" totalsRowShown="0">
-  <autoFilter ref="E21:G22" xr:uid="{B9E16C5E-B24F-4003-8D83-DE034BACC562}"/>
-  <tableColumns count="3">
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{B9E16C5E-B24F-4003-8D83-DE034BACC562}" name="Table1378918" displayName="Table1378918" ref="E22:H23" totalsRowShown="0">
+  <autoFilter ref="E22:H23" xr:uid="{B9E16C5E-B24F-4003-8D83-DE034BACC562}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{28E027C3-6619-4F6B-B9B5-4E991BEE7169}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{83798236-E790-4DCB-9325-19CBD2933987}" name="Rate"/>
-    <tableColumn id="3" xr3:uid="{80AE0A84-EBAE-467D-B0FF-B1661CD6F9CA}" name="%Chance" dataDxfId="6" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{FD652A42-76E9-4A8A-B64F-41F588B57CA0}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{80AE0A84-EBAE-467D-B0FF-B1661CD6F9CA}" name="%Chance" dataDxfId="14" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378918[[#This Row],[Rate]]/SUM(Table1378918[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -422,13 +551,14 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{9C922454-05F0-4A60-969F-42B0AED9779C}" name="Table137891819" displayName="Table137891819" ref="E25:G27" totalsRowShown="0">
-  <autoFilter ref="E25:G27" xr:uid="{9C922454-05F0-4A60-969F-42B0AED9779C}"/>
-  <tableColumns count="3">
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{9C922454-05F0-4A60-969F-42B0AED9779C}" name="Table137891819" displayName="Table137891819" ref="E26:H28" totalsRowShown="0">
+  <autoFilter ref="E26:H28" xr:uid="{9C922454-05F0-4A60-969F-42B0AED9779C}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{5710BAA2-303B-4130-B397-9E88F263AC1A}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{749EB946-237E-4C13-8450-9CB46D681F3D}" name="Rate"/>
-    <tableColumn id="3" xr3:uid="{29E82DC4-7FBA-46F8-A388-8832C45E81A7}" name="%Chance" dataDxfId="5" dataCellStyle="Percent">
+    <tableColumn id="7" xr3:uid="{BF90F91A-CFD2-42FC-87F6-1E7A02388275}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{29E82DC4-7FBA-46F8-A388-8832C45E81A7}" name="%Chance" dataDxfId="13" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891819[[#This Row],[Rate]]/SUM(Table137891819[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -436,16 +566,17 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{965A754C-BC3B-4A15-BAA4-D36F0C450007}" name="Table137891520" displayName="Table137891520" ref="E51:G52" totalsRowShown="0">
-  <autoFilter ref="E51:G52" xr:uid="{965A754C-BC3B-4A15-BAA4-D36F0C450007}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E52:G52">
-    <sortCondition ref="F36:F38"/>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{965A754C-BC3B-4A15-BAA4-D36F0C450007}" name="Table137891520" displayName="Table137891520" ref="E54:H55" totalsRowShown="0">
+  <autoFilter ref="E54:H55" xr:uid="{965A754C-BC3B-4A15-BAA4-D36F0C450007}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E55:H55">
+    <sortCondition ref="F37:F39"/>
   </sortState>
-  <tableColumns count="3">
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{DFFD549D-06AC-4FEB-9CAE-81D867FAF7DA}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{5A314CBA-65C8-411D-9F89-C9E413B3C28A}" name="Rate"/>
-    <tableColumn id="3" xr3:uid="{D8F779D7-C1D3-4D6E-AE28-F4F37BF0FD4C}" name="%Chance" dataDxfId="4" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{A94A88ED-4FF7-4BF3-AAAF-6B7F2860C1FD}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{D8F779D7-C1D3-4D6E-AE28-F4F37BF0FD4C}" name="%Chance" dataDxfId="12" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891520[[#This Row],[Rate]]/SUM(Table137891520[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -453,14 +584,14 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{BD00E36D-44EA-4B4F-8D6C-1274E45F6098}" name="Table13789181924" displayName="Table13789181924" ref="E30:H33" totalsRowShown="0">
-  <autoFilter ref="E30:H33" xr:uid="{BD00E36D-44EA-4B4F-8D6C-1274E45F6098}"/>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{BD00E36D-44EA-4B4F-8D6C-1274E45F6098}" name="Table13789181924" displayName="Table13789181924" ref="E31:H34" totalsRowShown="0">
+  <autoFilter ref="E31:H34" xr:uid="{BD00E36D-44EA-4B4F-8D6C-1274E45F6098}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{BE923A95-75C9-4062-BE0B-A80844A43C74}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{8A2B068D-BA52-49A9-8B60-7C7AB68DE7AA}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{96CED9DA-94ED-4108-8E34-6799C464E382}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{B90E081D-90F4-47E6-B8F8-1845ADE3AC33}" name="%Chance" dataDxfId="3" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{B90E081D-90F4-47E6-B8F8-1845ADE3AC33}" name="%Chance" dataDxfId="11" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789181924[[#This Row],[Rate]]/SUM(Table13789181924[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -468,16 +599,17 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{650098C8-BEE6-4D14-80C9-295B1257E899}" name="Table1378915202" displayName="Table1378915202" ref="E55:G56" totalsRowShown="0">
-  <autoFilter ref="E55:G56" xr:uid="{650098C8-BEE6-4D14-80C9-295B1257E899}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E56:G56">
-    <sortCondition ref="F36:F38"/>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{650098C8-BEE6-4D14-80C9-295B1257E899}" name="Table1378915202" displayName="Table1378915202" ref="E58:H60" totalsRowShown="0">
+  <autoFilter ref="E58:H60" xr:uid="{650098C8-BEE6-4D14-80C9-295B1257E899}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E59:H59">
+    <sortCondition ref="F37:F39"/>
   </sortState>
-  <tableColumns count="3">
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{381B99D4-DAE9-4E7B-B588-5D9988B19F22}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{D8C82624-656A-47EE-8246-49712DEB46B7}" name="Rate"/>
-    <tableColumn id="3" xr3:uid="{8A8DD7D9-1F12-4887-B5AA-12E962C2FD48}" name="%Chance" dataDxfId="2" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{6E1B10DB-484A-43C3-8696-EC6E862B4D4A}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{8A8DD7D9-1F12-4887-B5AA-12E962C2FD48}" name="%Chance" dataDxfId="10" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378915202[[#This Row],[Rate]]/SUM(Table1378915202[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -485,31 +617,72 @@
 </table>
 </file>
 
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A78B3AE9-4F71-4D90-BBB1-B1341409AE74}" name="Table1378913147" displayName="Table1378913147" ref="E63:H67" totalsRowShown="0">
+  <autoFilter ref="E63:H67" xr:uid="{A78B3AE9-4F71-4D90-BBB1-B1341409AE74}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{5FC31BA1-4AF3-430A-A419-59C22C2155C5}" name="ItemID"/>
+    <tableColumn id="2" xr3:uid="{BC88DEB0-09FB-4E75-B113-7CDE256B8E17}" name="Rate"/>
+    <tableColumn id="6" xr3:uid="{6C6C351D-AFB0-4A3F-BC2D-CDE5D9A11B25}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{733DAD33-07B1-4A54-BBE0-B3212B512175}" name="%Chance" dataDxfId="7" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{44DD51EE-228C-4FEB-B2BB-0731512A3210}" name="Table13789131478" displayName="Table13789131478" ref="E70:H74" totalsRowShown="0">
+  <autoFilter ref="E70:H74" xr:uid="{44DD51EE-228C-4FEB-B2BB-0731512A3210}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{9C5387E8-4E0B-43FC-BD7B-7307A5B89A6C}" name="ItemID"/>
+    <tableColumn id="2" xr3:uid="{000E006A-A8FF-4DD8-84CA-E745617C159E}" name="Rate"/>
+    <tableColumn id="6" xr3:uid="{89D8EF85-04D9-47B6-81E8-ECDC97E127CD}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{67DA4D60-8692-4B89-85F1-E0CA987870E6}" name="%Chance" dataDxfId="4" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{187E11EC-4D3E-4E0E-AA49-1937077C7112}" name="Table2022" displayName="Table2022" ref="E12:F13" totalsRowShown="0">
-  <autoFilter ref="E12:F13" xr:uid="{187E11EC-4D3E-4E0E-AA49-1937077C7112}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CFCE5BFC-EAEE-437A-B0D1-92CBFE1C6E9B}" name="Table24" displayName="Table24" ref="F9:G12" totalsRowShown="0">
+  <autoFilter ref="F9:G12" xr:uid="{CFCE5BFC-EAEE-437A-B0D1-92CBFE1C6E9B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4CABAC17-2E4B-4E33-9AC1-90A5FCBE3C20}" name="Item"/>
-    <tableColumn id="2" xr3:uid="{DF9D616E-A3C3-4E9B-BBF9-7EE1B8F0F3B3}" name="Count"/>
+    <tableColumn id="1" xr3:uid="{60CD1B6A-38BD-4315-A8B4-D2BC0EF3E15F}" name="Item"/>
+    <tableColumn id="2" xr3:uid="{1922AB4B-AD21-4E72-BC70-8CD0488D0B1E}" name="Count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{1F048B6C-DE6A-4C11-B614-21795CD00EA7}" name="Table202223" displayName="Table202223" ref="E18:F20" totalsRowShown="0">
-  <autoFilter ref="E18:F20" xr:uid="{1F048B6C-DE6A-4C11-B614-21795CD00EA7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5C50F4F6-447D-4295-AE19-5F291E155B4F}" name="Table2410" displayName="Table2410" ref="F15:G17" totalsRowShown="0">
+  <autoFilter ref="F15:G17" xr:uid="{5C50F4F6-447D-4295-AE19-5F291E155B4F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5417A90C-FF47-4FB6-965C-E941D93124C9}" name="Item"/>
-    <tableColumn id="2" xr3:uid="{870AD8FC-9479-47A3-A333-4AF58CDB87E1}" name="Count"/>
+    <tableColumn id="1" xr3:uid="{EE9AE3BD-A522-4FFF-ACAA-887D46DEA516}" name="Item"/>
+    <tableColumn id="2" xr3:uid="{ACF19F34-D0E9-4653-AC23-62D92D24408A}" name="Count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{708B6843-66CB-49E9-9AE4-D34A26BF374A}" name="Table4" displayName="Table4" ref="D5:E12" totalsRowShown="0">
-  <autoFilter ref="D5:E12" xr:uid="{708B6843-66CB-49E9-9AE4-D34A26BF374A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{967C3274-F38E-4B21-97F7-87B3B69F1E54}" name="Table241011" displayName="Table241011" ref="F20:G22" totalsRowShown="0">
+  <autoFilter ref="F20:G22" xr:uid="{967C3274-F38E-4B21-97F7-87B3B69F1E54}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{5EF3BD93-7F6F-4843-BC3C-C8A708C9DBB9}" name="Item"/>
+    <tableColumn id="2" xr3:uid="{87C9F4D6-9AA9-4BD3-9D36-10992A38BE48}" name="Count"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{708B6843-66CB-49E9-9AE4-D34A26BF374A}" name="Table4" displayName="Table4" ref="D5:E15" totalsRowShown="0">
+  <autoFilter ref="D5:E15" xr:uid="{708B6843-66CB-49E9-9AE4-D34A26BF374A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{39852490-B26C-4425-98C9-6963CD28703C}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{2EAF4B5B-2BB6-4FE7-9972-BAD5406BE8F4}" name="Descriptiopn"/>
@@ -518,9 +691,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5DD264DE-D047-45F6-A8AA-15A47977664C}" name="Table46" displayName="Table46" ref="H5:L12" totalsRowShown="0">
-  <autoFilter ref="H5:L12" xr:uid="{5DD264DE-D047-45F6-A8AA-15A47977664C}"/>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5DD264DE-D047-45F6-A8AA-15A47977664C}" name="Table46" displayName="Table46" ref="H5:L16" totalsRowShown="0">
+  <autoFilter ref="H5:L16" xr:uid="{5DD264DE-D047-45F6-A8AA-15A47977664C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{997C8B3F-F0E6-4E58-9D23-D135F012BA96}" name="TileID"/>
     <tableColumn id="2" xr3:uid="{C06A2FFF-D8A0-4374-BC0C-74CE8667732D}" name="Descriptiopn"/>
@@ -532,13 +705,14 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{176435C6-9928-463A-B5F7-69CD4F47CC99}" name="Table13789" displayName="Table13789" ref="E15:G18" totalsRowShown="0">
-  <autoFilter ref="E15:G18" xr:uid="{176435C6-9928-463A-B5F7-69CD4F47CC99}"/>
-  <tableColumns count="3">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{176435C6-9928-463A-B5F7-69CD4F47CC99}" name="Table13789" displayName="Table13789" ref="E15:H19" totalsRowShown="0">
+  <autoFilter ref="E15:H19" xr:uid="{176435C6-9928-463A-B5F7-69CD4F47CC99}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{5FD88E56-EE50-4E96-AF7E-14BF06E4B5D5}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{45FE54DB-459E-467E-AEFD-A964A6E0ACBE}" name="Rate"/>
-    <tableColumn id="3" xr3:uid="{F15086BD-3ABF-42E8-AD67-1A721BE8BDB3}" name="%Chance" dataDxfId="11" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{F7B36C6D-249B-4C8F-AD9A-FE1BA8D7EA5F}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{F15086BD-3ABF-42E8-AD67-1A721BE8BDB3}" name="%Chance" dataDxfId="19" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789[[#This Row],[Rate]]/SUM(Table13789[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -546,13 +720,14 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{FD822368-43F7-4899-AFB0-F84B016F8825}" name="Table1378913" displayName="Table1378913" ref="E10:G12" totalsRowShown="0">
-  <autoFilter ref="E10:G12" xr:uid="{FD822368-43F7-4899-AFB0-F84B016F8825}"/>
-  <tableColumns count="3">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{FD822368-43F7-4899-AFB0-F84B016F8825}" name="Table1378913" displayName="Table1378913" ref="E10:H12" totalsRowShown="0">
+  <autoFilter ref="E10:H12" xr:uid="{FD822368-43F7-4899-AFB0-F84B016F8825}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B45D3A7A-5A1F-44F3-AEE5-F5F07020D270}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{8D0A6B32-E6FD-4FEB-BD6B-C5D482407A4D}" name="Rate"/>
-    <tableColumn id="3" xr3:uid="{C0196799-3FEE-40C1-A925-239F70EFBC90}" name="%Chance" dataDxfId="10" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{BFC03E2E-52F7-4DCD-8C1C-A21D751C7908}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{C0196799-3FEE-40C1-A925-239F70EFBC90}" name="%Chance" dataDxfId="18" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913[[#This Row],[Rate]]/SUM(Table1378913[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -560,32 +735,15 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{CC44CAA6-0359-41CF-983E-278C8EE92B89}" name="Table137891314" displayName="Table137891314" ref="E5:H7" totalsRowShown="0">
   <autoFilter ref="E5:H7" xr:uid="{CC44CAA6-0359-41CF-983E-278C8EE92B89}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{22D67FFD-FBB4-459B-A50A-FD89B7CA47EA}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{ABA1E863-6768-496A-992C-D3ACAA40AD3E}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{21B42FB6-D1C6-45EA-99F9-B424D331BD57}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{5F1A8B4E-B55C-46A2-AA78-2705E90B792F}" name="%Chance" dataDxfId="9" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{5F1A8B4E-B55C-46A2-AA78-2705E90B792F}" name="%Chance" dataDxfId="17" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891314[[#This Row],[Rate]]/SUM(Table137891314[Rate])</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{5110325C-5187-4FDB-BA7F-BFBE8E131005}" name="Table1378915" displayName="Table1378915" ref="E36:G38" totalsRowShown="0">
-  <autoFilter ref="E36:G38" xr:uid="{5110325C-5187-4FDB-BA7F-BFBE8E131005}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E37:G38">
-    <sortCondition ref="F36:F38"/>
-  </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{36F17566-CFEC-4201-BC32-CDFBEE168785}" name="ItemID"/>
-    <tableColumn id="2" xr3:uid="{7FAF1644-E0BB-494D-A054-1BEBE28A02F9}" name="Rate"/>
-    <tableColumn id="3" xr3:uid="{5EBDFC1E-8AA4-45D3-B7A3-F1E8D0317C06}" name="%Chance" dataDxfId="8" dataCellStyle="Percent">
-      <calculatedColumnFormula>Table1378915[[#This Row],[Rate]]/SUM(Table1378915[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -855,141 +1013,269 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385CD932-F33E-4B64-B729-8359FB37D1A0}">
-  <dimension ref="D4:F20"/>
+  <dimension ref="D3:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="6" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="s">
+    <row r="3" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="4:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D4" s="6"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="F7">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="4:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="4:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="5">
+        <v>50</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="4:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="4:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D11" s="1" t="s">
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13">
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="4:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F19" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="4:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D16" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D17" s="1" t="s">
+    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20">
+      <c r="G22">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FEB0EF-3316-4CF7-BB73-CA3D5C3FEAE1}">
-  <dimension ref="C4:L12"/>
+  <dimension ref="C4:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,188 +1291,268 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" t="s">
         <v>57</v>
-      </c>
-      <c r="I12" t="s">
-        <v>61</v>
       </c>
       <c r="J12">
         <v>10</v>
       </c>
       <c r="K12" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K6:K12">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Y">
+  <conditionalFormatting sqref="K6:K16">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",K6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",K6)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1201,10 +1567,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB88C1E5-D251-4818-A177-3044F90F9570}">
-  <dimension ref="B4:X56"/>
+  <dimension ref="B4:X74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="S50" sqref="S50"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,8 +1578,9 @@
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.140625" customWidth="1"/>
     <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -1228,35 +1595,35 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="O4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="O4" s="1"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C5" s="3"/>
+      <c r="C5" s="2"/>
       <c r="E5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P5" s="3"/>
+      <c r="P5" s="2"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C6" s="3"/>
+      <c r="C6" s="2"/>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -1264,17 +1631,17 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <f>Table137891314[[#This Row],[Rate]]/SUM(Table137891314[Rate])</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="P6" s="3"/>
-      <c r="X6" s="4"/>
+      <c r="N6" s="3"/>
+      <c r="P6" s="2"/>
+      <c r="X6" s="3"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -1282,466 +1649,770 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <f>Table137891314[[#This Row],[Rate]]/SUM(Table137891314[Rate])</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="N7" s="4"/>
-      <c r="X7" s="4"/>
+      <c r="N7" s="3"/>
+      <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="M8" s="5"/>
+      <c r="M8" s="4"/>
     </row>
     <row r="9" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="M9" s="5"/>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
         <v>4</v>
       </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-      <c r="M10" s="5"/>
+      <c r="N10" s="4"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
         <f>Table1378913[[#This Row],[Rate]]/SUM(Table1378913[Rate])</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F12">
         <v>5</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
         <f>Table1378913[[#This Row],[Rate]]/SUM(Table1378913[Rate])</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="14" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="E14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
         <v>4</v>
-      </c>
-      <c r="G15" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F16">
         <v>3</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
         <f>Table13789[[#This Row],[Rate]]/SUM(Table13789[Rate])</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="17" spans="5:23" x14ac:dyDescent="0.25">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="17" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <f>Table13789[[#This Row],[Rate]]/SUM(Table13789[Rate])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <f>Table13789[[#This Row],[Rate]]/SUM(Table13789[Rate])</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="19" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19" s="4">
+        <f>Table13789[[#This Row],[Rate]]/SUM(Table13789[Rate])</f>
+        <v>0.25</v>
+      </c>
+      <c r="W19" s="2"/>
+    </row>
+    <row r="21" spans="5:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="E21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F17">
-        <v>9</v>
-      </c>
-      <c r="G17" s="5">
-        <f>Table13789[[#This Row],[Rate]]/SUM(Table13789[Rate])</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18">
-        <v>6</v>
-      </c>
-      <c r="G18" s="5">
-        <f>Table13789[[#This Row],[Rate]]/SUM(Table13789[Rate])</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="19" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="5:23" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
         <v>4</v>
       </c>
-      <c r="G21" t="s">
-        <v>6</v>
-      </c>
-      <c r="W21" s="4"/>
-    </row>
-    <row r="22" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4">
+        <f>Table1378918[[#This Row],[Rate]]/SUM(Table1378918[Rate])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="5:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="U24" s="1"/>
+      <c r="V24" s="2"/>
+    </row>
+    <row r="25" spans="5:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="E25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" s="5">
-        <f>Table1378918[[#This Row],[Rate]]/SUM(Table1378918[Rate])</f>
-        <v>1</v>
-      </c>
-      <c r="W22" s="4"/>
-    </row>
-    <row r="24" spans="5:23" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="3"/>
-    </row>
-    <row r="25" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
         <v>4</v>
       </c>
-      <c r="G25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" s="5">
+    </row>
+    <row r="27" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4">
         <f>Table137891819[[#This Row],[Rate]]/SUM(Table137891819[Rate])</f>
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="27" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E27" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27">
+    <row r="28" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28">
         <v>10</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4">
         <f>Table137891819[[#This Row],[Rate]]/SUM(Table137891819[Rate])</f>
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="29" spans="5:23" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E29" s="2" t="s">
+    <row r="30" spans="5:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="E30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31">
+      <c r="F32">
         <v>0.1</v>
       </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31" s="4">
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3">
         <f>Table13789181924[[#This Row],[Rate]]/SUM(Table13789181924[Rate])</f>
         <v>2.4937655860349127E-3</v>
       </c>
     </row>
-    <row r="32" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32">
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33">
         <v>20</v>
       </c>
-      <c r="G32">
+      <c r="G33">
         <v>20</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H33" s="4">
         <f>Table13789181924[[#This Row],[Rate]]/SUM(Table13789181924[Rate])</f>
         <v>0.49875311720698251</v>
       </c>
     </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33">
+    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34">
         <v>20</v>
       </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33" s="5">
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4">
         <f>Table13789181924[[#This Row],[Rate]]/SUM(Table13789181924[Rate])</f>
         <v>0.49875311720698251</v>
       </c>
     </row>
-    <row r="35" spans="5:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E35" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E36" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" t="s">
-        <v>6</v>
-      </c>
+    <row r="36" spans="5:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="E36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" s="4">
-        <f>Table1378915[[#This Row],[Rate]]/SUM(Table1378915[Rate])</f>
-        <v>0.16666666666666666</v>
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F38">
-        <v>5</v>
-      </c>
-      <c r="G38" s="5">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3">
         <f>Table1378915[[#This Row],[Rate]]/SUM(Table1378915[Rate])</f>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="40" spans="5:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4">
+        <f>Table1378915[[#This Row],[Rate]]/SUM(Table1378915[Rate])</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" s="4">
+        <f>Table1378915[[#This Row],[Rate]]/SUM(Table1378915[Rate])</f>
+        <v>0.25</v>
+      </c>
     </row>
     <row r="41" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>1</v>
-      </c>
-      <c r="F41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4">
+        <f>Table1378915[[#This Row],[Rate]]/SUM(Table1378915[Rate])</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="5:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="E43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
         <v>4</v>
       </c>
-      <c r="G41" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42">
+    </row>
+    <row r="45" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45">
         <v>12</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
         <v>0.22018348623853212</v>
       </c>
     </row>
-    <row r="43" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43">
+    <row r="46" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46">
         <v>25</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
         <v>0.45871559633027525</v>
       </c>
     </row>
-    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E44" t="s">
-        <v>53</v>
-      </c>
-      <c r="F44">
+    <row r="47" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47">
         <v>8</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
         <v>0.14678899082568808</v>
       </c>
     </row>
-    <row r="45" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F45">
+    <row r="48" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48">
         <v>3</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
         <v>5.5045871559633031E-2</v>
       </c>
     </row>
-    <row r="46" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E46" t="s">
-        <v>23</v>
-      </c>
-      <c r="F46">
+    <row r="49" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49">
         <v>3</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
         <v>5.5045871559633031E-2</v>
       </c>
     </row>
-    <row r="47" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E47" t="s">
-        <v>36</v>
-      </c>
-      <c r="F47">
+    <row r="50" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50">
         <v>3</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
         <v>5.5045871559633031E-2</v>
       </c>
     </row>
-    <row r="48" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48">
+    <row r="51" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51">
         <v>0.5</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
         <v>9.1743119266055051E-3</v>
       </c>
     </row>
-    <row r="50" spans="5:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E50" s="2" t="s">
+    <row r="53" spans="5:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="E53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
         <v>47</v>
       </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" s="4">
+        <f>Table137891520[[#This Row],[Rate]]/SUM(Table137891520[Rate])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="5:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="E57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
         <v>4</v>
       </c>
-      <c r="G51" t="s">
+    </row>
+    <row r="59" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>53</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" s="4">
+        <f>Table1378915202[[#This Row],[Rate]]/SUM(Table1378915202[Rate])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="60" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>58</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" s="3">
+        <f>Table1378915202[[#This Row],[Rate]]/SUM(Table1378915202[Rate])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="62" spans="5:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="E62" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>2</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E52" t="s">
-        <v>51</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52" s="5">
-        <f>Table137891520[[#This Row],[Rate]]/SUM(Table137891520[Rate])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="5:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E54" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E55" t="s">
-        <v>1</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="F64">
+        <v>10</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64" s="4">
+        <f>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</f>
+        <v>0.66225165562913912</v>
+      </c>
+    </row>
+    <row r="65" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65">
         <v>4</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G65">
+        <v>7</v>
+      </c>
+      <c r="H65" s="4">
+        <f>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</f>
+        <v>0.26490066225165565</v>
+      </c>
+    </row>
+    <row r="66" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E56" t="s">
-        <v>57</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56" s="5">
-        <f>Table1378915202[[#This Row],[Rate]]/SUM(Table1378915202[Rate])</f>
-        <v>1</v>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>25</v>
+      </c>
+      <c r="H66" s="4">
+        <f>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</f>
+        <v>6.6225165562913912E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67">
+        <v>0.1</v>
+      </c>
+      <c r="G67">
+        <v>200</v>
+      </c>
+      <c r="H67" s="4">
+        <f>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</f>
+        <v>6.6225165562913916E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="5:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="E69" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>2</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71">
+        <v>10</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71" s="4">
+        <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
+        <v>0.66225165562913912</v>
+      </c>
+    </row>
+    <row r="72" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72">
+        <v>4</v>
+      </c>
+      <c r="G72">
+        <v>5</v>
+      </c>
+      <c r="H72" s="4">
+        <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
+        <v>0.26490066225165565</v>
+      </c>
+    </row>
+    <row r="73" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>10</v>
+      </c>
+      <c r="H73" s="4">
+        <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
+        <v>6.6225165562913912E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74">
+        <v>0.1</v>
+      </c>
+      <c r="G74">
+        <v>25</v>
+      </c>
+      <c r="H74" s="4">
+        <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
+        <v>6.6225165562913916E-3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="10">
+  <tableParts count="12">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -1752,6 +2423,8 @@
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
     <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
--- a/pack_world_game/design/Packs Items Tables.xlsx
+++ b/pack_world_game/design/Packs Items Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\pack_world\pack_world_game\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AB0EB3-7D1D-4C97-9845-910A06ED9F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44969E6F-DF73-42AA-AC8A-959DDC5BDDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="79">
   <si>
     <t>ItemID</t>
   </si>
@@ -235,15 +235,6 @@
     <t>Cobweb</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
     <t>Starter</t>
   </si>
   <si>
@@ -281,6 +272,9 @@
   </si>
   <si>
     <t>Farm</t>
+  </si>
+  <si>
+    <t>Boulder</t>
   </si>
 </sst>
 </file>
@@ -346,86 +340,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -476,6 +402,12 @@
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -510,7 +442,7 @@
     <tableColumn id="1" xr3:uid="{36F17566-CFEC-4201-BC32-CDFBEE168785}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{7FAF1644-E0BB-494D-A054-1BEBE28A02F9}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FA86084E-4629-4BD7-A80C-6229B8D80F65}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{5EBDFC1E-8AA4-45D3-B7A3-F1E8D0317C06}" name="%Chance" dataDxfId="16" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{5EBDFC1E-8AA4-45D3-B7A3-F1E8D0317C06}" name="%Chance" dataDxfId="10" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378915[[#This Row],[Rate]]/SUM(Table1378915[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -528,7 +460,7 @@
     <tableColumn id="1" xr3:uid="{333EBB11-1697-4271-B03A-E6B773563CFE}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{66779ED5-FBDC-43B6-B577-67F38636A1F1}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FA20C3E4-336D-43FD-9C7B-B1827A771EBC}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{80EF7A8F-4364-48E9-88BC-D9BE908A8E81}" name="%Chance" dataDxfId="15" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{80EF7A8F-4364-48E9-88BC-D9BE908A8E81}" name="%Chance" dataDxfId="9" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -543,7 +475,7 @@
     <tableColumn id="1" xr3:uid="{28E027C3-6619-4F6B-B9B5-4E991BEE7169}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{83798236-E790-4DCB-9325-19CBD2933987}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FD652A42-76E9-4A8A-B64F-41F588B57CA0}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{80AE0A84-EBAE-467D-B0FF-B1661CD6F9CA}" name="%Chance" dataDxfId="14" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{80AE0A84-EBAE-467D-B0FF-B1661CD6F9CA}" name="%Chance" dataDxfId="8" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378918[[#This Row],[Rate]]/SUM(Table1378918[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -558,7 +490,7 @@
     <tableColumn id="1" xr3:uid="{5710BAA2-303B-4130-B397-9E88F263AC1A}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{749EB946-237E-4C13-8450-9CB46D681F3D}" name="Rate"/>
     <tableColumn id="7" xr3:uid="{BF90F91A-CFD2-42FC-87F6-1E7A02388275}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{29E82DC4-7FBA-46F8-A388-8832C45E81A7}" name="%Chance" dataDxfId="13" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{29E82DC4-7FBA-46F8-A388-8832C45E81A7}" name="%Chance" dataDxfId="7" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891819[[#This Row],[Rate]]/SUM(Table137891819[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -576,7 +508,7 @@
     <tableColumn id="1" xr3:uid="{DFFD549D-06AC-4FEB-9CAE-81D867FAF7DA}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{5A314CBA-65C8-411D-9F89-C9E413B3C28A}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{A94A88ED-4FF7-4BF3-AAAF-6B7F2860C1FD}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{D8F779D7-C1D3-4D6E-AE28-F4F37BF0FD4C}" name="%Chance" dataDxfId="12" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{D8F779D7-C1D3-4D6E-AE28-F4F37BF0FD4C}" name="%Chance" dataDxfId="6" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891520[[#This Row],[Rate]]/SUM(Table137891520[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -591,7 +523,7 @@
     <tableColumn id="1" xr3:uid="{BE923A95-75C9-4062-BE0B-A80844A43C74}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{8A2B068D-BA52-49A9-8B60-7C7AB68DE7AA}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{96CED9DA-94ED-4108-8E34-6799C464E382}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{B90E081D-90F4-47E6-B8F8-1845ADE3AC33}" name="%Chance" dataDxfId="11" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{B90E081D-90F4-47E6-B8F8-1845ADE3AC33}" name="%Chance" dataDxfId="5" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789181924[[#This Row],[Rate]]/SUM(Table13789181924[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -609,7 +541,7 @@
     <tableColumn id="1" xr3:uid="{381B99D4-DAE9-4E7B-B588-5D9988B19F22}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{D8C82624-656A-47EE-8246-49712DEB46B7}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{6E1B10DB-484A-43C3-8696-EC6E862B4D4A}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{8A8DD7D9-1F12-4887-B5AA-12E962C2FD48}" name="%Chance" dataDxfId="10" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{8A8DD7D9-1F12-4887-B5AA-12E962C2FD48}" name="%Chance" dataDxfId="4" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378915202[[#This Row],[Rate]]/SUM(Table1378915202[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -624,7 +556,7 @@
     <tableColumn id="1" xr3:uid="{5FC31BA1-4AF3-430A-A419-59C22C2155C5}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{BC88DEB0-09FB-4E75-B113-7CDE256B8E17}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{6C6C351D-AFB0-4A3F-BC2D-CDE5D9A11B25}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{733DAD33-07B1-4A54-BBE0-B3212B512175}" name="%Chance" dataDxfId="7" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{733DAD33-07B1-4A54-BBE0-B3212B512175}" name="%Chance" dataDxfId="3" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -639,7 +571,7 @@
     <tableColumn id="1" xr3:uid="{9C5387E8-4E0B-43FC-BD7B-7307A5B89A6C}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{000E006A-A8FF-4DD8-84CA-E745617C159E}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{89D8EF85-04D9-47B6-81E8-ECDC97E127CD}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{67DA4D60-8692-4B89-85F1-E0CA987870E6}" name="%Chance" dataDxfId="4" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{67DA4D60-8692-4B89-85F1-E0CA987870E6}" name="%Chance" dataDxfId="2" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -712,7 +644,7 @@
     <tableColumn id="1" xr3:uid="{5FD88E56-EE50-4E96-AF7E-14BF06E4B5D5}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{45FE54DB-459E-467E-AEFD-A964A6E0ACBE}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{F7B36C6D-249B-4C8F-AD9A-FE1BA8D7EA5F}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{F15086BD-3ABF-42E8-AD67-1A721BE8BDB3}" name="%Chance" dataDxfId="19" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{F15086BD-3ABF-42E8-AD67-1A721BE8BDB3}" name="%Chance" dataDxfId="13" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789[[#This Row],[Rate]]/SUM(Table13789[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -727,7 +659,7 @@
     <tableColumn id="1" xr3:uid="{B45D3A7A-5A1F-44F3-AEE5-F5F07020D270}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{8D0A6B32-E6FD-4FEB-BD6B-C5D482407A4D}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{BFC03E2E-52F7-4DCD-8C1C-A21D751C7908}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{C0196799-3FEE-40C1-A925-239F70EFBC90}" name="%Chance" dataDxfId="18" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{C0196799-3FEE-40C1-A925-239F70EFBC90}" name="%Chance" dataDxfId="12" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913[[#This Row],[Rate]]/SUM(Table1378913[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -742,7 +674,7 @@
     <tableColumn id="1" xr3:uid="{22D67FFD-FBB4-459B-A50A-FD89B7CA47EA}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{ABA1E863-6768-496A-992C-D3ACAA40AD3E}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{21B42FB6-D1C6-45EA-99F9-B424D331BD57}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{5F1A8B4E-B55C-46A2-AA78-2705E90B792F}" name="%Chance" dataDxfId="17" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{5F1A8B4E-B55C-46A2-AA78-2705E90B792F}" name="%Chance" dataDxfId="11" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891314[[#This Row],[Rate]]/SUM(Table137891314[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1013,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385CD932-F33E-4B64-B729-8359FB37D1A0}">
-  <dimension ref="D3:K22"/>
+  <dimension ref="D4:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,209 +965,102 @@
     <col min="17" max="17" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="4:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
+    <row r="4" spans="4:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>34</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>3</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="4:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+    </row>
+    <row r="8" spans="4:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>34</v>
       </c>
       <c r="G9" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="4:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D10" s="6"/>
-      <c r="E10" s="5"/>
+    </row>
+    <row r="10" spans="4:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D10" s="1"/>
       <c r="F10" t="s">
         <v>27</v>
       </c>
       <c r="G10">
         <v>10</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12">
         <v>50</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="4:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+    </row>
+    <row r="14" spans="4:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>34</v>
       </c>
       <c r="G15" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>5</v>
       </c>
       <c r="G16">
         <v>10</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>3</v>
       </c>
       <c r="G17">
         <v>10</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="4:11" ht="26.25" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="6:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F19" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>34</v>
       </c>
@@ -1243,7 +1068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>36</v>
       </c>
@@ -1251,7 +1076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>3</v>
       </c>
@@ -1275,7 +1100,7 @@
   <dimension ref="C4:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,7 +1191,7 @@
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
@@ -1389,7 +1214,7 @@
         <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s">
         <v>26</v>
@@ -1412,7 +1237,7 @@
         <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s">
         <v>30</v>
@@ -1495,10 +1320,10 @@
         <v>63</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -1507,21 +1332,21 @@
         <v>55</v>
       </c>
       <c r="L14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
         <v>28</v>
       </c>
       <c r="H15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J15">
         <v>10</v>
@@ -1530,15 +1355,15 @@
         <v>55</v>
       </c>
       <c r="L15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.25">
       <c r="H16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s">
         <v>56</v>
@@ -1549,10 +1374,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K6:K16">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",K6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",K6)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1569,8 +1394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB88C1E5-D251-4818-A177-3044F90F9570}">
   <dimension ref="B4:X74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1694,7 +1519,7 @@
       </c>
       <c r="H11" s="4">
         <f>Table1378913[[#This Row],[Rate]]/SUM(Table1378913[Rate])</f>
-        <v>0.66666666666666663</v>
+        <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
@@ -1702,14 +1527,14 @@
         <v>6</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" s="4">
         <f>Table1378913[[#This Row],[Rate]]/SUM(Table1378913[Rate])</f>
-        <v>0.33333333333333331</v>
+        <v>0.23076923076923078</v>
       </c>
     </row>
     <row r="14" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
@@ -2249,7 +2074,7 @@
     </row>
     <row r="62" spans="5:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E62" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -2330,7 +2155,7 @@
     </row>
     <row r="69" spans="5:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E69" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>

--- a/pack_world_game/design/Packs Items Tables.xlsx
+++ b/pack_world_game/design/Packs Items Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\pack_world\pack_world_game\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44969E6F-DF73-42AA-AC8A-959DDC5BDDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F5AE6C-2ED8-4AEA-BA2D-3FA50E43069C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="80">
   <si>
     <t>ItemID</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>Boulder</t>
+  </si>
+  <si>
+    <t>SmallGold</t>
   </si>
 </sst>
 </file>
@@ -1394,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB88C1E5-D251-4818-A177-3044F90F9570}">
   <dimension ref="B4:X74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1750,17 +1753,17 @@
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F33">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G33">
         <v>20</v>
       </c>
       <c r="H33" s="4">
         <f>Table13789181924[[#This Row],[Rate]]/SUM(Table13789181924[Rate])</f>
-        <v>0.49875311720698251</v>
+        <v>0.62344139650872821</v>
       </c>
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.25">
@@ -1768,14 +1771,14 @@
         <v>45</v>
       </c>
       <c r="F34">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" s="4">
         <f>Table13789181924[[#This Row],[Rate]]/SUM(Table13789181924[Rate])</f>
-        <v>0.49875311720698251</v>
+        <v>0.37406483790523687</v>
       </c>
     </row>
     <row r="36" spans="5:8" ht="26.25" x14ac:dyDescent="0.4">
@@ -2074,7 +2077,7 @@
     </row>
     <row r="62" spans="5:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E62" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>

--- a/pack_world_game/design/Packs Items Tables.xlsx
+++ b/pack_world_game/design/Packs Items Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\pack_world\pack_world_game\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F5AE6C-2ED8-4AEA-BA2D-3FA50E43069C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2336130A-427A-4B6E-8A3D-149977B3C69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="83">
   <si>
     <t>ItemID</t>
   </si>
@@ -278,6 +278,15 @@
   </si>
   <si>
     <t>SmallGold</t>
+  </si>
+  <si>
+    <t>BerryShrub</t>
+  </si>
+  <si>
+    <t>TileBirdnest</t>
+  </si>
+  <si>
+    <t>Berry</t>
   </si>
 </sst>
 </file>
@@ -354,7 +363,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -411,6 +420,9 @@
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -445,7 +457,7 @@
     <tableColumn id="1" xr3:uid="{36F17566-CFEC-4201-BC32-CDFBEE168785}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{7FAF1644-E0BB-494D-A054-1BEBE28A02F9}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FA86084E-4629-4BD7-A80C-6229B8D80F65}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{5EBDFC1E-8AA4-45D3-B7A3-F1E8D0317C06}" name="%Chance" dataDxfId="10" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{5EBDFC1E-8AA4-45D3-B7A3-F1E8D0317C06}" name="%Chance" dataDxfId="11" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378915[[#This Row],[Rate]]/SUM(Table1378915[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -454,16 +466,16 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}" name="Table137891516" displayName="Table137891516" ref="E44:H51" totalsRowShown="0">
-  <autoFilter ref="E44:H51" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E45:H51">
-    <sortCondition descending="1" ref="F44:F51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}" name="Table137891516" displayName="Table137891516" ref="K44:N51" totalsRowShown="0">
+  <autoFilter ref="K44:N51" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K45:N51">
+    <sortCondition descending="1" ref="L44:L51"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{333EBB11-1697-4271-B03A-E6B773563CFE}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{66779ED5-FBDC-43B6-B577-67F38636A1F1}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FA20C3E4-336D-43FD-9C7B-B1827A771EBC}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{80EF7A8F-4364-48E9-88BC-D9BE908A8E81}" name="%Chance" dataDxfId="9" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{80EF7A8F-4364-48E9-88BC-D9BE908A8E81}" name="%Chance" dataDxfId="10" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -478,7 +490,7 @@
     <tableColumn id="1" xr3:uid="{28E027C3-6619-4F6B-B9B5-4E991BEE7169}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{83798236-E790-4DCB-9325-19CBD2933987}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FD652A42-76E9-4A8A-B64F-41F588B57CA0}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{80AE0A84-EBAE-467D-B0FF-B1661CD6F9CA}" name="%Chance" dataDxfId="8" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{80AE0A84-EBAE-467D-B0FF-B1661CD6F9CA}" name="%Chance" dataDxfId="9" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378918[[#This Row],[Rate]]/SUM(Table1378918[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -493,7 +505,7 @@
     <tableColumn id="1" xr3:uid="{5710BAA2-303B-4130-B397-9E88F263AC1A}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{749EB946-237E-4C13-8450-9CB46D681F3D}" name="Rate"/>
     <tableColumn id="7" xr3:uid="{BF90F91A-CFD2-42FC-87F6-1E7A02388275}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{29E82DC4-7FBA-46F8-A388-8832C45E81A7}" name="%Chance" dataDxfId="7" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{29E82DC4-7FBA-46F8-A388-8832C45E81A7}" name="%Chance" dataDxfId="8" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891819[[#This Row],[Rate]]/SUM(Table137891819[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -511,7 +523,7 @@
     <tableColumn id="1" xr3:uid="{DFFD549D-06AC-4FEB-9CAE-81D867FAF7DA}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{5A314CBA-65C8-411D-9F89-C9E413B3C28A}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{A94A88ED-4FF7-4BF3-AAAF-6B7F2860C1FD}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{D8F779D7-C1D3-4D6E-AE28-F4F37BF0FD4C}" name="%Chance" dataDxfId="6" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{D8F779D7-C1D3-4D6E-AE28-F4F37BF0FD4C}" name="%Chance" dataDxfId="7" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891520[[#This Row],[Rate]]/SUM(Table137891520[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -520,13 +532,13 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{BD00E36D-44EA-4B4F-8D6C-1274E45F6098}" name="Table13789181924" displayName="Table13789181924" ref="E31:H34" totalsRowShown="0">
-  <autoFilter ref="E31:H34" xr:uid="{BD00E36D-44EA-4B4F-8D6C-1274E45F6098}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{BD00E36D-44EA-4B4F-8D6C-1274E45F6098}" name="Table13789181924" displayName="Table13789181924" ref="K31:N34" totalsRowShown="0">
+  <autoFilter ref="K31:N34" xr:uid="{BD00E36D-44EA-4B4F-8D6C-1274E45F6098}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{BE923A95-75C9-4062-BE0B-A80844A43C74}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{8A2B068D-BA52-49A9-8B60-7C7AB68DE7AA}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{96CED9DA-94ED-4108-8E34-6799C464E382}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{B90E081D-90F4-47E6-B8F8-1845ADE3AC33}" name="%Chance" dataDxfId="5" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{B90E081D-90F4-47E6-B8F8-1845ADE3AC33}" name="%Chance" dataDxfId="6" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789181924[[#This Row],[Rate]]/SUM(Table13789181924[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -544,7 +556,7 @@
     <tableColumn id="1" xr3:uid="{381B99D4-DAE9-4E7B-B588-5D9988B19F22}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{D8C82624-656A-47EE-8246-49712DEB46B7}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{6E1B10DB-484A-43C3-8696-EC6E862B4D4A}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{8A8DD7D9-1F12-4887-B5AA-12E962C2FD48}" name="%Chance" dataDxfId="4" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{8A8DD7D9-1F12-4887-B5AA-12E962C2FD48}" name="%Chance" dataDxfId="5" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378915202[[#This Row],[Rate]]/SUM(Table1378915202[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -553,13 +565,13 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A78B3AE9-4F71-4D90-BBB1-B1341409AE74}" name="Table1378913147" displayName="Table1378913147" ref="E63:H67" totalsRowShown="0">
-  <autoFilter ref="E63:H67" xr:uid="{A78B3AE9-4F71-4D90-BBB1-B1341409AE74}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A78B3AE9-4F71-4D90-BBB1-B1341409AE74}" name="Table1378913147" displayName="Table1378913147" ref="K63:N67" totalsRowShown="0">
+  <autoFilter ref="K63:N67" xr:uid="{A78B3AE9-4F71-4D90-BBB1-B1341409AE74}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{5FC31BA1-4AF3-430A-A419-59C22C2155C5}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{BC88DEB0-09FB-4E75-B113-7CDE256B8E17}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{6C6C351D-AFB0-4A3F-BC2D-CDE5D9A11B25}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{733DAD33-07B1-4A54-BBE0-B3212B512175}" name="%Chance" dataDxfId="3" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{733DAD33-07B1-4A54-BBE0-B3212B512175}" name="%Chance" dataDxfId="4" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -574,8 +586,23 @@
     <tableColumn id="1" xr3:uid="{9C5387E8-4E0B-43FC-BD7B-7307A5B89A6C}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{000E006A-A8FF-4DD8-84CA-E745617C159E}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{89D8EF85-04D9-47B6-81E8-ECDC97E127CD}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{67DA4D60-8692-4B89-85F1-E0CA987870E6}" name="%Chance" dataDxfId="2" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{67DA4D60-8692-4B89-85F1-E0CA987870E6}" name="%Chance" dataDxfId="3" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{2FC462D0-506C-4CBE-83DA-7B5DFCEB8956}" name="Table1378913147812" displayName="Table1378913147812" ref="E78:H81" totalsRowShown="0">
+  <autoFilter ref="E78:H81" xr:uid="{2FC462D0-506C-4CBE-83DA-7B5DFCEB8956}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{4039683D-C0FB-4D66-BC6D-675C507599A7}" name="ItemID"/>
+    <tableColumn id="2" xr3:uid="{03A60152-6173-4E33-8950-C35B5FC16A06}" name="Rate"/>
+    <tableColumn id="6" xr3:uid="{36A0463A-B432-4BFA-8A69-778F0DEAA5D7}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{FB468FC3-8F5C-492C-974E-7C915391756C}" name="%Chance" dataDxfId="2" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table1378913147812[[#This Row],[Rate]]/SUM(Table1378913147812[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -641,13 +668,13 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{176435C6-9928-463A-B5F7-69CD4F47CC99}" name="Table13789" displayName="Table13789" ref="E15:H19" totalsRowShown="0">
-  <autoFilter ref="E15:H19" xr:uid="{176435C6-9928-463A-B5F7-69CD4F47CC99}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{176435C6-9928-463A-B5F7-69CD4F47CC99}" name="Table13789" displayName="Table13789" ref="K15:N19" totalsRowShown="0">
+  <autoFilter ref="K15:N19" xr:uid="{176435C6-9928-463A-B5F7-69CD4F47CC99}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{5FD88E56-EE50-4E96-AF7E-14BF06E4B5D5}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{45FE54DB-459E-467E-AEFD-A964A6E0ACBE}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{F7B36C6D-249B-4C8F-AD9A-FE1BA8D7EA5F}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{F15086BD-3ABF-42E8-AD67-1A721BE8BDB3}" name="%Chance" dataDxfId="13" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{F15086BD-3ABF-42E8-AD67-1A721BE8BDB3}" name="%Chance" dataDxfId="14" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789[[#This Row],[Rate]]/SUM(Table13789[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -656,13 +683,13 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{FD822368-43F7-4899-AFB0-F84B016F8825}" name="Table1378913" displayName="Table1378913" ref="E10:H12" totalsRowShown="0">
-  <autoFilter ref="E10:H12" xr:uid="{FD822368-43F7-4899-AFB0-F84B016F8825}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{FD822368-43F7-4899-AFB0-F84B016F8825}" name="Table1378913" displayName="Table1378913" ref="K10:N12" totalsRowShown="0">
+  <autoFilter ref="K10:N12" xr:uid="{FD822368-43F7-4899-AFB0-F84B016F8825}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B45D3A7A-5A1F-44F3-AEE5-F5F07020D270}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{8D0A6B32-E6FD-4FEB-BD6B-C5D482407A4D}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{BFC03E2E-52F7-4DCD-8C1C-A21D751C7908}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{C0196799-3FEE-40C1-A925-239F70EFBC90}" name="%Chance" dataDxfId="12" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{C0196799-3FEE-40C1-A925-239F70EFBC90}" name="%Chance" dataDxfId="13" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913[[#This Row],[Rate]]/SUM(Table1378913[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -671,13 +698,13 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{CC44CAA6-0359-41CF-983E-278C8EE92B89}" name="Table137891314" displayName="Table137891314" ref="E5:H7" totalsRowShown="0">
-  <autoFilter ref="E5:H7" xr:uid="{CC44CAA6-0359-41CF-983E-278C8EE92B89}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{CC44CAA6-0359-41CF-983E-278C8EE92B89}" name="Table137891314" displayName="Table137891314" ref="K5:N7" totalsRowShown="0">
+  <autoFilter ref="K5:N7" xr:uid="{CC44CAA6-0359-41CF-983E-278C8EE92B89}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{22D67FFD-FBB4-459B-A50A-FD89B7CA47EA}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{ABA1E863-6768-496A-992C-D3ACAA40AD3E}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{21B42FB6-D1C6-45EA-99F9-B424D331BD57}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{5F1A8B4E-B55C-46A2-AA78-2705E90B792F}" name="%Chance" dataDxfId="11" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{5F1A8B4E-B55C-46A2-AA78-2705E90B792F}" name="%Chance" dataDxfId="12" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891314[[#This Row],[Rate]]/SUM(Table137891314[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1103,7 +1130,7 @@
   <dimension ref="C4:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,10 +1422,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB88C1E5-D251-4818-A177-3044F90F9570}">
-  <dimension ref="B4:X74"/>
+  <dimension ref="B4:X81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="U38" sqref="U38"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="S90" sqref="S90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,198 +1452,194 @@
     <row r="4" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
-      <c r="E5" t="s">
+      <c r="K5" t="s">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
+      <c r="L5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="M5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>4</v>
       </c>
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
-      <c r="E6" t="s">
+      <c r="K6" t="s">
         <v>31</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>10</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4">
         <f>Table137891314[[#This Row],[Rate]]/SUM(Table137891314[Rate])</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="N6" s="3"/>
       <c r="P6" s="2"/>
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
+      <c r="K7" t="s">
         <v>5</v>
       </c>
-      <c r="F7">
+      <c r="L7">
         <v>4</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4">
         <f>Table137891314[[#This Row],[Rate]]/SUM(Table137891314[Rate])</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="N7" s="3"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="M9" s="4"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
+      <c r="K10" t="s">
         <v>0</v>
       </c>
-      <c r="F10" t="s">
+      <c r="L10" t="s">
         <v>2</v>
       </c>
-      <c r="G10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="M10" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="4"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
+      <c r="K11" t="s">
         <v>27</v>
       </c>
-      <c r="F11">
+      <c r="L11">
         <v>10</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4">
         <f>Table1378913[[#This Row],[Rate]]/SUM(Table1378913[Rate])</f>
         <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
+      <c r="K12" t="s">
         <v>6</v>
       </c>
-      <c r="F12">
+      <c r="L12">
         <v>3</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4">
         <f>Table1378913[[#This Row],[Rate]]/SUM(Table1378913[Rate])</f>
         <v>0.23076923076923078</v>
       </c>
     </row>
     <row r="14" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
+      <c r="K15" t="s">
         <v>0</v>
       </c>
-      <c r="F15" t="s">
+      <c r="L15" t="s">
         <v>2</v>
       </c>
-      <c r="G15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="M15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
+      <c r="K16" t="s">
         <v>35</v>
       </c>
-      <c r="F16">
+      <c r="L16">
         <v>3</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" s="4">
         <f>Table13789[[#This Row],[Rate]]/SUM(Table13789[Rate])</f>
         <v>0.375</v>
       </c>
     </row>
     <row r="17" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
+      <c r="K17" t="s">
         <v>64</v>
       </c>
-      <c r="F17">
+      <c r="L17">
         <v>0</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4">
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17" s="4">
         <f>Table13789[[#This Row],[Rate]]/SUM(Table13789[Rate])</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
+      <c r="K18" t="s">
         <v>36</v>
       </c>
-      <c r="F18">
+      <c r="L18">
         <v>3</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4">
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" s="4">
         <f>Table13789[[#This Row],[Rate]]/SUM(Table13789[Rate])</f>
         <v>0.375</v>
       </c>
     </row>
     <row r="19" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
+      <c r="K19" t="s">
         <v>5</v>
       </c>
-      <c r="F19">
+      <c r="L19">
         <v>2</v>
       </c>
-      <c r="G19">
+      <c r="M19">
         <v>3</v>
       </c>
-      <c r="H19" s="4">
+      <c r="N19" s="4">
         <f>Table13789[[#This Row],[Rate]]/SUM(Table13789[Rate])</f>
         <v>0.25</v>
       </c>
@@ -1716,79 +1739,79 @@
       </c>
     </row>
     <row r="30" spans="5:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
     </row>
     <row r="31" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
+      <c r="K31" t="s">
         <v>0</v>
       </c>
-      <c r="F31" t="s">
+      <c r="L31" t="s">
         <v>2</v>
       </c>
-      <c r="G31" t="s">
-        <v>1</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="M31" t="s">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
+      <c r="K32" t="s">
         <v>50</v>
       </c>
-      <c r="F32">
+      <c r="L32">
         <v>0.1</v>
       </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32" s="3">
         <f>Table13789181924[[#This Row],[Rate]]/SUM(Table13789181924[Rate])</f>
         <v>2.4937655860349127E-3</v>
       </c>
     </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
+    <row r="33" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
         <v>69</v>
       </c>
-      <c r="F33">
+      <c r="L33">
         <v>25</v>
       </c>
-      <c r="G33">
+      <c r="M33">
         <v>20</v>
       </c>
-      <c r="H33" s="4">
+      <c r="N33" s="4">
         <f>Table13789181924[[#This Row],[Rate]]/SUM(Table13789181924[Rate])</f>
         <v>0.62344139650872821</v>
       </c>
     </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E34" t="s">
+    <row r="34" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K34" t="s">
         <v>45</v>
       </c>
-      <c r="F34">
+      <c r="L34">
         <v>15</v>
       </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34" s="4">
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34" s="4">
         <f>Table13789181924[[#This Row],[Rate]]/SUM(Table13789181924[Rate])</f>
         <v>0.37406483790523687</v>
       </c>
     </row>
-    <row r="36" spans="5:8" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="36" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E36" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>0</v>
       </c>
@@ -1802,7 +1825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>33</v>
       </c>
@@ -1817,7 +1840,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>37</v>
       </c>
@@ -1832,7 +1855,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>64</v>
       </c>
@@ -1847,7 +1870,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>62</v>
       </c>
@@ -1862,140 +1885,140 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="43" spans="5:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E43" s="1" t="s">
+    <row r="43" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="K43" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E44" t="s">
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K44" t="s">
         <v>0</v>
       </c>
-      <c r="F44" t="s">
+      <c r="L44" t="s">
         <v>2</v>
       </c>
-      <c r="G44" t="s">
-        <v>1</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="M44" t="s">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E45" t="s">
+    <row r="45" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K45" t="s">
         <v>8</v>
       </c>
-      <c r="F45">
+      <c r="L45">
         <v>12</v>
       </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45" s="4">
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
         <v>0.22018348623853212</v>
       </c>
     </row>
-    <row r="46" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E46" t="s">
+    <row r="46" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K46" t="s">
         <v>7</v>
       </c>
-      <c r="F46">
+      <c r="L46">
         <v>25</v>
       </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46" s="4">
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
         <v>0.45871559633027525</v>
       </c>
     </row>
-    <row r="47" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E47" t="s">
+    <row r="47" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K47" t="s">
         <v>49</v>
       </c>
-      <c r="F47">
+      <c r="L47">
         <v>8</v>
       </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47" s="4">
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
         <v>0.14678899082568808</v>
       </c>
     </row>
-    <row r="48" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E48" t="s">
+    <row r="48" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K48" t="s">
         <v>32</v>
       </c>
-      <c r="F48">
+      <c r="L48">
         <v>3</v>
       </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48" s="4">
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
         <v>5.5045871559633031E-2</v>
       </c>
     </row>
-    <row r="49" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E49" t="s">
+    <row r="49" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K49" t="s">
         <v>20</v>
       </c>
-      <c r="F49">
+      <c r="L49">
         <v>3</v>
       </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49" s="4">
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
         <v>5.5045871559633031E-2</v>
       </c>
     </row>
-    <row r="50" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E50" t="s">
+    <row r="50" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K50" t="s">
         <v>33</v>
       </c>
-      <c r="F50">
+      <c r="L50">
         <v>3</v>
       </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50" s="4">
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
         <v>5.5045871559633031E-2</v>
       </c>
     </row>
-    <row r="51" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E51" t="s">
+    <row r="51" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K51" t="s">
         <v>6</v>
       </c>
-      <c r="F51">
+      <c r="L51">
         <v>0.5</v>
       </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51" s="4">
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
         <v>9.1743119266055051E-3</v>
       </c>
     </row>
-    <row r="53" spans="5:8" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="53" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E53" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>0</v>
       </c>
@@ -2009,7 +2032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>47</v>
       </c>
@@ -2024,14 +2047,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="5:8" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="57" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E57" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
         <v>0</v>
       </c>
@@ -2045,7 +2068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
         <v>53</v>
       </c>
@@ -2060,7 +2083,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
         <v>58</v>
       </c>
@@ -2075,95 +2098,95 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="5:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E62" s="1" t="s">
+    <row r="62" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="K62" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E63" t="s">
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+    </row>
+    <row r="63" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K63" t="s">
         <v>0</v>
       </c>
-      <c r="F63" t="s">
+      <c r="L63" t="s">
         <v>2</v>
       </c>
-      <c r="G63" t="s">
-        <v>1</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="M63" t="s">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E64" t="s">
+    <row r="64" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K64" t="s">
         <v>6</v>
       </c>
-      <c r="F64">
+      <c r="L64">
         <v>10</v>
       </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64" s="4">
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64" s="4">
         <f>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</f>
         <v>0.66225165562913912</v>
       </c>
     </row>
-    <row r="65" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E65" t="s">
+    <row r="65" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K65" t="s">
         <v>6</v>
       </c>
-      <c r="F65">
+      <c r="L65">
         <v>4</v>
       </c>
-      <c r="G65">
+      <c r="M65">
         <v>7</v>
       </c>
-      <c r="H65" s="4">
+      <c r="N65" s="4">
         <f>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</f>
         <v>0.26490066225165565</v>
       </c>
     </row>
-    <row r="66" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E66" t="s">
+    <row r="66" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K66" t="s">
         <v>6</v>
       </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66">
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
         <v>25</v>
       </c>
-      <c r="H66" s="4">
+      <c r="N66" s="4">
         <f>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</f>
         <v>6.6225165562913912E-2</v>
       </c>
     </row>
-    <row r="67" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E67" t="s">
+    <row r="67" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K67" t="s">
         <v>6</v>
       </c>
-      <c r="F67">
+      <c r="L67">
         <v>0.1</v>
       </c>
-      <c r="G67">
+      <c r="M67">
         <v>200</v>
       </c>
-      <c r="H67" s="4">
+      <c r="N67" s="4">
         <f>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</f>
         <v>6.6225165562913916E-3</v>
       </c>
     </row>
-    <row r="69" spans="5:8" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="69" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E69" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
         <v>0</v>
       </c>
@@ -2177,7 +2200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
         <v>7</v>
       </c>
@@ -2192,7 +2215,7 @@
         <v>0.66225165562913912</v>
       </c>
     </row>
-    <row r="72" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
         <v>7</v>
       </c>
@@ -2207,7 +2230,7 @@
         <v>0.26490066225165565</v>
       </c>
     </row>
-    <row r="73" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
         <v>7</v>
       </c>
@@ -2222,7 +2245,7 @@
         <v>6.6225165562913912E-2</v>
       </c>
     </row>
-    <row r="74" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
         <v>7</v>
       </c>
@@ -2237,10 +2260,76 @@
         <v>6.6225165562913916E-3</v>
       </c>
     </row>
+    <row r="77" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="E77" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>2</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79" s="4">
+        <f>Table1378913147812[[#This Row],[Rate]]/SUM(Table1378913147812[Rate])</f>
+        <v>0.32258064516129031</v>
+      </c>
+    </row>
+    <row r="80" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>82</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80" s="3">
+        <f>Table1378913147812[[#This Row],[Rate]]/SUM(Table1378913147812[Rate])</f>
+        <v>0.64516129032258063</v>
+      </c>
+    </row>
+    <row r="81" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>81</v>
+      </c>
+      <c r="F81">
+        <v>0.1</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81" s="3">
+        <f>Table1378913147812[[#This Row],[Rate]]/SUM(Table1378913147812[Rate])</f>
+        <v>3.2258064516129031E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="12">
+  <tableParts count="13">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -2253,6 +2342,7 @@
     <tablePart r:id="rId10"/>
     <tablePart r:id="rId11"/>
     <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
--- a/pack_world_game/design/Packs Items Tables.xlsx
+++ b/pack_world_game/design/Packs Items Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\pack_world\pack_world_game\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2336130A-427A-4B6E-8A3D-149977B3C69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C03F140-7F1C-4801-A7BE-5DBB76C99693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Packs" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="87">
   <si>
     <t>ItemID</t>
   </si>
@@ -287,6 +287,18 @@
   </si>
   <si>
     <t>Berry</t>
+  </si>
+  <si>
+    <t>TileBoulder</t>
+  </si>
+  <si>
+    <t>TileCave</t>
+  </si>
+  <si>
+    <t>TileShrub</t>
+  </si>
+  <si>
+    <t>TileBirdNest</t>
   </si>
 </sst>
 </file>
@@ -448,10 +460,10 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{5110325C-5187-4FDB-BA7F-BFBE8E131005}" name="Table1378915" displayName="Table1378915" ref="E37:H41" totalsRowShown="0">
-  <autoFilter ref="E37:H41" xr:uid="{5110325C-5187-4FDB-BA7F-BFBE8E131005}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E38:H39">
-    <sortCondition ref="F37:F39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{5110325C-5187-4FDB-BA7F-BFBE8E131005}" name="Table1378915" displayName="Table1378915" ref="K37:N42" totalsRowShown="0">
+  <autoFilter ref="K37:N42" xr:uid="{5110325C-5187-4FDB-BA7F-BFBE8E131005}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K38:N39">
+    <sortCondition ref="L37:L39"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{36F17566-CFEC-4201-BC32-CDFBEE168785}" name="ItemID"/>
@@ -466,10 +478,10 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}" name="Table137891516" displayName="Table137891516" ref="K44:N51" totalsRowShown="0">
-  <autoFilter ref="K44:N51" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K45:N51">
-    <sortCondition descending="1" ref="L44:L51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}" name="Table137891516" displayName="Table137891516" ref="K45:N52" totalsRowShown="0">
+  <autoFilter ref="K45:N52" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K46:N52">
+    <sortCondition descending="1" ref="L45:L52"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{333EBB11-1697-4271-B03A-E6B773563CFE}" name="ItemID"/>
@@ -514,9 +526,9 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{965A754C-BC3B-4A15-BAA4-D36F0C450007}" name="Table137891520" displayName="Table137891520" ref="E54:H55" totalsRowShown="0">
-  <autoFilter ref="E54:H55" xr:uid="{965A754C-BC3B-4A15-BAA4-D36F0C450007}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E55:H55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{965A754C-BC3B-4A15-BAA4-D36F0C450007}" name="Table137891520" displayName="Table137891520" ref="E56:H57" totalsRowShown="0">
+  <autoFilter ref="E56:H57" xr:uid="{965A754C-BC3B-4A15-BAA4-D36F0C450007}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E57:H57">
     <sortCondition ref="F37:F39"/>
   </sortState>
   <tableColumns count="4">
@@ -547,9 +559,9 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{650098C8-BEE6-4D14-80C9-295B1257E899}" name="Table1378915202" displayName="Table1378915202" ref="E58:H60" totalsRowShown="0">
-  <autoFilter ref="E58:H60" xr:uid="{650098C8-BEE6-4D14-80C9-295B1257E899}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E59:H59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{650098C8-BEE6-4D14-80C9-295B1257E899}" name="Table1378915202" displayName="Table1378915202" ref="E60:H62" totalsRowShown="0">
+  <autoFilter ref="E60:H62" xr:uid="{650098C8-BEE6-4D14-80C9-295B1257E899}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E61:H61">
     <sortCondition ref="F37:F39"/>
   </sortState>
   <tableColumns count="4">
@@ -565,8 +577,8 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A78B3AE9-4F71-4D90-BBB1-B1341409AE74}" name="Table1378913147" displayName="Table1378913147" ref="K63:N67" totalsRowShown="0">
-  <autoFilter ref="K63:N67" xr:uid="{A78B3AE9-4F71-4D90-BBB1-B1341409AE74}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A78B3AE9-4F71-4D90-BBB1-B1341409AE74}" name="Table1378913147" displayName="Table1378913147" ref="K64:N68" totalsRowShown="0">
+  <autoFilter ref="K64:N68" xr:uid="{A78B3AE9-4F71-4D90-BBB1-B1341409AE74}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{5FC31BA1-4AF3-430A-A419-59C22C2155C5}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{BC88DEB0-09FB-4E75-B113-7CDE256B8E17}" name="Rate"/>
@@ -580,8 +592,8 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{44DD51EE-228C-4FEB-B2BB-0731512A3210}" name="Table13789131478" displayName="Table13789131478" ref="E70:H74" totalsRowShown="0">
-  <autoFilter ref="E70:H74" xr:uid="{44DD51EE-228C-4FEB-B2BB-0731512A3210}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{44DD51EE-228C-4FEB-B2BB-0731512A3210}" name="Table13789131478" displayName="Table13789131478" ref="E72:H76" totalsRowShown="0">
+  <autoFilter ref="E72:H76" xr:uid="{44DD51EE-228C-4FEB-B2BB-0731512A3210}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9C5387E8-4E0B-43FC-BD7B-7307A5B89A6C}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{000E006A-A8FF-4DD8-84CA-E745617C159E}" name="Rate"/>
@@ -595,8 +607,8 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{2FC462D0-506C-4CBE-83DA-7B5DFCEB8956}" name="Table1378913147812" displayName="Table1378913147812" ref="E78:H81" totalsRowShown="0">
-  <autoFilter ref="E78:H81" xr:uid="{2FC462D0-506C-4CBE-83DA-7B5DFCEB8956}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{2FC462D0-506C-4CBE-83DA-7B5DFCEB8956}" name="Table1378913147812" displayName="Table1378913147812" ref="K79:N82" totalsRowShown="0">
+  <autoFilter ref="K79:N82" xr:uid="{2FC462D0-506C-4CBE-83DA-7B5DFCEB8956}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4039683D-C0FB-4D66-BC6D-675C507599A7}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{03A60152-6173-4E33-8950-C35B5FC16A06}" name="Rate"/>
@@ -977,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385CD932-F33E-4B64-B729-8359FB37D1A0}">
   <dimension ref="D4:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB88C1E5-D251-4818-A177-3044F90F9570}">
-  <dimension ref="B4:X81"/>
+  <dimension ref="B4:X82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="S90" sqref="S90"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1774,7 +1786,7 @@
         <v>2.4937655860349127E-3</v>
       </c>
     </row>
-    <row r="33" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K33" t="s">
         <v>69</v>
       </c>
@@ -1789,7 +1801,7 @@
         <v>0.62344139650872821</v>
       </c>
     </row>
-    <row r="34" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K34" t="s">
         <v>45</v>
       </c>
@@ -1804,171 +1816,174 @@
         <v>0.37406483790523687</v>
       </c>
     </row>
-    <row r="36" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E36" s="1" t="s">
+    <row r="36" spans="11:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="K36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E37" t="s">
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K37" t="s">
         <v>0</v>
       </c>
-      <c r="F37" t="s">
+      <c r="L37" t="s">
         <v>2</v>
       </c>
-      <c r="G37" t="s">
-        <v>1</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="M37" t="s">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E38" t="s">
+    <row r="38" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K38" t="s">
         <v>33</v>
       </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38" s="3">
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38" s="3">
         <f>Table1378915[[#This Row],[Rate]]/SUM(Table1378915[Rate])</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="39" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E39" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="39" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K39" t="s">
+        <v>83</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39" s="4">
         <f>Table1378915[[#This Row],[Rate]]/SUM(Table1378915[Rate])</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="40" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E40" t="s">
-        <v>64</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="40" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K40" t="s">
+        <v>86</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40" s="4">
         <f>Table1378915[[#This Row],[Rate]]/SUM(Table1378915[Rate])</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="41" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E41" t="s">
-        <v>62</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
+        <v>84</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41" s="4">
         <f>Table1378915[[#This Row],[Rate]]/SUM(Table1378915[Rate])</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="43" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="K43" s="1" t="s">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="42" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K42" t="s">
+        <v>85</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42" s="4">
+        <f>Table1378915[[#This Row],[Rate]]/SUM(Table1378915[Rate])</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="11:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="K44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-    </row>
-    <row r="44" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="K44" t="s">
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K45" t="s">
         <v>0</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L45" t="s">
         <v>2</v>
       </c>
-      <c r="M44" t="s">
-        <v>1</v>
-      </c>
-      <c r="N44" t="s">
+      <c r="M45" t="s">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="K45" t="s">
+    <row r="46" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K46" t="s">
         <v>8</v>
       </c>
-      <c r="L45">
+      <c r="L46">
         <v>12</v>
       </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-      <c r="N45" s="4">
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
         <v>0.22018348623853212</v>
       </c>
     </row>
-    <row r="46" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="K46" t="s">
+    <row r="47" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K47" t="s">
         <v>7</v>
       </c>
-      <c r="L46">
+      <c r="L47">
         <v>25</v>
       </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46" s="4">
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
         <v>0.45871559633027525</v>
       </c>
     </row>
-    <row r="47" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="K47" t="s">
+    <row r="48" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K48" t="s">
         <v>49</v>
       </c>
-      <c r="L47">
+      <c r="L48">
         <v>8</v>
       </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47" s="4">
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
         <v>0.14678899082568808</v>
       </c>
     </row>
-    <row r="48" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="K48" t="s">
-        <v>32</v>
-      </c>
-      <c r="L48">
-        <v>3</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48" s="4">
-        <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>5.5045871559633031E-2</v>
-      </c>
-    </row>
     <row r="49" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K49" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="L49">
         <v>3</v>
@@ -1983,7 +1998,7 @@
     </row>
     <row r="50" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K50" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="L50">
         <v>3</v>
@@ -1998,140 +2013,140 @@
     </row>
     <row r="51" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K51" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="L51">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="M51">
         <v>1</v>
       </c>
       <c r="N51" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
+        <v>5.5045871559633031E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K52" t="s">
+        <v>6</v>
+      </c>
+      <c r="L52">
+        <v>0.5</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52" s="4">
+        <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
         <v>9.1743119266055051E-3</v>
       </c>
     </row>
-    <row r="53" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E53" s="1" t="s">
+    <row r="55" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="E55" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E54" t="s">
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
         <v>0</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F56" t="s">
         <v>2</v>
       </c>
-      <c r="G54" t="s">
-        <v>1</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="G56" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E55" t="s">
+    <row r="57" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
         <v>47</v>
       </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55" s="4">
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57" s="4">
         <f>Table137891520[[#This Row],[Rate]]/SUM(Table137891520[Rate])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E57" s="1" t="s">
+    <row r="59" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="E59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E58" t="s">
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
         <v>0</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F60" t="s">
         <v>2</v>
       </c>
-      <c r="G58" t="s">
-        <v>1</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="G60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E59" t="s">
+    <row r="61" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
         <v>53</v>
       </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59" s="4">
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61" s="4">
         <f>Table1378915202[[#This Row],[Rate]]/SUM(Table1378915202[Rate])</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E60" t="s">
+    <row r="62" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
         <v>58</v>
       </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60" s="3">
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" s="3">
         <f>Table1378915202[[#This Row],[Rate]]/SUM(Table1378915202[Rate])</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="K62" s="1" t="s">
+    <row r="63" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="K63" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-    </row>
-    <row r="63" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="K63" t="s">
-        <v>0</v>
-      </c>
-      <c r="L63" t="s">
-        <v>2</v>
-      </c>
-      <c r="M63" t="s">
-        <v>1</v>
-      </c>
-      <c r="N63" t="s">
-        <v>4</v>
-      </c>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
     </row>
     <row r="64" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K64" t="s">
-        <v>6</v>
-      </c>
-      <c r="L64">
-        <v>10</v>
-      </c>
-      <c r="M64">
-        <v>1</v>
-      </c>
-      <c r="N64" s="4">
-        <f>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</f>
-        <v>0.66225165562913912</v>
+        <v>0</v>
+      </c>
+      <c r="L64" t="s">
+        <v>2</v>
+      </c>
+      <c r="M64" t="s">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="5:14" x14ac:dyDescent="0.25">
@@ -2139,14 +2154,14 @@
         <v>6</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M65">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N65" s="4">
         <f>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</f>
-        <v>0.26490066225165565</v>
+        <v>0.66225165562913912</v>
       </c>
     </row>
     <row r="66" spans="5:14" x14ac:dyDescent="0.25">
@@ -2154,14 +2169,14 @@
         <v>6</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M66">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="N66" s="4">
         <f>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</f>
-        <v>6.6225165562913912E-2</v>
+        <v>0.26490066225165565</v>
       </c>
     </row>
     <row r="67" spans="5:14" x14ac:dyDescent="0.25">
@@ -2169,65 +2184,50 @@
         <v>6</v>
       </c>
       <c r="L67">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M67">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="N67" s="4">
         <f>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</f>
+        <v>6.6225165562913912E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K68" t="s">
+        <v>6</v>
+      </c>
+      <c r="L68">
+        <v>0.1</v>
+      </c>
+      <c r="M68">
+        <v>200</v>
+      </c>
+      <c r="N68" s="4">
+        <f>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</f>
         <v>6.6225165562913916E-3</v>
       </c>
     </row>
-    <row r="69" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E69" s="1" t="s">
+    <row r="71" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="E71" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-    </row>
-    <row r="70" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E70" t="s">
-        <v>0</v>
-      </c>
-      <c r="F70" t="s">
-        <v>2</v>
-      </c>
-      <c r="G70" t="s">
-        <v>1</v>
-      </c>
-      <c r="H70" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E71" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71">
-        <v>10</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="H71" s="4">
-        <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
-        <v>0.66225165562913912</v>
-      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
     </row>
     <row r="72" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>2</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
         <v>4</v>
-      </c>
-      <c r="G72">
-        <v>5</v>
-      </c>
-      <c r="H72" s="4">
-        <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
-        <v>0.26490066225165565</v>
       </c>
     </row>
     <row r="73" spans="5:14" x14ac:dyDescent="0.25">
@@ -2235,14 +2235,14 @@
         <v>7</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G73">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H73" s="4">
         <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
-        <v>6.6225165562913912E-2</v>
+        <v>0.66225165562913912</v>
       </c>
     </row>
     <row r="74" spans="5:14" x14ac:dyDescent="0.25">
@@ -2250,78 +2250,108 @@
         <v>7</v>
       </c>
       <c r="F74">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="G74">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H74" s="4">
         <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
+        <v>0.26490066225165565</v>
+      </c>
+    </row>
+    <row r="75" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>10</v>
+      </c>
+      <c r="H75" s="4">
+        <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
+        <v>6.6225165562913912E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76">
+        <v>0.1</v>
+      </c>
+      <c r="G76">
+        <v>25</v>
+      </c>
+      <c r="H76" s="4">
+        <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
         <v>6.6225165562913916E-3</v>
       </c>
     </row>
-    <row r="77" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E77" s="1" t="s">
+    <row r="78" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="K78" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-    </row>
-    <row r="78" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E78" t="s">
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+    </row>
+    <row r="79" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K79" t="s">
         <v>0</v>
       </c>
-      <c r="F78" t="s">
+      <c r="L79" t="s">
         <v>2</v>
       </c>
-      <c r="G78" t="s">
-        <v>1</v>
-      </c>
-      <c r="H78" t="s">
+      <c r="M79" t="s">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E79" t="s">
+    <row r="80" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K80" t="s">
         <v>5</v>
       </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79" s="4">
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80" s="4">
         <f>Table1378913147812[[#This Row],[Rate]]/SUM(Table1378913147812[Rate])</f>
         <v>0.32258064516129031</v>
       </c>
     </row>
-    <row r="80" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E80" t="s">
+    <row r="81" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K81" t="s">
         <v>82</v>
       </c>
-      <c r="F80">
+      <c r="L81">
         <v>2</v>
       </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80" s="3">
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81" s="3">
         <f>Table1378913147812[[#This Row],[Rate]]/SUM(Table1378913147812[Rate])</f>
         <v>0.64516129032258063</v>
       </c>
     </row>
-    <row r="81" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E81" t="s">
+    <row r="82" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K82" t="s">
         <v>81</v>
       </c>
-      <c r="F81">
+      <c r="L82">
         <v>0.1</v>
       </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82" s="3">
         <f>Table1378913147812[[#This Row],[Rate]]/SUM(Table1378913147812[Rate])</f>
         <v>3.2258064516129031E-2</v>
       </c>

--- a/pack_world_game/design/Packs Items Tables.xlsx
+++ b/pack_world_game/design/Packs Items Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\pack_world\pack_world_game\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C03F140-7F1C-4801-A7BE-5DBB76C99693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE24C42-A8DC-40AC-A097-43E89681C05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -990,7 +990,7 @@
   <dimension ref="D4:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/pack_world_game/design/Packs Items Tables.xlsx
+++ b/pack_world_game/design/Packs Items Tables.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\pack_world\pack_world_game\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE24C42-A8DC-40AC-A097-43E89681C05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F0B56C-4731-4C1A-9B74-B949E0217CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Packs" sheetId="6" r:id="rId1"/>
+    <sheet name="Pack Cost" sheetId="6" r:id="rId1"/>
     <sheet name="Items and Tiles" sheetId="4" r:id="rId2"/>
     <sheet name="Drop Tables" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="103">
   <si>
     <t>ItemID</t>
   </si>
@@ -256,9 +256,6 @@
     <t>SmallDirt</t>
   </si>
   <si>
-    <t>Generates dirt tiles</t>
-  </si>
-  <si>
     <t>SmallMudPit</t>
   </si>
   <si>
@@ -299,6 +296,57 @@
   </si>
   <si>
     <t>TileBirdNest</t>
+  </si>
+  <si>
+    <t>TallGrass</t>
+  </si>
+  <si>
+    <t>Must be surrounded by grass or tall grass.</t>
+  </si>
+  <si>
+    <t>Reeds</t>
+  </si>
+  <si>
+    <t>ReedSeed</t>
+  </si>
+  <si>
+    <t>Planted in mud pit</t>
+  </si>
+  <si>
+    <t>Not Implemented</t>
+  </si>
+  <si>
+    <t>Implemented</t>
+  </si>
+  <si>
+    <t>Persistent</t>
+  </si>
+  <si>
+    <t>Generates dirt tiles. Placed on dirt.</t>
+  </si>
+  <si>
+    <t>Goblin</t>
+  </si>
+  <si>
+    <t>Placed on caves. Doubles the amount of gold dropped.</t>
+  </si>
+  <si>
+    <t>MudDog</t>
+  </si>
+  <si>
+    <t>Reduces cooldown of grass tiles. Adds poop to grass tile drop table.</t>
+  </si>
+  <si>
+    <t>Frog</t>
+  </si>
+  <si>
+    <t>Drops potion items when harvested.</t>
+  </si>
+  <si>
+    <t>Drops potion items when harvested. Must be placed in grass.</t>
+  </si>
+  <si>
+    <t>WeakPotions</t>
   </si>
 </sst>
 </file>
@@ -375,7 +423,190 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -469,7 +700,7 @@
     <tableColumn id="1" xr3:uid="{36F17566-CFEC-4201-BC32-CDFBEE168785}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{7FAF1644-E0BB-494D-A054-1BEBE28A02F9}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FA86084E-4629-4BD7-A80C-6229B8D80F65}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{5EBDFC1E-8AA4-45D3-B7A3-F1E8D0317C06}" name="%Chance" dataDxfId="11" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{5EBDFC1E-8AA4-45D3-B7A3-F1E8D0317C06}" name="%Chance" dataDxfId="30" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378915[[#This Row],[Rate]]/SUM(Table1378915[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -487,7 +718,7 @@
     <tableColumn id="1" xr3:uid="{333EBB11-1697-4271-B03A-E6B773563CFE}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{66779ED5-FBDC-43B6-B577-67F38636A1F1}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FA20C3E4-336D-43FD-9C7B-B1827A771EBC}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{80EF7A8F-4364-48E9-88BC-D9BE908A8E81}" name="%Chance" dataDxfId="10" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{80EF7A8F-4364-48E9-88BC-D9BE908A8E81}" name="%Chance" dataDxfId="29" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -502,7 +733,7 @@
     <tableColumn id="1" xr3:uid="{28E027C3-6619-4F6B-B9B5-4E991BEE7169}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{83798236-E790-4DCB-9325-19CBD2933987}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FD652A42-76E9-4A8A-B64F-41F588B57CA0}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{80AE0A84-EBAE-467D-B0FF-B1661CD6F9CA}" name="%Chance" dataDxfId="9" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{80AE0A84-EBAE-467D-B0FF-B1661CD6F9CA}" name="%Chance" dataDxfId="28" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378918[[#This Row],[Rate]]/SUM(Table1378918[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -517,7 +748,7 @@
     <tableColumn id="1" xr3:uid="{5710BAA2-303B-4130-B397-9E88F263AC1A}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{749EB946-237E-4C13-8450-9CB46D681F3D}" name="Rate"/>
     <tableColumn id="7" xr3:uid="{BF90F91A-CFD2-42FC-87F6-1E7A02388275}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{29E82DC4-7FBA-46F8-A388-8832C45E81A7}" name="%Chance" dataDxfId="8" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{29E82DC4-7FBA-46F8-A388-8832C45E81A7}" name="%Chance" dataDxfId="27" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891819[[#This Row],[Rate]]/SUM(Table137891819[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -535,7 +766,7 @@
     <tableColumn id="1" xr3:uid="{DFFD549D-06AC-4FEB-9CAE-81D867FAF7DA}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{5A314CBA-65C8-411D-9F89-C9E413B3C28A}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{A94A88ED-4FF7-4BF3-AAAF-6B7F2860C1FD}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{D8F779D7-C1D3-4D6E-AE28-F4F37BF0FD4C}" name="%Chance" dataDxfId="7" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{D8F779D7-C1D3-4D6E-AE28-F4F37BF0FD4C}" name="%Chance" dataDxfId="26" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891520[[#This Row],[Rate]]/SUM(Table137891520[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -550,7 +781,7 @@
     <tableColumn id="1" xr3:uid="{BE923A95-75C9-4062-BE0B-A80844A43C74}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{8A2B068D-BA52-49A9-8B60-7C7AB68DE7AA}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{96CED9DA-94ED-4108-8E34-6799C464E382}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{B90E081D-90F4-47E6-B8F8-1845ADE3AC33}" name="%Chance" dataDxfId="6" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{B90E081D-90F4-47E6-B8F8-1845ADE3AC33}" name="%Chance" dataDxfId="25" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789181924[[#This Row],[Rate]]/SUM(Table13789181924[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -568,7 +799,7 @@
     <tableColumn id="1" xr3:uid="{381B99D4-DAE9-4E7B-B588-5D9988B19F22}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{D8C82624-656A-47EE-8246-49712DEB46B7}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{6E1B10DB-484A-43C3-8696-EC6E862B4D4A}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{8A8DD7D9-1F12-4887-B5AA-12E962C2FD48}" name="%Chance" dataDxfId="5" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{8A8DD7D9-1F12-4887-B5AA-12E962C2FD48}" name="%Chance" dataDxfId="24" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378915202[[#This Row],[Rate]]/SUM(Table1378915202[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -583,7 +814,7 @@
     <tableColumn id="1" xr3:uid="{5FC31BA1-4AF3-430A-A419-59C22C2155C5}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{BC88DEB0-09FB-4E75-B113-7CDE256B8E17}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{6C6C351D-AFB0-4A3F-BC2D-CDE5D9A11B25}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{733DAD33-07B1-4A54-BBE0-B3212B512175}" name="%Chance" dataDxfId="4" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{733DAD33-07B1-4A54-BBE0-B3212B512175}" name="%Chance" dataDxfId="23" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -592,13 +823,13 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{44DD51EE-228C-4FEB-B2BB-0731512A3210}" name="Table13789131478" displayName="Table13789131478" ref="E72:H76" totalsRowShown="0">
-  <autoFilter ref="E72:H76" xr:uid="{44DD51EE-228C-4FEB-B2BB-0731512A3210}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{44DD51EE-228C-4FEB-B2BB-0731512A3210}" name="Table13789131478" displayName="Table13789131478" ref="E72:H77" totalsRowShown="0">
+  <autoFilter ref="E72:H77" xr:uid="{44DD51EE-228C-4FEB-B2BB-0731512A3210}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9C5387E8-4E0B-43FC-BD7B-7307A5B89A6C}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{000E006A-A8FF-4DD8-84CA-E745617C159E}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{89D8EF85-04D9-47B6-81E8-ECDC97E127CD}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{67DA4D60-8692-4B89-85F1-E0CA987870E6}" name="%Chance" dataDxfId="3" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{67DA4D60-8692-4B89-85F1-E0CA987870E6}" name="%Chance" dataDxfId="22" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -613,7 +844,7 @@
     <tableColumn id="1" xr3:uid="{4039683D-C0FB-4D66-BC6D-675C507599A7}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{03A60152-6173-4E33-8950-C35B5FC16A06}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{36A0463A-B432-4BFA-8A69-778F0DEAA5D7}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{FB468FC3-8F5C-492C-974E-7C915391756C}" name="%Chance" dataDxfId="2" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{FB468FC3-8F5C-492C-974E-7C915391756C}" name="%Chance" dataDxfId="21" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913147812[[#This Row],[Rate]]/SUM(Table1378913147812[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -627,6 +858,21 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{60CD1B6A-38BD-4315-A8B4-D2BC0EF3E15F}" name="Item"/>
     <tableColumn id="2" xr3:uid="{1922AB4B-AD21-4E72-BC70-8CD0488D0B1E}" name="Count"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{DB9051B2-66EF-4156-8B9B-03E37B51ED88}" name="Table1378913147821" displayName="Table1378913147821" ref="E86:H87" totalsRowShown="0">
+  <autoFilter ref="E86:H87" xr:uid="{DB9051B2-66EF-4156-8B9B-03E37B51ED88}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{C7425F1C-2EEC-47EF-8EEA-2729F06AB5D7}" name="ItemID"/>
+    <tableColumn id="2" xr3:uid="{F68B8B21-141F-4D1E-AE8D-C39F60F40661}" name="Rate"/>
+    <tableColumn id="6" xr3:uid="{AE893BD6-A2B4-4341-B14D-732457C70734}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{9BAE9F73-4344-4F6B-B023-47346A450C9A}" name="%Chance" dataDxfId="4" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table1378913147821[[#This Row],[Rate]]/SUM(Table1378913147821[Rate])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -655,8 +901,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{708B6843-66CB-49E9-9AE4-D34A26BF374A}" name="Table4" displayName="Table4" ref="D5:E15" totalsRowShown="0">
-  <autoFilter ref="D5:E15" xr:uid="{708B6843-66CB-49E9-9AE4-D34A26BF374A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{708B6843-66CB-49E9-9AE4-D34A26BF374A}" name="Table4" displayName="Table4" ref="D5:E16" totalsRowShown="0">
+  <autoFilter ref="D5:E16" xr:uid="{708B6843-66CB-49E9-9AE4-D34A26BF374A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{39852490-B26C-4425-98C9-6963CD28703C}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{2EAF4B5B-2BB6-4FE7-9972-BAD5406BE8F4}" name="Descriptiopn"/>
@@ -666,12 +912,13 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5DD264DE-D047-45F6-A8AA-15A47977664C}" name="Table46" displayName="Table46" ref="H5:L16" totalsRowShown="0">
-  <autoFilter ref="H5:L16" xr:uid="{5DD264DE-D047-45F6-A8AA-15A47977664C}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5DD264DE-D047-45F6-A8AA-15A47977664C}" name="Table46" displayName="Table46" ref="H5:M21" totalsRowShown="0">
+  <autoFilter ref="H5:M21" xr:uid="{5DD264DE-D047-45F6-A8AA-15A47977664C}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{997C8B3F-F0E6-4E58-9D23-D135F012BA96}" name="TileID"/>
     <tableColumn id="2" xr3:uid="{C06A2FFF-D8A0-4374-BC0C-74CE8667732D}" name="Descriptiopn"/>
     <tableColumn id="5" xr3:uid="{111A289B-2403-445C-9D0D-1F02E6F223EF}" name="Limit"/>
+    <tableColumn id="6" xr3:uid="{49C6944D-2C81-4120-9357-ACD68023DD77}" name="Persistent"/>
     <tableColumn id="3" xr3:uid="{E8433EC5-F402-420F-AA65-40C639574A0B}" name="Harvestable"/>
     <tableColumn id="4" xr3:uid="{B817F4D1-A0E6-4DF2-A947-290B386494B6}" name="Harvest Drop Table"/>
   </tableColumns>
@@ -686,7 +933,7 @@
     <tableColumn id="1" xr3:uid="{5FD88E56-EE50-4E96-AF7E-14BF06E4B5D5}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{45FE54DB-459E-467E-AEFD-A964A6E0ACBE}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{F7B36C6D-249B-4C8F-AD9A-FE1BA8D7EA5F}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{F15086BD-3ABF-42E8-AD67-1A721BE8BDB3}" name="%Chance" dataDxfId="14" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{F15086BD-3ABF-42E8-AD67-1A721BE8BDB3}" name="%Chance" dataDxfId="33" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789[[#This Row],[Rate]]/SUM(Table13789[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -701,7 +948,7 @@
     <tableColumn id="1" xr3:uid="{B45D3A7A-5A1F-44F3-AEE5-F5F07020D270}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{8D0A6B32-E6FD-4FEB-BD6B-C5D482407A4D}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{BFC03E2E-52F7-4DCD-8C1C-A21D751C7908}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{C0196799-3FEE-40C1-A925-239F70EFBC90}" name="%Chance" dataDxfId="13" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{C0196799-3FEE-40C1-A925-239F70EFBC90}" name="%Chance" dataDxfId="32" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913[[#This Row],[Rate]]/SUM(Table1378913[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -716,7 +963,7 @@
     <tableColumn id="1" xr3:uid="{22D67FFD-FBB4-459B-A50A-FD89B7CA47EA}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{ABA1E863-6768-496A-992C-D3ACAA40AD3E}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{21B42FB6-D1C6-45EA-99F9-B424D331BD57}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{5F1A8B4E-B55C-46A2-AA78-2705E90B792F}" name="%Chance" dataDxfId="12" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{5F1A8B4E-B55C-46A2-AA78-2705E90B792F}" name="%Chance" dataDxfId="31" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891314[[#This Row],[Rate]]/SUM(Table137891314[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -989,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385CD932-F33E-4B64-B729-8359FB37D1A0}">
   <dimension ref="D4:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,7 +1301,7 @@
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -1099,7 +1346,7 @@
     </row>
     <row r="19" spans="6:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.25">
@@ -1139,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FEB0EF-3316-4CF7-BB73-CA3D5C3FEAE1}">
-  <dimension ref="C4:L16"/>
+  <dimension ref="C4:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,13 +1398,14 @@
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="43.85546875" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="58.85546875" customWidth="1"/>
+    <col min="9" max="9" width="64.28515625" customWidth="1"/>
     <col min="10" max="10" width="8.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:12" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:13" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1165,7 +1413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>0</v>
       </c>
@@ -1182,13 +1430,16 @@
         <v>54</v>
       </c>
       <c r="K5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L5" t="s">
         <v>17</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>3</v>
       </c>
@@ -1205,10 +1456,13 @@
         <v>56</v>
       </c>
       <c r="K6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>5</v>
       </c>
@@ -1228,10 +1482,13 @@
         <v>55</v>
       </c>
       <c r="L7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>24</v>
       </c>
@@ -1248,15 +1505,18 @@
         <v>56</v>
       </c>
       <c r="K8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s">
         <v>26</v>
@@ -1268,10 +1528,13 @@
         <v>55</v>
       </c>
       <c r="L9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>37</v>
       </c>
@@ -1279,7 +1542,7 @@
         <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
         <v>30</v>
@@ -1291,10 +1554,13 @@
         <v>55</v>
       </c>
       <c r="L10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>41</v>
       </c>
@@ -1314,10 +1580,13 @@
         <v>55</v>
       </c>
       <c r="L11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>50</v>
       </c>
@@ -1331,10 +1600,13 @@
         <v>10</v>
       </c>
       <c r="K12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>60</v>
       </c>
@@ -1351,10 +1623,13 @@
         <v>56</v>
       </c>
       <c r="K13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>62</v>
       </c>
@@ -1374,12 +1649,15 @@
         <v>55</v>
       </c>
       <c r="L14" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
         <v>28</v>
@@ -1388,7 +1666,7 @@
         <v>70</v>
       </c>
       <c r="I15" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="J15">
         <v>10</v>
@@ -1397,25 +1675,133 @@
         <v>55</v>
       </c>
       <c r="L15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s">
+        <v>90</v>
+      </c>
       <c r="H16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" t="s">
         <v>75</v>
-      </c>
-      <c r="I16" t="s">
-        <v>76</v>
       </c>
       <c r="J16" t="s">
         <v>56</v>
       </c>
       <c r="K16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="17" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" t="s">
+        <v>55</v>
+      </c>
+      <c r="M17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" t="s">
+        <v>100</v>
+      </c>
+      <c r="J18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" t="s">
+        <v>96</v>
+      </c>
+      <c r="J19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="K6:K16">
+  <conditionalFormatting sqref="L6:L21">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",L6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="N">
+      <formula>NOT(ISERROR(SEARCH("N",L6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:K21">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",K6)))</formula>
     </cfRule>
@@ -1434,10 +1820,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB88C1E5-D251-4818-A177-3044F90F9570}">
-  <dimension ref="B4:X82"/>
+  <dimension ref="B2:X87"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="T82" sqref="T82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,6 +1847,14 @@
     <col min="23" max="23" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" t="s">
+        <v>92</v>
+      </c>
+    </row>
     <row r="4" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
@@ -1854,7 +2248,7 @@
     </row>
     <row r="39" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -1869,7 +2263,7 @@
     </row>
     <row r="40" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -1884,7 +2278,7 @@
     </row>
     <row r="41" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -1899,7 +2293,7 @@
     </row>
     <row r="42" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -2130,7 +2524,7 @@
     </row>
     <row r="63" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="K63" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -2211,7 +2605,7 @@
     </row>
     <row r="71" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E71" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -2242,7 +2636,7 @@
       </c>
       <c r="H73" s="4">
         <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
-        <v>0.66225165562913912</v>
+        <v>0.49751243781094523</v>
       </c>
     </row>
     <row r="74" spans="5:14" x14ac:dyDescent="0.25">
@@ -2257,7 +2651,7 @@
       </c>
       <c r="H74" s="4">
         <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
-        <v>0.26490066225165565</v>
+        <v>0.19900497512437809</v>
       </c>
     </row>
     <row r="75" spans="5:14" x14ac:dyDescent="0.25">
@@ -2272,7 +2666,7 @@
       </c>
       <c r="H75" s="4">
         <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
-        <v>6.6225165562913912E-2</v>
+        <v>4.9751243781094523E-2</v>
       </c>
     </row>
     <row r="76" spans="5:14" x14ac:dyDescent="0.25">
@@ -2287,12 +2681,27 @@
       </c>
       <c r="H76" s="4">
         <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
-        <v>6.6225165562913916E-3</v>
+        <v>4.9751243781094526E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>89</v>
+      </c>
+      <c r="F77">
+        <v>5</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77" s="4">
+        <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
+        <v>0.24875621890547261</v>
       </c>
     </row>
     <row r="78" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="K78" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
@@ -2326,9 +2735,9 @@
         <v>0.32258064516129031</v>
       </c>
     </row>
-    <row r="81" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L81">
         <v>2</v>
@@ -2341,9 +2750,9 @@
         <v>0.64516129032258063</v>
       </c>
     </row>
-    <row r="82" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L82">
         <v>0.1</v>
@@ -2356,10 +2765,46 @@
         <v>3.2258064516129031E-2</v>
       </c>
     </row>
+    <row r="85" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="E85" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>0</v>
+      </c>
+      <c r="F86" t="s">
+        <v>2</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1</v>
+      </c>
+      <c r="H86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87">
+        <v>10</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87" s="4">
+        <f>Table1378913147821[[#This Row],[Rate]]/SUM(Table1378913147821[Rate])</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="13">
+  <tableParts count="14">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -2373,6 +2818,7 @@
     <tablePart r:id="rId11"/>
     <tablePart r:id="rId12"/>
     <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
--- a/pack_world_game/design/Packs Items Tables.xlsx
+++ b/pack_world_game/design/Packs Items Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\pack_world\pack_world_game\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F0B56C-4731-4C1A-9B74-B949E0217CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3FB153-9423-40D6-B123-5B72D243FFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="102">
   <si>
     <t>ItemID</t>
   </si>
@@ -100,9 +100,6 @@
     <t>PackStarter</t>
   </si>
   <si>
-    <t>TileWater</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -136,9 +133,6 @@
     <t>DrtClod</t>
   </si>
   <si>
-    <t>TileSoil</t>
-  </si>
-  <si>
     <t>TileOakTree</t>
   </si>
   <si>
@@ -187,9 +181,6 @@
     <t>Produces babies. Reduced cooldown for each adjacent rock.</t>
   </si>
   <si>
-    <t>TileRock</t>
-  </si>
-  <si>
     <t>DragonEgg</t>
   </si>
   <si>
@@ -343,10 +334,16 @@
     <t>Drops potion items when harvested.</t>
   </si>
   <si>
-    <t>Drops potion items when harvested. Must be placed in grass.</t>
-  </si>
-  <si>
     <t>WeakPotions</t>
+  </si>
+  <si>
+    <t>TileMudPit</t>
+  </si>
+  <si>
+    <t>Drops potion items when harvested. Must be placed in tall grass.</t>
+  </si>
+  <si>
+    <t>TileTallGrass</t>
   </si>
 </sst>
 </file>
@@ -423,170 +420,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -666,6 +500,9 @@
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -700,7 +537,7 @@
     <tableColumn id="1" xr3:uid="{36F17566-CFEC-4201-BC32-CDFBEE168785}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{7FAF1644-E0BB-494D-A054-1BEBE28A02F9}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FA86084E-4629-4BD7-A80C-6229B8D80F65}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{5EBDFC1E-8AA4-45D3-B7A3-F1E8D0317C06}" name="%Chance" dataDxfId="30" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{5EBDFC1E-8AA4-45D3-B7A3-F1E8D0317C06}" name="%Chance" dataDxfId="14" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378915[[#This Row],[Rate]]/SUM(Table1378915[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -709,16 +546,16 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}" name="Table137891516" displayName="Table137891516" ref="K45:N52" totalsRowShown="0">
-  <autoFilter ref="K45:N52" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K46:N52">
-    <sortCondition descending="1" ref="L45:L52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}" name="Table137891516" displayName="Table137891516" ref="K45:N51" totalsRowShown="0">
+  <autoFilter ref="K45:N51" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K46:N51">
+    <sortCondition descending="1" ref="L45:L51"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{333EBB11-1697-4271-B03A-E6B773563CFE}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{66779ED5-FBDC-43B6-B577-67F38636A1F1}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FA20C3E4-336D-43FD-9C7B-B1827A771EBC}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{80EF7A8F-4364-48E9-88BC-D9BE908A8E81}" name="%Chance" dataDxfId="29" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{80EF7A8F-4364-48E9-88BC-D9BE908A8E81}" name="%Chance" dataDxfId="13" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -733,7 +570,7 @@
     <tableColumn id="1" xr3:uid="{28E027C3-6619-4F6B-B9B5-4E991BEE7169}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{83798236-E790-4DCB-9325-19CBD2933987}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FD652A42-76E9-4A8A-B64F-41F588B57CA0}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{80AE0A84-EBAE-467D-B0FF-B1661CD6F9CA}" name="%Chance" dataDxfId="28" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{80AE0A84-EBAE-467D-B0FF-B1661CD6F9CA}" name="%Chance" dataDxfId="12" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378918[[#This Row],[Rate]]/SUM(Table1378918[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -748,7 +585,7 @@
     <tableColumn id="1" xr3:uid="{5710BAA2-303B-4130-B397-9E88F263AC1A}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{749EB946-237E-4C13-8450-9CB46D681F3D}" name="Rate"/>
     <tableColumn id="7" xr3:uid="{BF90F91A-CFD2-42FC-87F6-1E7A02388275}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{29E82DC4-7FBA-46F8-A388-8832C45E81A7}" name="%Chance" dataDxfId="27" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{29E82DC4-7FBA-46F8-A388-8832C45E81A7}" name="%Chance" dataDxfId="11" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891819[[#This Row],[Rate]]/SUM(Table137891819[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -766,7 +603,7 @@
     <tableColumn id="1" xr3:uid="{DFFD549D-06AC-4FEB-9CAE-81D867FAF7DA}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{5A314CBA-65C8-411D-9F89-C9E413B3C28A}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{A94A88ED-4FF7-4BF3-AAAF-6B7F2860C1FD}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{D8F779D7-C1D3-4D6E-AE28-F4F37BF0FD4C}" name="%Chance" dataDxfId="26" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{D8F779D7-C1D3-4D6E-AE28-F4F37BF0FD4C}" name="%Chance" dataDxfId="10" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891520[[#This Row],[Rate]]/SUM(Table137891520[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -781,7 +618,7 @@
     <tableColumn id="1" xr3:uid="{BE923A95-75C9-4062-BE0B-A80844A43C74}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{8A2B068D-BA52-49A9-8B60-7C7AB68DE7AA}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{96CED9DA-94ED-4108-8E34-6799C464E382}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{B90E081D-90F4-47E6-B8F8-1845ADE3AC33}" name="%Chance" dataDxfId="25" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{B90E081D-90F4-47E6-B8F8-1845ADE3AC33}" name="%Chance" dataDxfId="9" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789181924[[#This Row],[Rate]]/SUM(Table13789181924[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -799,7 +636,7 @@
     <tableColumn id="1" xr3:uid="{381B99D4-DAE9-4E7B-B588-5D9988B19F22}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{D8C82624-656A-47EE-8246-49712DEB46B7}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{6E1B10DB-484A-43C3-8696-EC6E862B4D4A}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{8A8DD7D9-1F12-4887-B5AA-12E962C2FD48}" name="%Chance" dataDxfId="24" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{8A8DD7D9-1F12-4887-B5AA-12E962C2FD48}" name="%Chance" dataDxfId="8" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378915202[[#This Row],[Rate]]/SUM(Table1378915202[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -808,13 +645,13 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A78B3AE9-4F71-4D90-BBB1-B1341409AE74}" name="Table1378913147" displayName="Table1378913147" ref="K64:N68" totalsRowShown="0">
-  <autoFilter ref="K64:N68" xr:uid="{A78B3AE9-4F71-4D90-BBB1-B1341409AE74}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A78B3AE9-4F71-4D90-BBB1-B1341409AE74}" name="Table1378913147" displayName="Table1378913147" ref="K63:N67" totalsRowShown="0">
+  <autoFilter ref="K63:N67" xr:uid="{A78B3AE9-4F71-4D90-BBB1-B1341409AE74}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{5FC31BA1-4AF3-430A-A419-59C22C2155C5}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{BC88DEB0-09FB-4E75-B113-7CDE256B8E17}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{6C6C351D-AFB0-4A3F-BC2D-CDE5D9A11B25}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{733DAD33-07B1-4A54-BBE0-B3212B512175}" name="%Chance" dataDxfId="23" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{733DAD33-07B1-4A54-BBE0-B3212B512175}" name="%Chance" dataDxfId="7" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -823,13 +660,13 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{44DD51EE-228C-4FEB-B2BB-0731512A3210}" name="Table13789131478" displayName="Table13789131478" ref="E72:H77" totalsRowShown="0">
-  <autoFilter ref="E72:H77" xr:uid="{44DD51EE-228C-4FEB-B2BB-0731512A3210}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{44DD51EE-228C-4FEB-B2BB-0731512A3210}" name="Table13789131478" displayName="Table13789131478" ref="K71:N76" totalsRowShown="0">
+  <autoFilter ref="K71:N76" xr:uid="{44DD51EE-228C-4FEB-B2BB-0731512A3210}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9C5387E8-4E0B-43FC-BD7B-7307A5B89A6C}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{000E006A-A8FF-4DD8-84CA-E745617C159E}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{89D8EF85-04D9-47B6-81E8-ECDC97E127CD}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{67DA4D60-8692-4B89-85F1-E0CA987870E6}" name="%Chance" dataDxfId="22" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{67DA4D60-8692-4B89-85F1-E0CA987870E6}" name="%Chance" dataDxfId="6" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -844,7 +681,7 @@
     <tableColumn id="1" xr3:uid="{4039683D-C0FB-4D66-BC6D-675C507599A7}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{03A60152-6173-4E33-8950-C35B5FC16A06}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{36A0463A-B432-4BFA-8A69-778F0DEAA5D7}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{FB468FC3-8F5C-492C-974E-7C915391756C}" name="%Chance" dataDxfId="21" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{FB468FC3-8F5C-492C-974E-7C915391756C}" name="%Chance" dataDxfId="5" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913147812[[#This Row],[Rate]]/SUM(Table1378913147812[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -864,8 +701,8 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{DB9051B2-66EF-4156-8B9B-03E37B51ED88}" name="Table1378913147821" displayName="Table1378913147821" ref="E86:H87" totalsRowShown="0">
-  <autoFilter ref="E86:H87" xr:uid="{DB9051B2-66EF-4156-8B9B-03E37B51ED88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{DB9051B2-66EF-4156-8B9B-03E37B51ED88}" name="Table1378913147821" displayName="Table1378913147821" ref="E87:H88" totalsRowShown="0">
+  <autoFilter ref="E87:H88" xr:uid="{DB9051B2-66EF-4156-8B9B-03E37B51ED88}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{C7425F1C-2EEC-47EF-8EEA-2729F06AB5D7}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{F68B8B21-141F-4D1E-AE8D-C39F60F40661}" name="Rate"/>
@@ -933,7 +770,7 @@
     <tableColumn id="1" xr3:uid="{5FD88E56-EE50-4E96-AF7E-14BF06E4B5D5}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{45FE54DB-459E-467E-AEFD-A964A6E0ACBE}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{F7B36C6D-249B-4C8F-AD9A-FE1BA8D7EA5F}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{F15086BD-3ABF-42E8-AD67-1A721BE8BDB3}" name="%Chance" dataDxfId="33" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{F15086BD-3ABF-42E8-AD67-1A721BE8BDB3}" name="%Chance" dataDxfId="17" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789[[#This Row],[Rate]]/SUM(Table13789[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -948,7 +785,7 @@
     <tableColumn id="1" xr3:uid="{B45D3A7A-5A1F-44F3-AEE5-F5F07020D270}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{8D0A6B32-E6FD-4FEB-BD6B-C5D482407A4D}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{BFC03E2E-52F7-4DCD-8C1C-A21D751C7908}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{C0196799-3FEE-40C1-A925-239F70EFBC90}" name="%Chance" dataDxfId="32" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{C0196799-3FEE-40C1-A925-239F70EFBC90}" name="%Chance" dataDxfId="16" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913[[#This Row],[Rate]]/SUM(Table1378913[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -963,7 +800,7 @@
     <tableColumn id="1" xr3:uid="{22D67FFD-FBB4-459B-A50A-FD89B7CA47EA}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{ABA1E863-6768-496A-992C-D3ACAA40AD3E}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{21B42FB6-D1C6-45EA-99F9-B424D331BD57}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{5F1A8B4E-B55C-46A2-AA78-2705E90B792F}" name="%Chance" dataDxfId="31" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{5F1A8B4E-B55C-46A2-AA78-2705E90B792F}" name="%Chance" dataDxfId="15" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891314[[#This Row],[Rate]]/SUM(Table137891314[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1257,13 +1094,13 @@
     <row r="4" spans="4:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
@@ -1279,12 +1116,12 @@
     </row>
     <row r="8" spans="4:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F8" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
         <v>1</v>
@@ -1293,7 +1130,7 @@
     <row r="10" spans="4:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D10" s="1"/>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -1301,7 +1138,7 @@
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -1322,7 +1159,7 @@
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>1</v>
@@ -1346,12 +1183,12 @@
     </row>
     <row r="19" spans="6:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F19" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
         <v>1</v>
@@ -1359,7 +1196,7 @@
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G21">
         <v>5</v>
@@ -1389,7 +1226,7 @@
   <dimension ref="C4:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,10 +1264,10 @@
         <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
@@ -1453,13 +1290,13 @@
         <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.25">
@@ -1473,16 +1310,16 @@
         <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M7" t="s">
         <v>16</v>
@@ -1490,323 +1327,323 @@
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
         <v>22</v>
       </c>
-      <c r="I8" t="s">
-        <v>23</v>
-      </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
         <v>29</v>
       </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" t="s">
         <v>46</v>
       </c>
-      <c r="I11" t="s">
-        <v>48</v>
-      </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" t="s">
         <v>50</v>
       </c>
-      <c r="H12" t="s">
-        <v>53</v>
-      </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J12">
         <v>10</v>
       </c>
       <c r="K12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J14">
         <v>5</v>
       </c>
       <c r="K14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J15">
         <v>10</v>
       </c>
       <c r="K15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="K6:K21">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",K6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="N">
+      <formula>NOT(ISERROR(SEARCH("N",K6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L6:L21">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",L6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",L6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6:K21">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",K6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="N">
-      <formula>NOT(ISERROR(SEARCH("N",K6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1820,10 +1657,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB88C1E5-D251-4818-A177-3044F90F9570}">
-  <dimension ref="B2:X87"/>
+  <dimension ref="B2:X88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="T82" sqref="T82"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="S57" sqref="S57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1849,10 +1686,10 @@
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
@@ -1884,7 +1721,7 @@
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -1920,7 +1757,7 @@
     </row>
     <row r="9" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="K9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1941,7 +1778,7 @@
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L11">
         <v>10</v>
@@ -1971,7 +1808,7 @@
     </row>
     <row r="14" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="K14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1992,7 +1829,7 @@
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="K16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L16">
         <v>3</v>
@@ -2007,7 +1844,7 @@
     </row>
     <row r="17" spans="5:24" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2022,7 +1859,7 @@
     </row>
     <row r="18" spans="5:24" x14ac:dyDescent="0.25">
       <c r="K18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L18">
         <v>3</v>
@@ -2053,7 +1890,7 @@
     </row>
     <row r="21" spans="5:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E21" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2076,7 +1913,7 @@
     </row>
     <row r="23" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -2095,7 +1932,7 @@
     </row>
     <row r="25" spans="5:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E25" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2116,7 +1953,7 @@
     </row>
     <row r="27" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -2131,7 +1968,7 @@
     </row>
     <row r="28" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F28">
         <v>10</v>
@@ -2146,7 +1983,7 @@
     </row>
     <row r="30" spans="5:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="K30" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -2167,7 +2004,7 @@
     </row>
     <row r="32" spans="5:24" x14ac:dyDescent="0.25">
       <c r="K32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L32">
         <v>0.1</v>
@@ -2182,7 +2019,7 @@
     </row>
     <row r="33" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L33">
         <v>25</v>
@@ -2197,7 +2034,7 @@
     </row>
     <row r="34" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L34">
         <v>15</v>
@@ -2212,7 +2049,7 @@
     </row>
     <row r="36" spans="11:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="K36" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -2233,7 +2070,7 @@
     </row>
     <row r="38" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -2248,7 +2085,7 @@
     </row>
     <row r="39" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K39" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -2263,7 +2100,7 @@
     </row>
     <row r="40" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K40" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -2278,7 +2115,7 @@
     </row>
     <row r="41" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K41" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -2293,7 +2130,7 @@
     </row>
     <row r="42" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K42" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -2335,109 +2172,94 @@
         <v>8</v>
       </c>
       <c r="L46">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M46">
         <v>1</v>
       </c>
       <c r="N46" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>0.22018348623853212</v>
+        <v>0.25688073394495414</v>
       </c>
     </row>
     <row r="47" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K47" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="L47">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M47">
         <v>1</v>
       </c>
       <c r="N47" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>0.45871559633027525</v>
+        <v>9.1743119266055051E-2</v>
       </c>
     </row>
     <row r="48" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K48" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="L48">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="M48">
         <v>1</v>
       </c>
       <c r="N48" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>0.14678899082568808</v>
+        <v>0.45871559633027525</v>
       </c>
     </row>
     <row r="49" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K49" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="L49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M49">
         <v>1</v>
       </c>
       <c r="N49" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>5.5045871559633031E-2</v>
+        <v>9.1743119266055051E-2</v>
       </c>
     </row>
     <row r="50" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K50" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="L50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M50">
         <v>1</v>
       </c>
       <c r="N50" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>5.5045871559633031E-2</v>
+        <v>9.1743119266055051E-2</v>
       </c>
     </row>
     <row r="51" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K51" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="L51">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="M51">
         <v>1</v>
       </c>
       <c r="N51" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>5.5045871559633031E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="K52" t="s">
-        <v>6</v>
-      </c>
-      <c r="L52">
-        <v>0.5</v>
-      </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="N52" s="4">
-        <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
         <v>9.1743119266055051E-3</v>
       </c>
     </row>
     <row r="55" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E55" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -2458,7 +2280,7 @@
     </row>
     <row r="57" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -2473,7 +2295,7 @@
     </row>
     <row r="59" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E59" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -2494,7 +2316,7 @@
     </row>
     <row r="61" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -2507,9 +2329,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E62" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -2521,192 +2343,193 @@
         <f>Table1378915202[[#This Row],[Rate]]/SUM(Table1378915202[Rate])</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="63" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="K63" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
+      <c r="K62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+    </row>
+    <row r="63" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K63" t="s">
+        <v>0</v>
+      </c>
+      <c r="L63" t="s">
+        <v>2</v>
+      </c>
+      <c r="M63" t="s">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="64" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K64" t="s">
-        <v>0</v>
-      </c>
-      <c r="L64" t="s">
-        <v>2</v>
-      </c>
-      <c r="M64" t="s">
-        <v>1</v>
-      </c>
-      <c r="N64" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="5:14" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="L64">
+        <v>10</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64" s="4">
+        <f>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</f>
+        <v>0.66225165562913912</v>
+      </c>
+    </row>
+    <row r="65" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K65" t="s">
         <v>6</v>
       </c>
       <c r="L65">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N65" s="4">
         <f>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</f>
-        <v>0.66225165562913912</v>
-      </c>
-    </row>
-    <row r="66" spans="5:14" x14ac:dyDescent="0.25">
+        <v>0.26490066225165565</v>
+      </c>
+    </row>
+    <row r="66" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K66" t="s">
         <v>6</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M66">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="N66" s="4">
         <f>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</f>
-        <v>0.26490066225165565</v>
-      </c>
-    </row>
-    <row r="67" spans="5:14" x14ac:dyDescent="0.25">
+        <v>6.6225165562913912E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K67" t="s">
         <v>6</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M67">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="N67" s="4">
         <f>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</f>
-        <v>6.6225165562913912E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="K68" t="s">
-        <v>6</v>
-      </c>
-      <c r="L68">
-        <v>0.1</v>
-      </c>
-      <c r="M68">
-        <v>200</v>
-      </c>
-      <c r="N68" s="4">
-        <f>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</f>
         <v>6.6225165562913916E-3</v>
       </c>
     </row>
-    <row r="71" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E71" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-    </row>
-    <row r="72" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E72" t="s">
+    <row r="70" spans="11:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="K70" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+    </row>
+    <row r="71" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K71" t="s">
         <v>0</v>
       </c>
-      <c r="F72" t="s">
+      <c r="L71" t="s">
         <v>2</v>
       </c>
-      <c r="G72" t="s">
-        <v>1</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="M71" t="s">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E73" t="s">
+    <row r="72" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K72" t="s">
         <v>7</v>
       </c>
-      <c r="F73">
+      <c r="L72">
         <v>10</v>
       </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-      <c r="H73" s="4">
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72" s="4">
         <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
         <v>0.49751243781094523</v>
       </c>
     </row>
-    <row r="74" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E74" t="s">
+    <row r="73" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K73" t="s">
         <v>7</v>
       </c>
-      <c r="F74">
+      <c r="L73">
         <v>4</v>
       </c>
-      <c r="G74">
+      <c r="M73">
         <v>5</v>
       </c>
-      <c r="H74" s="4">
+      <c r="N73" s="4">
         <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
         <v>0.19900497512437809</v>
       </c>
     </row>
-    <row r="75" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E75" t="s">
+    <row r="74" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K74" t="s">
         <v>7</v>
       </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75">
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
         <v>10</v>
       </c>
-      <c r="H75" s="4">
+      <c r="N74" s="4">
         <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
         <v>4.9751243781094523E-2</v>
       </c>
     </row>
-    <row r="76" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E76" t="s">
+    <row r="75" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K75" t="s">
         <v>7</v>
       </c>
-      <c r="F76">
+      <c r="L75">
         <v>0.1</v>
       </c>
-      <c r="G76">
+      <c r="M75">
         <v>25</v>
       </c>
-      <c r="H76" s="4">
+      <c r="N75" s="4">
         <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
         <v>4.9751243781094526E-3</v>
       </c>
     </row>
-    <row r="77" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E77" t="s">
-        <v>89</v>
-      </c>
-      <c r="F77">
+    <row r="76" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K76" t="s">
+        <v>86</v>
+      </c>
+      <c r="L76">
         <v>5</v>
       </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77" s="4">
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76" s="4">
         <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
         <v>0.24875621890547261</v>
       </c>
     </row>
-    <row r="78" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="77" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="N77" s="4"/>
+    </row>
+    <row r="78" spans="11:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="K78" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
     </row>
-    <row r="79" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K79" t="s">
         <v>0</v>
       </c>
@@ -2720,7 +2543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K80" t="s">
         <v>5</v>
       </c>
@@ -2737,7 +2560,7 @@
     </row>
     <row r="81" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K81" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L81">
         <v>2</v>
@@ -2752,7 +2575,7 @@
     </row>
     <row r="82" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K82" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L82">
         <v>0.1</v>
@@ -2765,38 +2588,38 @@
         <v>3.2258064516129031E-2</v>
       </c>
     </row>
-    <row r="85" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E85" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-    </row>
-    <row r="86" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E86" t="s">
-        <v>0</v>
-      </c>
-      <c r="F86" t="s">
-        <v>2</v>
-      </c>
-      <c r="G86" t="s">
-        <v>1</v>
-      </c>
-      <c r="H86" t="s">
-        <v>4</v>
-      </c>
+    <row r="86" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="E86" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
     </row>
     <row r="87" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
+        <v>0</v>
+      </c>
+      <c r="F87" t="s">
+        <v>2</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1</v>
+      </c>
+      <c r="H87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
         <v>7</v>
       </c>
-      <c r="F87">
+      <c r="F88">
         <v>10</v>
       </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="H87" s="4">
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88" s="4">
         <f>Table1378913147821[[#This Row],[Rate]]/SUM(Table1378913147821[Rate])</f>
         <v>1</v>
       </c>

--- a/pack_world_game/design/Packs Items Tables.xlsx
+++ b/pack_world_game/design/Packs Items Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\pack_world\pack_world_game\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3FB153-9423-40D6-B123-5B72D243FFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45545700-590C-451D-A57B-88296409F180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="103">
   <si>
     <t>ItemID</t>
   </si>
@@ -344,6 +344,9 @@
   </si>
   <si>
     <t>TileTallGrass</t>
+  </si>
+  <si>
+    <t>MudBaby</t>
   </si>
 </sst>
 </file>
@@ -1659,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB88C1E5-D251-4818-A177-3044F90F9570}">
   <dimension ref="B2:X88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="S57" sqref="S57"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="T84" sqref="T84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2456,7 +2459,7 @@
       </c>
       <c r="N72" s="4">
         <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
-        <v>0.49751243781094523</v>
+        <v>0.6211180124223602</v>
       </c>
     </row>
     <row r="73" spans="11:14" x14ac:dyDescent="0.25">
@@ -2471,7 +2474,7 @@
       </c>
       <c r="N73" s="4">
         <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
-        <v>0.19900497512437809</v>
+        <v>0.24844720496894407</v>
       </c>
     </row>
     <row r="74" spans="11:14" x14ac:dyDescent="0.25">
@@ -2486,7 +2489,7 @@
       </c>
       <c r="N74" s="4">
         <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
-        <v>4.9751243781094523E-2</v>
+        <v>6.2111801242236017E-2</v>
       </c>
     </row>
     <row r="75" spans="11:14" x14ac:dyDescent="0.25">
@@ -2501,22 +2504,22 @@
       </c>
       <c r="N75" s="4">
         <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
-        <v>4.9751243781094526E-3</v>
+        <v>6.2111801242236021E-3</v>
       </c>
     </row>
     <row r="76" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K76" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="L76">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M76">
         <v>1</v>
       </c>
       <c r="N76" s="4">
         <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
-        <v>0.24875621890547261</v>
+        <v>6.2111801242236017E-2</v>
       </c>
     </row>
     <row r="77" spans="11:14" x14ac:dyDescent="0.25">

--- a/pack_world_game/design/Packs Items Tables.xlsx
+++ b/pack_world_game/design/Packs Items Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\pack_world\pack_world_game\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45545700-590C-451D-A57B-88296409F180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262A2B27-87BB-4BA5-8DBC-48BB2B4007F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="104">
   <si>
     <t>ItemID</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>MudBaby</t>
+  </si>
+  <si>
+    <t>TileFrog</t>
   </si>
 </sst>
 </file>
@@ -549,10 +552,10 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}" name="Table137891516" displayName="Table137891516" ref="K45:N51" totalsRowShown="0">
-  <autoFilter ref="K45:N51" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K46:N51">
-    <sortCondition descending="1" ref="L45:L51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}" name="Table137891516" displayName="Table137891516" ref="K45:N52" totalsRowShown="0">
+  <autoFilter ref="K45:N52" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K46:N52">
+    <sortCondition descending="1" ref="L45:L52"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{333EBB11-1697-4271-B03A-E6B773563CFE}" name="ItemID"/>
@@ -648,8 +651,8 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A78B3AE9-4F71-4D90-BBB1-B1341409AE74}" name="Table1378913147" displayName="Table1378913147" ref="K63:N67" totalsRowShown="0">
-  <autoFilter ref="K63:N67" xr:uid="{A78B3AE9-4F71-4D90-BBB1-B1341409AE74}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A78B3AE9-4F71-4D90-BBB1-B1341409AE74}" name="Table1378913147" displayName="Table1378913147" ref="K64:N68" totalsRowShown="0">
+  <autoFilter ref="K64:N68" xr:uid="{A78B3AE9-4F71-4D90-BBB1-B1341409AE74}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{5FC31BA1-4AF3-430A-A419-59C22C2155C5}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{BC88DEB0-09FB-4E75-B113-7CDE256B8E17}" name="Rate"/>
@@ -663,8 +666,8 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{44DD51EE-228C-4FEB-B2BB-0731512A3210}" name="Table13789131478" displayName="Table13789131478" ref="K71:N76" totalsRowShown="0">
-  <autoFilter ref="K71:N76" xr:uid="{44DD51EE-228C-4FEB-B2BB-0731512A3210}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{44DD51EE-228C-4FEB-B2BB-0731512A3210}" name="Table13789131478" displayName="Table13789131478" ref="K72:N77" totalsRowShown="0">
+  <autoFilter ref="K72:N77" xr:uid="{44DD51EE-228C-4FEB-B2BB-0731512A3210}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9C5387E8-4E0B-43FC-BD7B-7307A5B89A6C}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{000E006A-A8FF-4DD8-84CA-E745617C159E}" name="Rate"/>
@@ -678,8 +681,8 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{2FC462D0-506C-4CBE-83DA-7B5DFCEB8956}" name="Table1378913147812" displayName="Table1378913147812" ref="K79:N82" totalsRowShown="0">
-  <autoFilter ref="K79:N82" xr:uid="{2FC462D0-506C-4CBE-83DA-7B5DFCEB8956}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{2FC462D0-506C-4CBE-83DA-7B5DFCEB8956}" name="Table1378913147812" displayName="Table1378913147812" ref="K80:N83" totalsRowShown="0">
+  <autoFilter ref="K80:N83" xr:uid="{2FC462D0-506C-4CBE-83DA-7B5DFCEB8956}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4039683D-C0FB-4D66-BC6D-675C507599A7}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{03A60152-6173-4E33-8950-C35B5FC16A06}" name="Rate"/>
@@ -1662,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB88C1E5-D251-4818-A177-3044F90F9570}">
   <dimension ref="B2:X88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="T84" sqref="T84"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="T70" sqref="T70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2182,7 +2185,7 @@
       </c>
       <c r="N46" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>0.25688073394495414</v>
+        <v>0.25454545454545452</v>
       </c>
     </row>
     <row r="47" spans="11:14" x14ac:dyDescent="0.25">
@@ -2197,7 +2200,7 @@
       </c>
       <c r="N47" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>9.1743119266055051E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="48" spans="11:14" x14ac:dyDescent="0.25">
@@ -2212,7 +2215,7 @@
       </c>
       <c r="N48" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>0.45871559633027525</v>
+        <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="49" spans="5:14" x14ac:dyDescent="0.25">
@@ -2227,37 +2230,52 @@
       </c>
       <c r="N49" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>9.1743119266055051E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="50" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K50" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="L50">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="M50">
         <v>1</v>
       </c>
       <c r="N50" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>9.1743119266055051E-2</v>
+        <v>9.0909090909090905E-3</v>
       </c>
     </row>
     <row r="51" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K51" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="L51">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="M51">
         <v>1</v>
       </c>
       <c r="N51" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>9.1743119266055051E-3</v>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K52" t="s">
+        <v>6</v>
+      </c>
+      <c r="L52">
+        <v>0.5</v>
+      </c>
+      <c r="M52">
+        <v>20</v>
+      </c>
+      <c r="N52" s="4">
+        <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
+        <v>9.0909090909090905E-3</v>
       </c>
     </row>
     <row r="55" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
@@ -2332,7 +2350,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="62" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
         <v>55</v>
       </c>
@@ -2346,39 +2364,26 @@
         <f>Table1378915202[[#This Row],[Rate]]/SUM(Table1378915202[Rate])</f>
         <v>0.5</v>
       </c>
-      <c r="K62" s="1" t="s">
+    </row>
+    <row r="63" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="K63" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-    </row>
-    <row r="63" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="K63" t="s">
-        <v>0</v>
-      </c>
-      <c r="L63" t="s">
-        <v>2</v>
-      </c>
-      <c r="M63" t="s">
-        <v>1</v>
-      </c>
-      <c r="N63" t="s">
-        <v>4</v>
-      </c>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
     </row>
     <row r="64" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K64" t="s">
-        <v>6</v>
-      </c>
-      <c r="L64">
-        <v>10</v>
-      </c>
-      <c r="M64">
-        <v>1</v>
-      </c>
-      <c r="N64" s="4">
-        <f>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</f>
-        <v>0.66225165562913912</v>
+        <v>0</v>
+      </c>
+      <c r="L64" t="s">
+        <v>2</v>
+      </c>
+      <c r="M64" t="s">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="11:14" x14ac:dyDescent="0.25">
@@ -2386,14 +2391,14 @@
         <v>6</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M65">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N65" s="4">
         <f>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</f>
-        <v>0.26490066225165565</v>
+        <v>0.66225165562913912</v>
       </c>
     </row>
     <row r="66" spans="11:14" x14ac:dyDescent="0.25">
@@ -2401,14 +2406,14 @@
         <v>6</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M66">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="N66" s="4">
         <f>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</f>
-        <v>6.6225165562913912E-2</v>
+        <v>0.26490066225165565</v>
       </c>
     </row>
     <row r="67" spans="11:14" x14ac:dyDescent="0.25">
@@ -2416,50 +2421,50 @@
         <v>6</v>
       </c>
       <c r="L67">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M67">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="N67" s="4">
         <f>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</f>
+        <v>6.6225165562913912E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K68" t="s">
+        <v>6</v>
+      </c>
+      <c r="L68">
+        <v>0.1</v>
+      </c>
+      <c r="M68">
+        <v>200</v>
+      </c>
+      <c r="N68" s="4">
+        <f>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</f>
         <v>6.6225165562913916E-3</v>
       </c>
     </row>
-    <row r="70" spans="11:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="K70" s="1" t="s">
+    <row r="71" spans="11:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="K71" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-    </row>
-    <row r="71" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K71" t="s">
-        <v>0</v>
-      </c>
-      <c r="L71" t="s">
-        <v>2</v>
-      </c>
-      <c r="M71" t="s">
-        <v>1</v>
-      </c>
-      <c r="N71" t="s">
-        <v>4</v>
-      </c>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
     </row>
     <row r="72" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K72" t="s">
-        <v>7</v>
-      </c>
-      <c r="L72">
-        <v>10</v>
-      </c>
-      <c r="M72">
-        <v>1</v>
-      </c>
-      <c r="N72" s="4">
-        <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
-        <v>0.6211180124223602</v>
+        <v>0</v>
+      </c>
+      <c r="L72" t="s">
+        <v>2</v>
+      </c>
+      <c r="M72" t="s">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="11:14" x14ac:dyDescent="0.25">
@@ -2467,14 +2472,14 @@
         <v>7</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M73">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N73" s="4">
         <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
-        <v>0.24844720496894407</v>
+        <v>0.6211180124223602</v>
       </c>
     </row>
     <row r="74" spans="11:14" x14ac:dyDescent="0.25">
@@ -2482,14 +2487,14 @@
         <v>7</v>
       </c>
       <c r="L74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M74">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N74" s="4">
         <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
-        <v>6.2111801242236017E-2</v>
+        <v>0.24844720496894407</v>
       </c>
     </row>
     <row r="75" spans="11:14" x14ac:dyDescent="0.25">
@@ -2497,96 +2502,111 @@
         <v>7</v>
       </c>
       <c r="L75">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M75">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N75" s="4">
         <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
-        <v>6.2111801242236021E-3</v>
+        <v>6.2111801242236017E-2</v>
       </c>
     </row>
     <row r="76" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K76" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="L76">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="N76" s="4">
         <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
+        <v>6.2111801242236021E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K77" t="s">
+        <v>102</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77" s="4">
+        <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
         <v>6.2111801242236017E-2</v>
       </c>
     </row>
-    <row r="77" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="N77" s="4"/>
-    </row>
-    <row r="78" spans="11:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="K78" s="1" t="s">
+    <row r="78" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="N78" s="4"/>
+    </row>
+    <row r="79" spans="11:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="K79" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-    </row>
-    <row r="79" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K79" t="s">
-        <v>0</v>
-      </c>
-      <c r="L79" t="s">
-        <v>2</v>
-      </c>
-      <c r="M79" t="s">
-        <v>1</v>
-      </c>
-      <c r="N79" t="s">
-        <v>4</v>
-      </c>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
     </row>
     <row r="80" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K80" t="s">
+        <v>0</v>
+      </c>
+      <c r="L80" t="s">
+        <v>2</v>
+      </c>
+      <c r="M80" t="s">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K81" t="s">
         <v>5</v>
       </c>
-      <c r="L80">
-        <v>1</v>
-      </c>
-      <c r="M80">
-        <v>1</v>
-      </c>
-      <c r="N80" s="4">
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81" s="4">
         <f>Table1378913147812[[#This Row],[Rate]]/SUM(Table1378913147812[Rate])</f>
         <v>0.32258064516129031</v>
       </c>
     </row>
-    <row r="81" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="K81" t="s">
+    <row r="82" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K82" t="s">
         <v>78</v>
       </c>
-      <c r="L81">
+      <c r="L82">
         <v>2</v>
       </c>
-      <c r="M81">
-        <v>1</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82" s="3">
         <f>Table1378913147812[[#This Row],[Rate]]/SUM(Table1378913147812[Rate])</f>
         <v>0.64516129032258063</v>
       </c>
     </row>
-    <row r="82" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="K82" t="s">
+    <row r="83" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K83" t="s">
         <v>77</v>
       </c>
-      <c r="L82">
+      <c r="L83">
         <v>0.1</v>
       </c>
-      <c r="M82">
-        <v>1</v>
-      </c>
-      <c r="N82" s="3">
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83" s="3">
         <f>Table1378913147812[[#This Row],[Rate]]/SUM(Table1378913147812[Rate])</f>
         <v>3.2258064516129031E-2</v>
       </c>

--- a/pack_world_game/design/Packs Items Tables.xlsx
+++ b/pack_world_game/design/Packs Items Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\pack_world\pack_world_game\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262A2B27-87BB-4BA5-8DBC-48BB2B4007F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62140F8-C982-45EB-A657-75B469EEC388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pack Cost" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="134">
   <si>
     <t>ItemID</t>
   </si>
@@ -223,9 +223,6 @@
     <t>Placed in tree, drops bugs for food</t>
   </si>
   <si>
-    <t>Cobweb</t>
-  </si>
-  <si>
     <t>Starter</t>
   </si>
   <si>
@@ -350,6 +347,99 @@
   </si>
   <si>
     <t>TileFrog</t>
+  </si>
+  <si>
+    <t>PotionMoney</t>
+  </si>
+  <si>
+    <t>Gives 1 gold every time harvested</t>
+  </si>
+  <si>
+    <t>PotionPlenty</t>
+  </si>
+  <si>
+    <t>Doubles every harvest</t>
+  </si>
+  <si>
+    <t>PotionQuick</t>
+  </si>
+  <si>
+    <t>Permanently reduces harvest time of tile by 1%</t>
+  </si>
+  <si>
+    <t>PotionAuto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatically harvests tile </t>
+  </si>
+  <si>
+    <t>PotionAbundance</t>
+  </si>
+  <si>
+    <t>Permanently replaces droptable with gold.</t>
+  </si>
+  <si>
+    <t>SmallPotions</t>
+  </si>
+  <si>
+    <t>Cattail</t>
+  </si>
+  <si>
+    <t>FrogLeg</t>
+  </si>
+  <si>
+    <t>NewtEye</t>
+  </si>
+  <si>
+    <t>Newt</t>
+  </si>
+  <si>
+    <t>Must be placed in water. Gives potion supplies.</t>
+  </si>
+  <si>
+    <t>MudPig</t>
+  </si>
+  <si>
+    <t>Roots around and finds potion supplies</t>
+  </si>
+  <si>
+    <t>MudFish</t>
+  </si>
+  <si>
+    <t>Placed in water. Automatically harvests dirt tiles.</t>
+  </si>
+  <si>
+    <t>Pearl</t>
+  </si>
+  <si>
+    <t>Raindrop</t>
+  </si>
+  <si>
+    <t>Place on soil to reduce harvest time of soil.</t>
+  </si>
+  <si>
+    <t>Oyster</t>
+  </si>
+  <si>
+    <t>Drops pearls</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Placed on dirt. Doubles dropes of surrounding soil tiles.</t>
+  </si>
+  <si>
+    <t>Mud</t>
+  </si>
+  <si>
+    <t>MorningDew</t>
+  </si>
+  <si>
+    <t>MudCave</t>
+  </si>
+  <si>
+    <t>Slowly produces mud babies.</t>
   </si>
 </sst>
 </file>
@@ -426,7 +516,247 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -534,6 +864,66 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5DD264DE-D047-45F6-A8AA-15A47977664C}" name="Table46" displayName="Table46" ref="H5:M27" totalsRowShown="0">
+  <autoFilter ref="H5:M27" xr:uid="{5DD264DE-D047-45F6-A8AA-15A47977664C}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{997C8B3F-F0E6-4E58-9D23-D135F012BA96}" name="TileID"/>
+    <tableColumn id="2" xr3:uid="{C06A2FFF-D8A0-4374-BC0C-74CE8667732D}" name="Descriptiopn"/>
+    <tableColumn id="5" xr3:uid="{111A289B-2403-445C-9D0D-1F02E6F223EF}" name="Limit"/>
+    <tableColumn id="6" xr3:uid="{49C6944D-2C81-4120-9357-ACD68023DD77}" name="Persistent"/>
+    <tableColumn id="3" xr3:uid="{E8433EC5-F402-420F-AA65-40C639574A0B}" name="Harvestable"/>
+    <tableColumn id="4" xr3:uid="{B817F4D1-A0E6-4DF2-A947-290B386494B6}" name="Harvest Drop Table"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{176435C6-9928-463A-B5F7-69CD4F47CC99}" name="Table13789" displayName="Table13789" ref="K15:N19" totalsRowShown="0">
+  <autoFilter ref="K15:N19" xr:uid="{176435C6-9928-463A-B5F7-69CD4F47CC99}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{5FD88E56-EE50-4E96-AF7E-14BF06E4B5D5}" name="ItemID"/>
+    <tableColumn id="2" xr3:uid="{45FE54DB-459E-467E-AEFD-A964A6E0ACBE}" name="Rate"/>
+    <tableColumn id="4" xr3:uid="{F7B36C6D-249B-4C8F-AD9A-FE1BA8D7EA5F}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{F15086BD-3ABF-42E8-AD67-1A721BE8BDB3}" name="%Chance" dataDxfId="41" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table13789[[#This Row],[Rate]]/SUM(Table13789[Rate])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{FD822368-43F7-4899-AFB0-F84B016F8825}" name="Table1378913" displayName="Table1378913" ref="K10:N12" totalsRowShown="0">
+  <autoFilter ref="K10:N12" xr:uid="{FD822368-43F7-4899-AFB0-F84B016F8825}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B45D3A7A-5A1F-44F3-AEE5-F5F07020D270}" name="ItemID"/>
+    <tableColumn id="2" xr3:uid="{8D0A6B32-E6FD-4FEB-BD6B-C5D482407A4D}" name="Rate"/>
+    <tableColumn id="4" xr3:uid="{BFC03E2E-52F7-4DCD-8C1C-A21D751C7908}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{C0196799-3FEE-40C1-A925-239F70EFBC90}" name="%Chance" dataDxfId="40" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table1378913[[#This Row],[Rate]]/SUM(Table1378913[Rate])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{CC44CAA6-0359-41CF-983E-278C8EE92B89}" name="Table137891314" displayName="Table137891314" ref="K5:N7" totalsRowShown="0">
+  <autoFilter ref="K5:N7" xr:uid="{CC44CAA6-0359-41CF-983E-278C8EE92B89}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{22D67FFD-FBB4-459B-A50A-FD89B7CA47EA}" name="ItemID"/>
+    <tableColumn id="2" xr3:uid="{ABA1E863-6768-496A-992C-D3ACAA40AD3E}" name="Rate"/>
+    <tableColumn id="6" xr3:uid="{21B42FB6-D1C6-45EA-99F9-B424D331BD57}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{5F1A8B4E-B55C-46A2-AA78-2705E90B792F}" name="%Chance" dataDxfId="39" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table137891314[[#This Row],[Rate]]/SUM(Table137891314[Rate])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{5110325C-5187-4FDB-BA7F-BFBE8E131005}" name="Table1378915" displayName="Table1378915" ref="K37:N42" totalsRowShown="0">
   <autoFilter ref="K37:N42" xr:uid="{5110325C-5187-4FDB-BA7F-BFBE8E131005}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K38:N39">
@@ -543,7 +933,7 @@
     <tableColumn id="1" xr3:uid="{36F17566-CFEC-4201-BC32-CDFBEE168785}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{7FAF1644-E0BB-494D-A054-1BEBE28A02F9}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FA86084E-4629-4BD7-A80C-6229B8D80F65}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{5EBDFC1E-8AA4-45D3-B7A3-F1E8D0317C06}" name="%Chance" dataDxfId="14" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{5EBDFC1E-8AA4-45D3-B7A3-F1E8D0317C06}" name="%Chance" dataDxfId="38" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378915[[#This Row],[Rate]]/SUM(Table1378915[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -551,7 +941,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}" name="Table137891516" displayName="Table137891516" ref="K45:N52" totalsRowShown="0">
   <autoFilter ref="K45:N52" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K46:N52">
@@ -561,7 +951,7 @@
     <tableColumn id="1" xr3:uid="{333EBB11-1697-4271-B03A-E6B773563CFE}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{66779ED5-FBDC-43B6-B577-67F38636A1F1}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FA20C3E4-336D-43FD-9C7B-B1827A771EBC}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{80EF7A8F-4364-48E9-88BC-D9BE908A8E81}" name="%Chance" dataDxfId="13" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{80EF7A8F-4364-48E9-88BC-D9BE908A8E81}" name="%Chance" dataDxfId="37" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -569,14 +959,14 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{B9E16C5E-B24F-4003-8D83-DE034BACC562}" name="Table1378918" displayName="Table1378918" ref="E22:H23" totalsRowShown="0">
   <autoFilter ref="E22:H23" xr:uid="{B9E16C5E-B24F-4003-8D83-DE034BACC562}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{28E027C3-6619-4F6B-B9B5-4E991BEE7169}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{83798236-E790-4DCB-9325-19CBD2933987}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FD652A42-76E9-4A8A-B64F-41F588B57CA0}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{80AE0A84-EBAE-467D-B0FF-B1661CD6F9CA}" name="%Chance" dataDxfId="12" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{80AE0A84-EBAE-467D-B0FF-B1661CD6F9CA}" name="%Chance" dataDxfId="36" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378918[[#This Row],[Rate]]/SUM(Table1378918[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -584,14 +974,14 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{9C922454-05F0-4A60-969F-42B0AED9779C}" name="Table137891819" displayName="Table137891819" ref="E26:H28" totalsRowShown="0">
   <autoFilter ref="E26:H28" xr:uid="{9C922454-05F0-4A60-969F-42B0AED9779C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{5710BAA2-303B-4130-B397-9E88F263AC1A}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{749EB946-237E-4C13-8450-9CB46D681F3D}" name="Rate"/>
     <tableColumn id="7" xr3:uid="{BF90F91A-CFD2-42FC-87F6-1E7A02388275}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{29E82DC4-7FBA-46F8-A388-8832C45E81A7}" name="%Chance" dataDxfId="11" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{29E82DC4-7FBA-46F8-A388-8832C45E81A7}" name="%Chance" dataDxfId="35" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891819[[#This Row],[Rate]]/SUM(Table137891819[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -599,7 +989,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{965A754C-BC3B-4A15-BAA4-D36F0C450007}" name="Table137891520" displayName="Table137891520" ref="E56:H57" totalsRowShown="0">
   <autoFilter ref="E56:H57" xr:uid="{965A754C-BC3B-4A15-BAA4-D36F0C450007}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E57:H57">
@@ -609,7 +999,7 @@
     <tableColumn id="1" xr3:uid="{DFFD549D-06AC-4FEB-9CAE-81D867FAF7DA}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{5A314CBA-65C8-411D-9F89-C9E413B3C28A}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{A94A88ED-4FF7-4BF3-AAAF-6B7F2860C1FD}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{D8F779D7-C1D3-4D6E-AE28-F4F37BF0FD4C}" name="%Chance" dataDxfId="10" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{D8F779D7-C1D3-4D6E-AE28-F4F37BF0FD4C}" name="%Chance" dataDxfId="34" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891520[[#This Row],[Rate]]/SUM(Table137891520[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -617,78 +1007,15 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{BD00E36D-44EA-4B4F-8D6C-1274E45F6098}" name="Table13789181924" displayName="Table13789181924" ref="K31:N34" totalsRowShown="0">
   <autoFilter ref="K31:N34" xr:uid="{BD00E36D-44EA-4B4F-8D6C-1274E45F6098}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{BE923A95-75C9-4062-BE0B-A80844A43C74}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{8A2B068D-BA52-49A9-8B60-7C7AB68DE7AA}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{96CED9DA-94ED-4108-8E34-6799C464E382}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{B90E081D-90F4-47E6-B8F8-1845ADE3AC33}" name="%Chance" dataDxfId="9" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{B90E081D-90F4-47E6-B8F8-1845ADE3AC33}" name="%Chance" dataDxfId="33" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789181924[[#This Row],[Rate]]/SUM(Table13789181924[Rate])</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{650098C8-BEE6-4D14-80C9-295B1257E899}" name="Table1378915202" displayName="Table1378915202" ref="E60:H62" totalsRowShown="0">
-  <autoFilter ref="E60:H62" xr:uid="{650098C8-BEE6-4D14-80C9-295B1257E899}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E61:H61">
-    <sortCondition ref="F37:F39"/>
-  </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{381B99D4-DAE9-4E7B-B588-5D9988B19F22}" name="ItemID"/>
-    <tableColumn id="2" xr3:uid="{D8C82624-656A-47EE-8246-49712DEB46B7}" name="Rate"/>
-    <tableColumn id="4" xr3:uid="{6E1B10DB-484A-43C3-8696-EC6E862B4D4A}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{8A8DD7D9-1F12-4887-B5AA-12E962C2FD48}" name="%Chance" dataDxfId="8" dataCellStyle="Percent">
-      <calculatedColumnFormula>Table1378915202[[#This Row],[Rate]]/SUM(Table1378915202[Rate])</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A78B3AE9-4F71-4D90-BBB1-B1341409AE74}" name="Table1378913147" displayName="Table1378913147" ref="K64:N68" totalsRowShown="0">
-  <autoFilter ref="K64:N68" xr:uid="{A78B3AE9-4F71-4D90-BBB1-B1341409AE74}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5FC31BA1-4AF3-430A-A419-59C22C2155C5}" name="ItemID"/>
-    <tableColumn id="2" xr3:uid="{BC88DEB0-09FB-4E75-B113-7CDE256B8E17}" name="Rate"/>
-    <tableColumn id="6" xr3:uid="{6C6C351D-AFB0-4A3F-BC2D-CDE5D9A11B25}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{733DAD33-07B1-4A54-BBE0-B3212B512175}" name="%Chance" dataDxfId="7" dataCellStyle="Percent">
-      <calculatedColumnFormula>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{44DD51EE-228C-4FEB-B2BB-0731512A3210}" name="Table13789131478" displayName="Table13789131478" ref="K72:N77" totalsRowShown="0">
-  <autoFilter ref="K72:N77" xr:uid="{44DD51EE-228C-4FEB-B2BB-0731512A3210}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9C5387E8-4E0B-43FC-BD7B-7307A5B89A6C}" name="ItemID"/>
-    <tableColumn id="2" xr3:uid="{000E006A-A8FF-4DD8-84CA-E745617C159E}" name="Rate"/>
-    <tableColumn id="6" xr3:uid="{89D8EF85-04D9-47B6-81E8-ECDC97E127CD}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{67DA4D60-8692-4B89-85F1-E0CA987870E6}" name="%Chance" dataDxfId="6" dataCellStyle="Percent">
-      <calculatedColumnFormula>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{2FC462D0-506C-4CBE-83DA-7B5DFCEB8956}" name="Table1378913147812" displayName="Table1378913147812" ref="K80:N83" totalsRowShown="0">
-  <autoFilter ref="K80:N83" xr:uid="{2FC462D0-506C-4CBE-83DA-7B5DFCEB8956}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4039683D-C0FB-4D66-BC6D-675C507599A7}" name="ItemID"/>
-    <tableColumn id="2" xr3:uid="{03A60152-6173-4E33-8950-C35B5FC16A06}" name="Rate"/>
-    <tableColumn id="6" xr3:uid="{36A0463A-B432-4BFA-8A69-778F0DEAA5D7}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{FB468FC3-8F5C-492C-974E-7C915391756C}" name="%Chance" dataDxfId="5" dataCellStyle="Percent">
-      <calculatedColumnFormula>Table1378913147812[[#This Row],[Rate]]/SUM(Table1378913147812[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -707,13 +1034,76 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{650098C8-BEE6-4D14-80C9-295B1257E899}" name="Table1378915202" displayName="Table1378915202" ref="E60:H62" totalsRowShown="0">
+  <autoFilter ref="E60:H62" xr:uid="{650098C8-BEE6-4D14-80C9-295B1257E899}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E61:H61">
+    <sortCondition ref="F37:F39"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{381B99D4-DAE9-4E7B-B588-5D9988B19F22}" name="ItemID"/>
+    <tableColumn id="2" xr3:uid="{D8C82624-656A-47EE-8246-49712DEB46B7}" name="Rate"/>
+    <tableColumn id="4" xr3:uid="{6E1B10DB-484A-43C3-8696-EC6E862B4D4A}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{8A8DD7D9-1F12-4887-B5AA-12E962C2FD48}" name="%Chance" dataDxfId="32" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table1378915202[[#This Row],[Rate]]/SUM(Table1378915202[Rate])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A78B3AE9-4F71-4D90-BBB1-B1341409AE74}" name="Table1378913147" displayName="Table1378913147" ref="K64:N68" totalsRowShown="0">
+  <autoFilter ref="K64:N68" xr:uid="{A78B3AE9-4F71-4D90-BBB1-B1341409AE74}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{5FC31BA1-4AF3-430A-A419-59C22C2155C5}" name="ItemID"/>
+    <tableColumn id="2" xr3:uid="{BC88DEB0-09FB-4E75-B113-7CDE256B8E17}" name="Rate"/>
+    <tableColumn id="6" xr3:uid="{6C6C351D-AFB0-4A3F-BC2D-CDE5D9A11B25}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{733DAD33-07B1-4A54-BBE0-B3212B512175}" name="%Chance" dataDxfId="31" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{44DD51EE-228C-4FEB-B2BB-0731512A3210}" name="Table13789131478" displayName="Table13789131478" ref="K72:N77" totalsRowShown="0">
+  <autoFilter ref="K72:N77" xr:uid="{44DD51EE-228C-4FEB-B2BB-0731512A3210}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{9C5387E8-4E0B-43FC-BD7B-7307A5B89A6C}" name="ItemID"/>
+    <tableColumn id="2" xr3:uid="{000E006A-A8FF-4DD8-84CA-E745617C159E}" name="Rate"/>
+    <tableColumn id="6" xr3:uid="{89D8EF85-04D9-47B6-81E8-ECDC97E127CD}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{67DA4D60-8692-4B89-85F1-E0CA987870E6}" name="%Chance" dataDxfId="30" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{2FC462D0-506C-4CBE-83DA-7B5DFCEB8956}" name="Table1378913147812" displayName="Table1378913147812" ref="K80:N83" totalsRowShown="0">
+  <autoFilter ref="K80:N83" xr:uid="{2FC462D0-506C-4CBE-83DA-7B5DFCEB8956}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{4039683D-C0FB-4D66-BC6D-675C507599A7}" name="ItemID"/>
+    <tableColumn id="2" xr3:uid="{03A60152-6173-4E33-8950-C35B5FC16A06}" name="Rate"/>
+    <tableColumn id="6" xr3:uid="{36A0463A-B432-4BFA-8A69-778F0DEAA5D7}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{FB468FC3-8F5C-492C-974E-7C915391756C}" name="%Chance" dataDxfId="29" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table1378913147812[[#This Row],[Rate]]/SUM(Table1378913147812[Rate])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{DB9051B2-66EF-4156-8B9B-03E37B51ED88}" name="Table1378913147821" displayName="Table1378913147821" ref="E87:H88" totalsRowShown="0">
   <autoFilter ref="E87:H88" xr:uid="{DB9051B2-66EF-4156-8B9B-03E37B51ED88}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{C7425F1C-2EEC-47EF-8EEA-2729F06AB5D7}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{F68B8B21-141F-4D1E-AE8D-C39F60F40661}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{AE893BD6-A2B4-4341-B14D-732457C70734}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{9BAE9F73-4344-4F6B-B023-47346A450C9A}" name="%Chance" dataDxfId="4" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{9BAE9F73-4344-4F6B-B023-47346A450C9A}" name="%Chance" dataDxfId="28" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913147821[[#This Row],[Rate]]/SUM(Table1378913147821[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -744,71 +1134,55 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{708B6843-66CB-49E9-9AE4-D34A26BF374A}" name="Table4" displayName="Table4" ref="D5:E16" totalsRowShown="0">
-  <autoFilter ref="D5:E16" xr:uid="{708B6843-66CB-49E9-9AE4-D34A26BF374A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{20C1EEA3-2EC5-4E9E-A3A6-94A5821C93BE}" name="Table24101117" displayName="Table24101117" ref="F25:G30" totalsRowShown="0">
+  <autoFilter ref="F25:G30" xr:uid="{20C1EEA3-2EC5-4E9E-A3A6-94A5821C93BE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{39852490-B26C-4425-98C9-6963CD28703C}" name="ItemID"/>
-    <tableColumn id="2" xr3:uid="{2EAF4B5B-2BB6-4FE7-9972-BAD5406BE8F4}" name="Descriptiopn"/>
+    <tableColumn id="1" xr3:uid="{0D374F2F-7099-469E-8E76-265910493CD0}" name="Item"/>
+    <tableColumn id="2" xr3:uid="{F0F9DF89-3506-4EF1-85DD-4350F86AA1C9}" name="Count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5DD264DE-D047-45F6-A8AA-15A47977664C}" name="Table46" displayName="Table46" ref="H5:M21" totalsRowShown="0">
-  <autoFilter ref="H5:M21" xr:uid="{5DD264DE-D047-45F6-A8AA-15A47977664C}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{997C8B3F-F0E6-4E58-9D23-D135F012BA96}" name="TileID"/>
-    <tableColumn id="2" xr3:uid="{C06A2FFF-D8A0-4374-BC0C-74CE8667732D}" name="Descriptiopn"/>
-    <tableColumn id="5" xr3:uid="{111A289B-2403-445C-9D0D-1F02E6F223EF}" name="Limit"/>
-    <tableColumn id="6" xr3:uid="{49C6944D-2C81-4120-9357-ACD68023DD77}" name="Persistent"/>
-    <tableColumn id="3" xr3:uid="{E8433EC5-F402-420F-AA65-40C639574A0B}" name="Harvestable"/>
-    <tableColumn id="4" xr3:uid="{B817F4D1-A0E6-4DF2-A947-290B386494B6}" name="Harvest Drop Table"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{50433124-C99D-405B-98C0-CC377C2A52E7}" name="Table2410111722" displayName="Table2410111722" ref="F33:G35" totalsRowShown="0">
+  <autoFilter ref="F33:G35" xr:uid="{50433124-C99D-405B-98C0-CC377C2A52E7}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{85EE204F-E088-4361-A3AA-D2992B1C538F}" name="Item"/>
+    <tableColumn id="2" xr3:uid="{A27D5B56-9D70-4256-95E6-1E957111835E}" name="Count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{176435C6-9928-463A-B5F7-69CD4F47CC99}" name="Table13789" displayName="Table13789" ref="K15:N19" totalsRowShown="0">
-  <autoFilter ref="K15:N19" xr:uid="{176435C6-9928-463A-B5F7-69CD4F47CC99}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5FD88E56-EE50-4E96-AF7E-14BF06E4B5D5}" name="ItemID"/>
-    <tableColumn id="2" xr3:uid="{45FE54DB-459E-467E-AEFD-A964A6E0ACBE}" name="Rate"/>
-    <tableColumn id="4" xr3:uid="{F7B36C6D-249B-4C8F-AD9A-FE1BA8D7EA5F}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{F15086BD-3ABF-42E8-AD67-1A721BE8BDB3}" name="%Chance" dataDxfId="17" dataCellStyle="Percent">
-      <calculatedColumnFormula>Table13789[[#This Row],[Rate]]/SUM(Table13789[Rate])</calculatedColumnFormula>
-    </tableColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{551E5FC0-4319-474D-81B6-DE5B183F0760}" name="Table241011172223" displayName="Table241011172223" ref="F38:G40" totalsRowShown="0">
+  <autoFilter ref="F38:G40" xr:uid="{551E5FC0-4319-474D-81B6-DE5B183F0760}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{7A1E268D-7648-4B40-BD3B-5EDF62B28FC7}" name="Item"/>
+    <tableColumn id="2" xr3:uid="{54D7710C-69CC-4777-8DEF-63FB1679C731}" name="Count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{FD822368-43F7-4899-AFB0-F84B016F8825}" name="Table1378913" displayName="Table1378913" ref="K10:N12" totalsRowShown="0">
-  <autoFilter ref="K10:N12" xr:uid="{FD822368-43F7-4899-AFB0-F84B016F8825}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B45D3A7A-5A1F-44F3-AEE5-F5F07020D270}" name="ItemID"/>
-    <tableColumn id="2" xr3:uid="{8D0A6B32-E6FD-4FEB-BD6B-C5D482407A4D}" name="Rate"/>
-    <tableColumn id="4" xr3:uid="{BFC03E2E-52F7-4DCD-8C1C-A21D751C7908}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{C0196799-3FEE-40C1-A925-239F70EFBC90}" name="%Chance" dataDxfId="16" dataCellStyle="Percent">
-      <calculatedColumnFormula>Table1378913[[#This Row],[Rate]]/SUM(Table1378913[Rate])</calculatedColumnFormula>
-    </tableColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{0B7118CA-BE7B-4B95-B95D-7AFF2C18404C}" name="Table24101117222325" displayName="Table24101117222325" ref="F43:G44" totalsRowShown="0">
+  <autoFilter ref="F43:G44" xr:uid="{0B7118CA-BE7B-4B95-B95D-7AFF2C18404C}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{93B9A9D7-D7CE-4A1B-B65C-9409B136A8C6}" name="Item"/>
+    <tableColumn id="2" xr3:uid="{7BDDA377-E493-47A2-89E9-56B213BC559D}" name="Count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{CC44CAA6-0359-41CF-983E-278C8EE92B89}" name="Table137891314" displayName="Table137891314" ref="K5:N7" totalsRowShown="0">
-  <autoFilter ref="K5:N7" xr:uid="{CC44CAA6-0359-41CF-983E-278C8EE92B89}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{22D67FFD-FBB4-459B-A50A-FD89B7CA47EA}" name="ItemID"/>
-    <tableColumn id="2" xr3:uid="{ABA1E863-6768-496A-992C-D3ACAA40AD3E}" name="Rate"/>
-    <tableColumn id="6" xr3:uid="{21B42FB6-D1C6-45EA-99F9-B424D331BD57}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{5F1A8B4E-B55C-46A2-AA78-2705E90B792F}" name="%Chance" dataDxfId="15" dataCellStyle="Percent">
-      <calculatedColumnFormula>Table137891314[[#This Row],[Rate]]/SUM(Table137891314[Rate])</calculatedColumnFormula>
-    </tableColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{708B6843-66CB-49E9-9AE4-D34A26BF374A}" name="Table4" displayName="Table4" ref="D5:E23" totalsRowShown="0">
+  <autoFilter ref="D5:E23" xr:uid="{708B6843-66CB-49E9-9AE4-D34A26BF374A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{39852490-B26C-4425-98C9-6963CD28703C}" name="ItemID"/>
+    <tableColumn id="2" xr3:uid="{2EAF4B5B-2BB6-4FE7-9972-BAD5406BE8F4}" name="Descriptiopn"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1077,10 +1451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385CD932-F33E-4B64-B729-8359FB37D1A0}">
-  <dimension ref="D4:I22"/>
+  <dimension ref="D4:I44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,7 +1474,7 @@
     <row r="4" spans="4:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -1122,7 +1496,7 @@
     </row>
     <row r="8" spans="4:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.25">
@@ -1144,7 +1518,7 @@
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -1189,7 +1563,7 @@
     </row>
     <row r="19" spans="6:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.25">
@@ -1216,30 +1590,166 @@
         <v>10</v>
       </c>
     </row>
+    <row r="24" spans="6:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F24" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="6:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F32" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F37" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F42" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>131</v>
+      </c>
+      <c r="G44">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="4">
+  <tableParts count="8">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FEB0EF-3316-4CF7-BB73-CA3D5C3FEAE1}">
-  <dimension ref="C4:M21"/>
+  <dimension ref="C4:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="43.85546875" customWidth="1"/>
+    <col min="5" max="5" width="60.28515625" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="64.28515625" customWidth="1"/>
     <col min="10" max="10" width="8.5703125" customWidth="1"/>
@@ -1273,7 +1783,7 @@
         <v>51</v>
       </c>
       <c r="K5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
@@ -1359,7 +1869,7 @@
         <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s">
         <v>25</v>
@@ -1480,10 +1990,10 @@
         <v>60</v>
       </c>
       <c r="H14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" t="s">
         <v>64</v>
-      </c>
-      <c r="I14" t="s">
-        <v>65</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -1495,21 +2005,21 @@
         <v>52</v>
       </c>
       <c r="M14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
         <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J15">
         <v>10</v>
@@ -1521,21 +2031,21 @@
         <v>52</v>
       </c>
       <c r="M15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" t="s">
         <v>86</v>
       </c>
-      <c r="E16" t="s">
-        <v>87</v>
-      </c>
       <c r="H16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" t="s">
         <v>71</v>
-      </c>
-      <c r="I16" t="s">
-        <v>72</v>
       </c>
       <c r="J16" t="s">
         <v>53</v>
@@ -1547,12 +2057,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" t="s">
+        <v>104</v>
+      </c>
       <c r="H17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s">
         <v>83</v>
-      </c>
-      <c r="I17" t="s">
-        <v>84</v>
       </c>
       <c r="J17" t="s">
         <v>53</v>
@@ -1564,15 +2080,21 @@
         <v>52</v>
       </c>
       <c r="M17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="8:13" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" t="s">
+        <v>106</v>
+      </c>
       <c r="H18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J18" t="s">
         <v>53</v>
@@ -1584,12 +2106,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" t="s">
+        <v>108</v>
+      </c>
       <c r="H19" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" t="s">
         <v>92</v>
-      </c>
-      <c r="I19" t="s">
-        <v>93</v>
       </c>
       <c r="J19" t="s">
         <v>53</v>
@@ -1601,12 +2129,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" t="s">
+        <v>110</v>
+      </c>
       <c r="H20" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" t="s">
         <v>94</v>
-      </c>
-      <c r="I20" t="s">
-        <v>95</v>
       </c>
       <c r="J20" t="s">
         <v>53</v>
@@ -1618,12 +2152,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" t="s">
+        <v>112</v>
+      </c>
       <c r="H21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J21" t="s">
         <v>53</v>
@@ -1635,8 +2175,92 @@
         <v>52</v>
       </c>
     </row>
+    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" t="s">
+        <v>117</v>
+      </c>
+      <c r="I22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>126</v>
+      </c>
+      <c r="I25" t="s">
+        <v>127</v>
+      </c>
+      <c r="K25" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>128</v>
+      </c>
+      <c r="I26" t="s">
+        <v>129</v>
+      </c>
+      <c r="K26" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>132</v>
+      </c>
+      <c r="I27" t="s">
+        <v>133</v>
+      </c>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" t="s">
+        <v>52</v>
+      </c>
+      <c r="M27" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="K6:K21">
+  <conditionalFormatting sqref="K6:K27">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",K6)))</formula>
     </cfRule>
@@ -1644,7 +2268,7 @@
       <formula>NOT(ISERROR(SEARCH("N",K6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L21">
+  <conditionalFormatting sqref="L6:L27">
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",L6)))</formula>
     </cfRule>
@@ -1665,8 +2289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB88C1E5-D251-4818-A177-3044F90F9570}">
   <dimension ref="B2:X88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="T70" sqref="T70"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="R75" sqref="R75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,10 +2316,10 @@
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" t="s">
         <v>88</v>
-      </c>
-      <c r="K2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
@@ -1850,7 +2474,7 @@
     </row>
     <row r="17" spans="5:24" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2025,7 +2649,7 @@
     </row>
     <row r="33" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L33">
         <v>25</v>
@@ -2091,7 +2715,7 @@
     </row>
     <row r="39" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -2106,7 +2730,7 @@
     </row>
     <row r="40" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -2121,7 +2745,7 @@
     </row>
     <row r="41" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -2136,7 +2760,7 @@
     </row>
     <row r="42" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -2190,7 +2814,7 @@
     </row>
     <row r="47" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L47">
         <v>5</v>
@@ -2220,7 +2844,7 @@
     </row>
     <row r="49" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L49">
         <v>5</v>
@@ -2235,7 +2859,7 @@
     </row>
     <row r="50" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L50">
         <v>0.5</v>
@@ -2250,7 +2874,7 @@
     </row>
     <row r="51" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L51">
         <v>5</v>
@@ -2367,7 +2991,7 @@
     </row>
     <row r="63" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="K63" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -2448,7 +3072,7 @@
     </row>
     <row r="71" spans="11:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="K71" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
@@ -2529,7 +3153,7 @@
     </row>
     <row r="77" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L77">
         <v>1</v>
@@ -2547,7 +3171,7 @@
     </row>
     <row r="79" spans="11:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="K79" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
@@ -2583,7 +3207,7 @@
     </row>
     <row r="82" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K82" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L82">
         <v>2</v>
@@ -2598,7 +3222,7 @@
     </row>
     <row r="83" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K83" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L83">
         <v>0.1</v>
@@ -2613,7 +3237,7 @@
     </row>
     <row r="86" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E86" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>

--- a/pack_world_game/design/Packs Items Tables.xlsx
+++ b/pack_world_game/design/Packs Items Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\pack_world\pack_world_game\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62140F8-C982-45EB-A657-75B469EEC388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDC6C2E-8678-4DA1-B619-51633002A8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pack Cost" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="138">
   <si>
     <t>ItemID</t>
   </si>
@@ -440,6 +440,18 @@
   </si>
   <si>
     <t>Slowly produces mud babies.</t>
+  </si>
+  <si>
+    <t>TileWater</t>
+  </si>
+  <si>
+    <t>PackMud</t>
+  </si>
+  <si>
+    <t>TileNewt</t>
+  </si>
+  <si>
+    <t>TileReed</t>
   </si>
 </sst>
 </file>
@@ -516,7 +528,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="19">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -558,244 +570,7 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -885,7 +660,7 @@
     <tableColumn id="1" xr3:uid="{5FD88E56-EE50-4E96-AF7E-14BF06E4B5D5}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{45FE54DB-459E-467E-AEFD-A964A6E0ACBE}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{F7B36C6D-249B-4C8F-AD9A-FE1BA8D7EA5F}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{F15086BD-3ABF-42E8-AD67-1A721BE8BDB3}" name="%Chance" dataDxfId="41" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{F15086BD-3ABF-42E8-AD67-1A721BE8BDB3}" name="%Chance" dataDxfId="18" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789[[#This Row],[Rate]]/SUM(Table13789[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -900,7 +675,7 @@
     <tableColumn id="1" xr3:uid="{B45D3A7A-5A1F-44F3-AEE5-F5F07020D270}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{8D0A6B32-E6FD-4FEB-BD6B-C5D482407A4D}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{BFC03E2E-52F7-4DCD-8C1C-A21D751C7908}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{C0196799-3FEE-40C1-A925-239F70EFBC90}" name="%Chance" dataDxfId="40" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{C0196799-3FEE-40C1-A925-239F70EFBC90}" name="%Chance" dataDxfId="17" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913[[#This Row],[Rate]]/SUM(Table1378913[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -915,7 +690,7 @@
     <tableColumn id="1" xr3:uid="{22D67FFD-FBB4-459B-A50A-FD89B7CA47EA}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{ABA1E863-6768-496A-992C-D3ACAA40AD3E}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{21B42FB6-D1C6-45EA-99F9-B424D331BD57}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{5F1A8B4E-B55C-46A2-AA78-2705E90B792F}" name="%Chance" dataDxfId="39" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{5F1A8B4E-B55C-46A2-AA78-2705E90B792F}" name="%Chance" dataDxfId="16" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891314[[#This Row],[Rate]]/SUM(Table137891314[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -933,7 +708,7 @@
     <tableColumn id="1" xr3:uid="{36F17566-CFEC-4201-BC32-CDFBEE168785}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{7FAF1644-E0BB-494D-A054-1BEBE28A02F9}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FA86084E-4629-4BD7-A80C-6229B8D80F65}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{5EBDFC1E-8AA4-45D3-B7A3-F1E8D0317C06}" name="%Chance" dataDxfId="38" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{5EBDFC1E-8AA4-45D3-B7A3-F1E8D0317C06}" name="%Chance" dataDxfId="15" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378915[[#This Row],[Rate]]/SUM(Table1378915[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -942,16 +717,16 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}" name="Table137891516" displayName="Table137891516" ref="K45:N52" totalsRowShown="0">
-  <autoFilter ref="K45:N52" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K46:N52">
-    <sortCondition descending="1" ref="L45:L52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}" name="Table137891516" displayName="Table137891516" ref="K45:N53" totalsRowShown="0">
+  <autoFilter ref="K45:N53" xr:uid="{C1A0CD95-F474-42C9-ABB6-877348837C36}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K46:N53">
+    <sortCondition descending="1" ref="L45:L53"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{333EBB11-1697-4271-B03A-E6B773563CFE}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{66779ED5-FBDC-43B6-B577-67F38636A1F1}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FA20C3E4-336D-43FD-9C7B-B1827A771EBC}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{80EF7A8F-4364-48E9-88BC-D9BE908A8E81}" name="%Chance" dataDxfId="37" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{80EF7A8F-4364-48E9-88BC-D9BE908A8E81}" name="%Chance" dataDxfId="14" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -966,7 +741,7 @@
     <tableColumn id="1" xr3:uid="{28E027C3-6619-4F6B-B9B5-4E991BEE7169}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{83798236-E790-4DCB-9325-19CBD2933987}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FD652A42-76E9-4A8A-B64F-41F588B57CA0}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{80AE0A84-EBAE-467D-B0FF-B1661CD6F9CA}" name="%Chance" dataDxfId="36" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{80AE0A84-EBAE-467D-B0FF-B1661CD6F9CA}" name="%Chance" dataDxfId="13" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378918[[#This Row],[Rate]]/SUM(Table1378918[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -981,7 +756,7 @@
     <tableColumn id="1" xr3:uid="{5710BAA2-303B-4130-B397-9E88F263AC1A}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{749EB946-237E-4C13-8450-9CB46D681F3D}" name="Rate"/>
     <tableColumn id="7" xr3:uid="{BF90F91A-CFD2-42FC-87F6-1E7A02388275}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{29E82DC4-7FBA-46F8-A388-8832C45E81A7}" name="%Chance" dataDxfId="35" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{29E82DC4-7FBA-46F8-A388-8832C45E81A7}" name="%Chance" dataDxfId="12" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891819[[#This Row],[Rate]]/SUM(Table137891819[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -999,7 +774,7 @@
     <tableColumn id="1" xr3:uid="{DFFD549D-06AC-4FEB-9CAE-81D867FAF7DA}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{5A314CBA-65C8-411D-9F89-C9E413B3C28A}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{A94A88ED-4FF7-4BF3-AAAF-6B7F2860C1FD}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{D8F779D7-C1D3-4D6E-AE28-F4F37BF0FD4C}" name="%Chance" dataDxfId="34" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{D8F779D7-C1D3-4D6E-AE28-F4F37BF0FD4C}" name="%Chance" dataDxfId="11" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891520[[#This Row],[Rate]]/SUM(Table137891520[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1014,7 +789,7 @@
     <tableColumn id="1" xr3:uid="{BE923A95-75C9-4062-BE0B-A80844A43C74}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{8A2B068D-BA52-49A9-8B60-7C7AB68DE7AA}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{96CED9DA-94ED-4108-8E34-6799C464E382}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{B90E081D-90F4-47E6-B8F8-1845ADE3AC33}" name="%Chance" dataDxfId="33" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{B90E081D-90F4-47E6-B8F8-1845ADE3AC33}" name="%Chance" dataDxfId="10" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789181924[[#This Row],[Rate]]/SUM(Table13789181924[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1043,7 +818,7 @@
     <tableColumn id="1" xr3:uid="{381B99D4-DAE9-4E7B-B588-5D9988B19F22}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{D8C82624-656A-47EE-8246-49712DEB46B7}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{6E1B10DB-484A-43C3-8696-EC6E862B4D4A}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{8A8DD7D9-1F12-4887-B5AA-12E962C2FD48}" name="%Chance" dataDxfId="32" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{8A8DD7D9-1F12-4887-B5AA-12E962C2FD48}" name="%Chance" dataDxfId="9" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378915202[[#This Row],[Rate]]/SUM(Table1378915202[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1052,13 +827,13 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A78B3AE9-4F71-4D90-BBB1-B1341409AE74}" name="Table1378913147" displayName="Table1378913147" ref="K64:N68" totalsRowShown="0">
-  <autoFilter ref="K64:N68" xr:uid="{A78B3AE9-4F71-4D90-BBB1-B1341409AE74}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A78B3AE9-4F71-4D90-BBB1-B1341409AE74}" name="Table1378913147" displayName="Table1378913147" ref="K65:N69" totalsRowShown="0">
+  <autoFilter ref="K65:N69" xr:uid="{A78B3AE9-4F71-4D90-BBB1-B1341409AE74}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{5FC31BA1-4AF3-430A-A419-59C22C2155C5}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{BC88DEB0-09FB-4E75-B113-7CDE256B8E17}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{6C6C351D-AFB0-4A3F-BC2D-CDE5D9A11B25}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{733DAD33-07B1-4A54-BBE0-B3212B512175}" name="%Chance" dataDxfId="31" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{733DAD33-07B1-4A54-BBE0-B3212B512175}" name="%Chance" dataDxfId="8" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1067,13 +842,13 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{44DD51EE-228C-4FEB-B2BB-0731512A3210}" name="Table13789131478" displayName="Table13789131478" ref="K72:N77" totalsRowShown="0">
-  <autoFilter ref="K72:N77" xr:uid="{44DD51EE-228C-4FEB-B2BB-0731512A3210}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{44DD51EE-228C-4FEB-B2BB-0731512A3210}" name="Table13789131478" displayName="Table13789131478" ref="K73:N78" totalsRowShown="0">
+  <autoFilter ref="K73:N78" xr:uid="{44DD51EE-228C-4FEB-B2BB-0731512A3210}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9C5387E8-4E0B-43FC-BD7B-7307A5B89A6C}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{000E006A-A8FF-4DD8-84CA-E745617C159E}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{89D8EF85-04D9-47B6-81E8-ECDC97E127CD}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{67DA4D60-8692-4B89-85F1-E0CA987870E6}" name="%Chance" dataDxfId="30" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{67DA4D60-8692-4B89-85F1-E0CA987870E6}" name="%Chance" dataDxfId="7" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1082,13 +857,13 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{2FC462D0-506C-4CBE-83DA-7B5DFCEB8956}" name="Table1378913147812" displayName="Table1378913147812" ref="K80:N83" totalsRowShown="0">
-  <autoFilter ref="K80:N83" xr:uid="{2FC462D0-506C-4CBE-83DA-7B5DFCEB8956}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{2FC462D0-506C-4CBE-83DA-7B5DFCEB8956}" name="Table1378913147812" displayName="Table1378913147812" ref="K81:N84" totalsRowShown="0">
+  <autoFilter ref="K81:N84" xr:uid="{2FC462D0-506C-4CBE-83DA-7B5DFCEB8956}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4039683D-C0FB-4D66-BC6D-675C507599A7}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{03A60152-6173-4E33-8950-C35B5FC16A06}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{36A0463A-B432-4BFA-8A69-778F0DEAA5D7}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{FB468FC3-8F5C-492C-974E-7C915391756C}" name="%Chance" dataDxfId="29" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{FB468FC3-8F5C-492C-974E-7C915391756C}" name="%Chance" dataDxfId="6" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913147812[[#This Row],[Rate]]/SUM(Table1378913147812[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1103,8 +878,23 @@
     <tableColumn id="1" xr3:uid="{C7425F1C-2EEC-47EF-8EEA-2729F06AB5D7}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{F68B8B21-141F-4D1E-AE8D-C39F60F40661}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{AE893BD6-A2B4-4341-B14D-732457C70734}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{9BAE9F73-4344-4F6B-B023-47346A450C9A}" name="%Chance" dataDxfId="28" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{9BAE9F73-4344-4F6B-B023-47346A450C9A}" name="%Chance" dataDxfId="5" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913147821[[#This Row],[Rate]]/SUM(Table1378913147821[Rate])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{68A8B6DB-FDE9-4434-8654-5BDDEB7DC6D7}" name="Table137891314782127" displayName="Table137891314782127" ref="K91:N95" totalsRowShown="0">
+  <autoFilter ref="K91:N95" xr:uid="{68A8B6DB-FDE9-4434-8654-5BDDEB7DC6D7}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{8A85DF3A-D6E1-47B2-8031-3ED58E50442B}" name="ItemID"/>
+    <tableColumn id="2" xr3:uid="{A6B2698E-D7F5-4268-ADEE-28368193C73D}" name="Rate"/>
+    <tableColumn id="6" xr3:uid="{A8C7BC54-2D72-4EE8-8416-69B0CBFA5C7C}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{6B37498E-D212-4D73-9EA8-5B4204FE2DB6}" name="%Chance" dataDxfId="4" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table137891314782127[[#This Row],[Rate]]/SUM(Table137891314782127[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1741,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FEB0EF-3316-4CF7-BB73-CA3D5C3FEAE1}">
   <dimension ref="C4:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2287,10 +2077,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB88C1E5-D251-4818-A177-3044F90F9570}">
-  <dimension ref="B2:X88"/>
+  <dimension ref="B2:X95"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="R75" sqref="R75"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="S100" sqref="S100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2809,7 +2599,7 @@
       </c>
       <c r="N46" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>0.25454545454545452</v>
+        <v>0.2153846153846154</v>
       </c>
     </row>
     <row r="47" spans="11:14" x14ac:dyDescent="0.25">
@@ -2824,7 +2614,7 @@
       </c>
       <c r="N47" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>9.0909090909090912E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
     </row>
     <row r="48" spans="11:14" x14ac:dyDescent="0.25">
@@ -2839,7 +2629,7 @@
       </c>
       <c r="N48" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>0.45454545454545453</v>
+        <v>0.38461538461538464</v>
       </c>
     </row>
     <row r="49" spans="5:14" x14ac:dyDescent="0.25">
@@ -2854,7 +2644,7 @@
       </c>
       <c r="N49" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>9.0909090909090912E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
     </row>
     <row r="50" spans="5:14" x14ac:dyDescent="0.25">
@@ -2869,37 +2659,52 @@
       </c>
       <c r="N50" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>9.0909090909090905E-3</v>
+        <v>7.6923076923076927E-3</v>
       </c>
     </row>
     <row r="51" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K51" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M51">
         <v>1</v>
       </c>
       <c r="N51" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>9.0909090909090912E-2</v>
+        <v>0.15384615384615385</v>
       </c>
     </row>
     <row r="52" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K52" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="L52">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="M52">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N52" s="4">
         <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
-        <v>9.0909090909090905E-3</v>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K53" t="s">
+        <v>6</v>
+      </c>
+      <c r="L53">
+        <v>0.5</v>
+      </c>
+      <c r="M53">
+        <v>20</v>
+      </c>
+      <c r="N53" s="4">
+        <f>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</f>
+        <v>7.6923076923076927E-3</v>
       </c>
     </row>
     <row r="55" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
@@ -2989,40 +2794,25 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="K63" s="1" t="s">
+    <row r="64" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="K64" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-    </row>
-    <row r="64" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="K64" t="s">
-        <v>0</v>
-      </c>
-      <c r="L64" t="s">
-        <v>2</v>
-      </c>
-      <c r="M64" t="s">
-        <v>1</v>
-      </c>
-      <c r="N64" t="s">
-        <v>4</v>
-      </c>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
     </row>
     <row r="65" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K65" t="s">
-        <v>6</v>
-      </c>
-      <c r="L65">
-        <v>10</v>
-      </c>
-      <c r="M65">
-        <v>1</v>
-      </c>
-      <c r="N65" s="4">
-        <f>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</f>
-        <v>0.66225165562913912</v>
+        <v>0</v>
+      </c>
+      <c r="L65" t="s">
+        <v>2</v>
+      </c>
+      <c r="M65" t="s">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="11:14" x14ac:dyDescent="0.25">
@@ -3030,14 +2820,14 @@
         <v>6</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M66">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N66" s="4">
         <f>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</f>
-        <v>0.26490066225165565</v>
+        <v>0.66225165562913912</v>
       </c>
     </row>
     <row r="67" spans="11:14" x14ac:dyDescent="0.25">
@@ -3045,14 +2835,14 @@
         <v>6</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M67">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="N67" s="4">
         <f>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</f>
-        <v>6.6225165562913912E-2</v>
+        <v>0.26490066225165565</v>
       </c>
     </row>
     <row r="68" spans="11:14" x14ac:dyDescent="0.25">
@@ -3060,50 +2850,50 @@
         <v>6</v>
       </c>
       <c r="L68">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M68">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="N68" s="4">
         <f>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</f>
+        <v>6.6225165562913912E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K69" t="s">
+        <v>6</v>
+      </c>
+      <c r="L69">
+        <v>0.1</v>
+      </c>
+      <c r="M69">
+        <v>200</v>
+      </c>
+      <c r="N69" s="4">
+        <f>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</f>
         <v>6.6225165562913916E-3</v>
       </c>
     </row>
-    <row r="71" spans="11:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="K71" s="1" t="s">
+    <row r="72" spans="11:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="K72" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-    </row>
-    <row r="72" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K72" t="s">
-        <v>0</v>
-      </c>
-      <c r="L72" t="s">
-        <v>2</v>
-      </c>
-      <c r="M72" t="s">
-        <v>1</v>
-      </c>
-      <c r="N72" t="s">
-        <v>4</v>
-      </c>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
     </row>
     <row r="73" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K73" t="s">
-        <v>7</v>
-      </c>
-      <c r="L73">
-        <v>10</v>
-      </c>
-      <c r="M73">
-        <v>1</v>
-      </c>
-      <c r="N73" s="4">
-        <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
-        <v>0.6211180124223602</v>
+        <v>0</v>
+      </c>
+      <c r="L73" t="s">
+        <v>2</v>
+      </c>
+      <c r="M73" t="s">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="11:14" x14ac:dyDescent="0.25">
@@ -3111,14 +2901,14 @@
         <v>7</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N74" s="4">
         <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
-        <v>0.24844720496894407</v>
+        <v>0.6211180124223602</v>
       </c>
     </row>
     <row r="75" spans="11:14" x14ac:dyDescent="0.25">
@@ -3126,14 +2916,14 @@
         <v>7</v>
       </c>
       <c r="L75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M75">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N75" s="4">
         <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
-        <v>6.2111801242236017E-2</v>
+        <v>0.24844720496894407</v>
       </c>
     </row>
     <row r="76" spans="11:14" x14ac:dyDescent="0.25">
@@ -3141,96 +2931,111 @@
         <v>7</v>
       </c>
       <c r="L76">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M76">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="N76" s="4">
         <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
-        <v>6.2111801242236021E-3</v>
+        <v>6.2111801242236017E-2</v>
       </c>
     </row>
     <row r="77" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K77" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="L77">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M77">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="N77" s="4">
         <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
+        <v>6.2111801242236021E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K78" t="s">
+        <v>101</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78" s="4">
+        <f>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</f>
         <v>6.2111801242236017E-2</v>
       </c>
     </row>
-    <row r="78" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="N78" s="4"/>
-    </row>
-    <row r="79" spans="11:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="K79" s="1" t="s">
+    <row r="79" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="N79" s="4"/>
+    </row>
+    <row r="80" spans="11:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="K80" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-    </row>
-    <row r="80" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K80" t="s">
-        <v>0</v>
-      </c>
-      <c r="L80" t="s">
-        <v>2</v>
-      </c>
-      <c r="M80" t="s">
-        <v>1</v>
-      </c>
-      <c r="N80" t="s">
-        <v>4</v>
-      </c>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
     </row>
     <row r="81" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K81" t="s">
+        <v>0</v>
+      </c>
+      <c r="L81" t="s">
+        <v>2</v>
+      </c>
+      <c r="M81" t="s">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K82" t="s">
         <v>5</v>
       </c>
-      <c r="L81">
-        <v>1</v>
-      </c>
-      <c r="M81">
-        <v>1</v>
-      </c>
-      <c r="N81" s="4">
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82" s="4">
         <f>Table1378913147812[[#This Row],[Rate]]/SUM(Table1378913147812[Rate])</f>
         <v>0.32258064516129031</v>
       </c>
     </row>
-    <row r="82" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="K82" t="s">
+    <row r="83" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K83" t="s">
         <v>77</v>
       </c>
-      <c r="L82">
+      <c r="L83">
         <v>2</v>
       </c>
-      <c r="M82">
-        <v>1</v>
-      </c>
-      <c r="N82" s="3">
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83" s="3">
         <f>Table1378913147812[[#This Row],[Rate]]/SUM(Table1378913147812[Rate])</f>
         <v>0.64516129032258063</v>
       </c>
     </row>
-    <row r="83" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="K83" t="s">
+    <row r="84" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K84" t="s">
         <v>76</v>
       </c>
-      <c r="L83">
+      <c r="L84">
         <v>0.1</v>
       </c>
-      <c r="M83">
-        <v>1</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84" s="3">
         <f>Table1378913147812[[#This Row],[Rate]]/SUM(Table1378913147812[Rate])</f>
         <v>3.2258064516129031E-2</v>
       </c>
@@ -3271,10 +3076,88 @@
         <v>1</v>
       </c>
     </row>
+    <row r="90" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="K90" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+    </row>
+    <row r="91" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K91" t="s">
+        <v>0</v>
+      </c>
+      <c r="L91" t="s">
+        <v>2</v>
+      </c>
+      <c r="M91" t="s">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K92" t="s">
+        <v>7</v>
+      </c>
+      <c r="L92">
+        <v>10</v>
+      </c>
+      <c r="M92">
+        <v>5</v>
+      </c>
+      <c r="N92" s="4">
+        <f>Table137891314782127[[#This Row],[Rate]]/SUM(Table137891314782127[Rate])</f>
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="93" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K93" t="s">
+        <v>134</v>
+      </c>
+      <c r="L93">
+        <v>10</v>
+      </c>
+      <c r="M93">
+        <v>5</v>
+      </c>
+      <c r="N93" s="3">
+        <f>Table137891314782127[[#This Row],[Rate]]/SUM(Table137891314782127[Rate])</f>
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="94" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K94" t="s">
+        <v>136</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94" s="3">
+        <f>Table137891314782127[[#This Row],[Rate]]/SUM(Table137891314782127[Rate])</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K95" t="s">
+        <v>137</v>
+      </c>
+      <c r="L95">
+        <v>5</v>
+      </c>
+      <c r="N95" s="3">
+        <f>Table137891314782127[[#This Row],[Rate]]/SUM(Table137891314782127[Rate])</f>
+        <v>0.19230769230769232</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="14">
+  <tableParts count="15">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -3289,6 +3172,7 @@
     <tablePart r:id="rId12"/>
     <tablePart r:id="rId13"/>
     <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
--- a/pack_world_game/design/Packs Items Tables.xlsx
+++ b/pack_world_game/design/Packs Items Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\pack_world\pack_world_game\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDC6C2E-8678-4DA1-B619-51633002A8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6554EC59-DB0D-4D2C-A055-DCB95C380E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pack Cost" sheetId="6" r:id="rId1"/>
@@ -1531,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FEB0EF-3316-4CF7-BB73-CA3D5C3FEAE1}">
   <dimension ref="C4:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2079,8 +2079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB88C1E5-D251-4818-A177-3044F90F9570}">
   <dimension ref="B2:X95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="S100" sqref="S100"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="R91" sqref="R91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/pack_world_game/design/Packs Items Tables.xlsx
+++ b/pack_world_game/design/Packs Items Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\pack_world\pack_world_game\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6554EC59-DB0D-4D2C-A055-DCB95C380E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C118B6-8D4B-4A34-BEE3-29197600147A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pack Cost" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="143">
   <si>
     <t>ItemID</t>
   </si>
@@ -418,9 +418,6 @@
     <t>Place on soil to reduce harvest time of soil.</t>
   </si>
   <si>
-    <t>Oyster</t>
-  </si>
-  <si>
     <t>Drops pearls</t>
   </si>
   <si>
@@ -452,6 +449,24 @@
   </si>
   <si>
     <t>TileReed</t>
+  </si>
+  <si>
+    <t>Clam</t>
+  </si>
+  <si>
+    <t>ItemPearl</t>
+  </si>
+  <si>
+    <t>ItemOldBoot</t>
+  </si>
+  <si>
+    <t>ItemSeweed</t>
+  </si>
+  <si>
+    <t>ItemTrashBag</t>
+  </si>
+  <si>
+    <t>ItemOldHat</t>
   </si>
 </sst>
 </file>
@@ -528,7 +543,10 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="20">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -660,7 +678,7 @@
     <tableColumn id="1" xr3:uid="{5FD88E56-EE50-4E96-AF7E-14BF06E4B5D5}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{45FE54DB-459E-467E-AEFD-A964A6E0ACBE}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{F7B36C6D-249B-4C8F-AD9A-FE1BA8D7EA5F}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{F15086BD-3ABF-42E8-AD67-1A721BE8BDB3}" name="%Chance" dataDxfId="18" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{F15086BD-3ABF-42E8-AD67-1A721BE8BDB3}" name="%Chance" dataDxfId="19" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789[[#This Row],[Rate]]/SUM(Table13789[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -675,7 +693,7 @@
     <tableColumn id="1" xr3:uid="{B45D3A7A-5A1F-44F3-AEE5-F5F07020D270}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{8D0A6B32-E6FD-4FEB-BD6B-C5D482407A4D}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{BFC03E2E-52F7-4DCD-8C1C-A21D751C7908}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{C0196799-3FEE-40C1-A925-239F70EFBC90}" name="%Chance" dataDxfId="17" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{C0196799-3FEE-40C1-A925-239F70EFBC90}" name="%Chance" dataDxfId="18" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913[[#This Row],[Rate]]/SUM(Table1378913[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -690,7 +708,7 @@
     <tableColumn id="1" xr3:uid="{22D67FFD-FBB4-459B-A50A-FD89B7CA47EA}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{ABA1E863-6768-496A-992C-D3ACAA40AD3E}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{21B42FB6-D1C6-45EA-99F9-B424D331BD57}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{5F1A8B4E-B55C-46A2-AA78-2705E90B792F}" name="%Chance" dataDxfId="16" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{5F1A8B4E-B55C-46A2-AA78-2705E90B792F}" name="%Chance" dataDxfId="17" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891314[[#This Row],[Rate]]/SUM(Table137891314[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -708,7 +726,7 @@
     <tableColumn id="1" xr3:uid="{36F17566-CFEC-4201-BC32-CDFBEE168785}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{7FAF1644-E0BB-494D-A054-1BEBE28A02F9}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FA86084E-4629-4BD7-A80C-6229B8D80F65}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{5EBDFC1E-8AA4-45D3-B7A3-F1E8D0317C06}" name="%Chance" dataDxfId="15" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{5EBDFC1E-8AA4-45D3-B7A3-F1E8D0317C06}" name="%Chance" dataDxfId="16" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378915[[#This Row],[Rate]]/SUM(Table1378915[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -726,7 +744,7 @@
     <tableColumn id="1" xr3:uid="{333EBB11-1697-4271-B03A-E6B773563CFE}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{66779ED5-FBDC-43B6-B577-67F38636A1F1}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FA20C3E4-336D-43FD-9C7B-B1827A771EBC}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{80EF7A8F-4364-48E9-88BC-D9BE908A8E81}" name="%Chance" dataDxfId="14" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{80EF7A8F-4364-48E9-88BC-D9BE908A8E81}" name="%Chance" dataDxfId="15" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -741,7 +759,7 @@
     <tableColumn id="1" xr3:uid="{28E027C3-6619-4F6B-B9B5-4E991BEE7169}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{83798236-E790-4DCB-9325-19CBD2933987}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FD652A42-76E9-4A8A-B64F-41F588B57CA0}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{80AE0A84-EBAE-467D-B0FF-B1661CD6F9CA}" name="%Chance" dataDxfId="13" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{80AE0A84-EBAE-467D-B0FF-B1661CD6F9CA}" name="%Chance" dataDxfId="14" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378918[[#This Row],[Rate]]/SUM(Table1378918[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -756,7 +774,7 @@
     <tableColumn id="1" xr3:uid="{5710BAA2-303B-4130-B397-9E88F263AC1A}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{749EB946-237E-4C13-8450-9CB46D681F3D}" name="Rate"/>
     <tableColumn id="7" xr3:uid="{BF90F91A-CFD2-42FC-87F6-1E7A02388275}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{29E82DC4-7FBA-46F8-A388-8832C45E81A7}" name="%Chance" dataDxfId="12" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{29E82DC4-7FBA-46F8-A388-8832C45E81A7}" name="%Chance" dataDxfId="13" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891819[[#This Row],[Rate]]/SUM(Table137891819[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -774,7 +792,7 @@
     <tableColumn id="1" xr3:uid="{DFFD549D-06AC-4FEB-9CAE-81D867FAF7DA}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{5A314CBA-65C8-411D-9F89-C9E413B3C28A}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{A94A88ED-4FF7-4BF3-AAAF-6B7F2860C1FD}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{D8F779D7-C1D3-4D6E-AE28-F4F37BF0FD4C}" name="%Chance" dataDxfId="11" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{D8F779D7-C1D3-4D6E-AE28-F4F37BF0FD4C}" name="%Chance" dataDxfId="12" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891520[[#This Row],[Rate]]/SUM(Table137891520[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -789,7 +807,7 @@
     <tableColumn id="1" xr3:uid="{BE923A95-75C9-4062-BE0B-A80844A43C74}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{8A2B068D-BA52-49A9-8B60-7C7AB68DE7AA}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{96CED9DA-94ED-4108-8E34-6799C464E382}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{B90E081D-90F4-47E6-B8F8-1845ADE3AC33}" name="%Chance" dataDxfId="10" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{B90E081D-90F4-47E6-B8F8-1845ADE3AC33}" name="%Chance" dataDxfId="11" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789181924[[#This Row],[Rate]]/SUM(Table13789181924[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -818,7 +836,7 @@
     <tableColumn id="1" xr3:uid="{381B99D4-DAE9-4E7B-B588-5D9988B19F22}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{D8C82624-656A-47EE-8246-49712DEB46B7}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{6E1B10DB-484A-43C3-8696-EC6E862B4D4A}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{8A8DD7D9-1F12-4887-B5AA-12E962C2FD48}" name="%Chance" dataDxfId="9" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{8A8DD7D9-1F12-4887-B5AA-12E962C2FD48}" name="%Chance" dataDxfId="10" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378915202[[#This Row],[Rate]]/SUM(Table1378915202[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -833,7 +851,7 @@
     <tableColumn id="1" xr3:uid="{5FC31BA1-4AF3-430A-A419-59C22C2155C5}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{BC88DEB0-09FB-4E75-B113-7CDE256B8E17}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{6C6C351D-AFB0-4A3F-BC2D-CDE5D9A11B25}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{733DAD33-07B1-4A54-BBE0-B3212B512175}" name="%Chance" dataDxfId="8" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{733DAD33-07B1-4A54-BBE0-B3212B512175}" name="%Chance" dataDxfId="9" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -848,7 +866,7 @@
     <tableColumn id="1" xr3:uid="{9C5387E8-4E0B-43FC-BD7B-7307A5B89A6C}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{000E006A-A8FF-4DD8-84CA-E745617C159E}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{89D8EF85-04D9-47B6-81E8-ECDC97E127CD}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{67DA4D60-8692-4B89-85F1-E0CA987870E6}" name="%Chance" dataDxfId="7" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{67DA4D60-8692-4B89-85F1-E0CA987870E6}" name="%Chance" dataDxfId="8" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -863,7 +881,7 @@
     <tableColumn id="1" xr3:uid="{4039683D-C0FB-4D66-BC6D-675C507599A7}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{03A60152-6173-4E33-8950-C35B5FC16A06}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{36A0463A-B432-4BFA-8A69-778F0DEAA5D7}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{FB468FC3-8F5C-492C-974E-7C915391756C}" name="%Chance" dataDxfId="6" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{FB468FC3-8F5C-492C-974E-7C915391756C}" name="%Chance" dataDxfId="7" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913147812[[#This Row],[Rate]]/SUM(Table1378913147812[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -878,7 +896,7 @@
     <tableColumn id="1" xr3:uid="{C7425F1C-2EEC-47EF-8EEA-2729F06AB5D7}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{F68B8B21-141F-4D1E-AE8D-C39F60F40661}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{AE893BD6-A2B4-4341-B14D-732457C70734}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{9BAE9F73-4344-4F6B-B023-47346A450C9A}" name="%Chance" dataDxfId="5" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{9BAE9F73-4344-4F6B-B023-47346A450C9A}" name="%Chance" dataDxfId="6" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913147821[[#This Row],[Rate]]/SUM(Table1378913147821[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -893,8 +911,23 @@
     <tableColumn id="1" xr3:uid="{8A85DF3A-D6E1-47B2-8031-3ED58E50442B}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{A6B2698E-D7F5-4268-ADEE-28368193C73D}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{A8C7BC54-2D72-4EE8-8416-69B0CBFA5C7C}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{6B37498E-D212-4D73-9EA8-5B4204FE2DB6}" name="%Chance" dataDxfId="4" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{6B37498E-D212-4D73-9EA8-5B4204FE2DB6}" name="%Chance" dataDxfId="5" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891314782127[[#This Row],[Rate]]/SUM(Table137891314782127[Rate])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{373286D0-C1A1-42AB-AA04-FAF94452B876}" name="Table13789131478212726" displayName="Table13789131478212726" ref="K98:N103" totalsRowShown="0">
+  <autoFilter ref="K98:N103" xr:uid="{373286D0-C1A1-42AB-AA04-FAF94452B876}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{BFA06CB8-AFDA-477E-8D35-3A0B782861F2}" name="ItemID"/>
+    <tableColumn id="2" xr3:uid="{0FED4EB3-D389-4101-8A88-ADC5BE7312EE}" name="Rate"/>
+    <tableColumn id="6" xr3:uid="{B9E7BE51-E6ED-49F9-9BC0-DC78F235C1A1}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{90B4F952-41ED-4A3F-BA28-4E18C69C9CB2}" name="%Chance" dataDxfId="0" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table13789131478212726[[#This Row],[Rate]]/SUM(Table13789131478212726[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1464,7 +1497,7 @@
     </row>
     <row r="37" spans="6:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F37" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="6:7" x14ac:dyDescent="0.25">
@@ -1506,7 +1539,7 @@
     </row>
     <row r="44" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G44">
         <v>10</v>
@@ -1531,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FEB0EF-3316-4CF7-BB73-CA3D5C3FEAE1}">
   <dimension ref="C4:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,7 +2014,7 @@
     </row>
     <row r="23" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E23" t="s">
         <v>27</v>
@@ -2003,10 +2036,10 @@
     </row>
     <row r="25" spans="4:13" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
+        <v>137</v>
+      </c>
+      <c r="I25" t="s">
         <v>126</v>
-      </c>
-      <c r="I25" t="s">
-        <v>127</v>
       </c>
       <c r="K25" t="s">
         <v>52</v>
@@ -2017,10 +2050,10 @@
     </row>
     <row r="26" spans="4:13" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
+        <v>127</v>
+      </c>
+      <c r="I26" t="s">
         <v>128</v>
-      </c>
-      <c r="I26" t="s">
-        <v>129</v>
       </c>
       <c r="K26" t="s">
         <v>52</v>
@@ -2031,10 +2064,10 @@
     </row>
     <row r="27" spans="4:13" x14ac:dyDescent="0.25">
       <c r="H27" t="s">
+        <v>131</v>
+      </c>
+      <c r="I27" t="s">
         <v>132</v>
-      </c>
-      <c r="I27" t="s">
-        <v>133</v>
       </c>
       <c r="J27" t="s">
         <v>53</v>
@@ -2046,23 +2079,23 @@
         <v>52</v>
       </c>
       <c r="M27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K6:K27">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",K6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",K6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L27">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",L6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",L6)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2077,10 +2110,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB88C1E5-D251-4818-A177-3044F90F9570}">
-  <dimension ref="B2:X95"/>
+  <dimension ref="B2:X103"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="R91" sqref="R91"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="R100" sqref="R100:R101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2092,7 +2125,7 @@
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
     <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" customWidth="1"/>
     <col min="14" max="14" width="9.140625" customWidth="1"/>
@@ -2664,7 +2697,7 @@
     </row>
     <row r="51" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L51">
         <v>10</v>
@@ -3078,7 +3111,7 @@
     </row>
     <row r="90" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="K90" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
@@ -3114,7 +3147,7 @@
     </row>
     <row r="93" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K93" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L93">
         <v>10</v>
@@ -3129,7 +3162,7 @@
     </row>
     <row r="94" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K94" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L94">
         <v>1</v>
@@ -3144,7 +3177,7 @@
     </row>
     <row r="95" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K95" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L95">
         <v>5</v>
@@ -3154,10 +3187,106 @@
         <v>0.19230769230769232</v>
       </c>
     </row>
+    <row r="97" spans="11:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="K97" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+    </row>
+    <row r="98" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K98" t="s">
+        <v>0</v>
+      </c>
+      <c r="L98" t="s">
+        <v>2</v>
+      </c>
+      <c r="M98" t="s">
+        <v>1</v>
+      </c>
+      <c r="N98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K99" t="s">
+        <v>138</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99" s="4">
+        <f>Table13789131478212726[[#This Row],[Rate]]/SUM(Table13789131478212726[Rate])</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K100" t="s">
+        <v>139</v>
+      </c>
+      <c r="L100">
+        <v>5</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100" s="3">
+        <f>Table13789131478212726[[#This Row],[Rate]]/SUM(Table13789131478212726[Rate])</f>
+        <v>0.23809523809523808</v>
+      </c>
+    </row>
+    <row r="101" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K101" t="s">
+        <v>140</v>
+      </c>
+      <c r="L101">
+        <v>5</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101" s="3">
+        <f>Table13789131478212726[[#This Row],[Rate]]/SUM(Table13789131478212726[Rate])</f>
+        <v>0.23809523809523808</v>
+      </c>
+    </row>
+    <row r="102" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K102" t="s">
+        <v>141</v>
+      </c>
+      <c r="L102">
+        <v>5</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102" s="3">
+        <f>Table13789131478212726[[#This Row],[Rate]]/SUM(Table13789131478212726[Rate])</f>
+        <v>0.23809523809523808</v>
+      </c>
+    </row>
+    <row r="103" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K103" t="s">
+        <v>142</v>
+      </c>
+      <c r="L103">
+        <v>5</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103" s="3">
+        <f>Table13789131478212726[[#This Row],[Rate]]/SUM(Table13789131478212726[Rate])</f>
+        <v>0.23809523809523808</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="15">
+  <tableParts count="16">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -3173,6 +3302,7 @@
     <tablePart r:id="rId13"/>
     <tablePart r:id="rId14"/>
     <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
--- a/pack_world_game/design/Packs Items Tables.xlsx
+++ b/pack_world_game/design/Packs Items Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\pack_world\pack_world_game\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C118B6-8D4B-4A34-BEE3-29197600147A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC2A204-300C-4CC0-83C6-DEA1C5147BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pack Cost" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="145">
   <si>
     <t>ItemID</t>
   </si>
@@ -467,6 +467,12 @@
   </si>
   <si>
     <t>ItemOldHat</t>
+  </si>
+  <si>
+    <t>PackWater</t>
+  </si>
+  <si>
+    <t>TileClam</t>
   </si>
 </sst>
 </file>
@@ -543,10 +549,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -586,6 +589,12 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -678,7 +687,7 @@
     <tableColumn id="1" xr3:uid="{5FD88E56-EE50-4E96-AF7E-14BF06E4B5D5}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{45FE54DB-459E-467E-AEFD-A964A6E0ACBE}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{F7B36C6D-249B-4C8F-AD9A-FE1BA8D7EA5F}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{F15086BD-3ABF-42E8-AD67-1A721BE8BDB3}" name="%Chance" dataDxfId="19" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{F15086BD-3ABF-42E8-AD67-1A721BE8BDB3}" name="%Chance" dataDxfId="20" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789[[#This Row],[Rate]]/SUM(Table13789[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -693,7 +702,7 @@
     <tableColumn id="1" xr3:uid="{B45D3A7A-5A1F-44F3-AEE5-F5F07020D270}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{8D0A6B32-E6FD-4FEB-BD6B-C5D482407A4D}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{BFC03E2E-52F7-4DCD-8C1C-A21D751C7908}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{C0196799-3FEE-40C1-A925-239F70EFBC90}" name="%Chance" dataDxfId="18" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{C0196799-3FEE-40C1-A925-239F70EFBC90}" name="%Chance" dataDxfId="19" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913[[#This Row],[Rate]]/SUM(Table1378913[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -708,7 +717,7 @@
     <tableColumn id="1" xr3:uid="{22D67FFD-FBB4-459B-A50A-FD89B7CA47EA}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{ABA1E863-6768-496A-992C-D3ACAA40AD3E}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{21B42FB6-D1C6-45EA-99F9-B424D331BD57}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{5F1A8B4E-B55C-46A2-AA78-2705E90B792F}" name="%Chance" dataDxfId="17" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{5F1A8B4E-B55C-46A2-AA78-2705E90B792F}" name="%Chance" dataDxfId="18" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891314[[#This Row],[Rate]]/SUM(Table137891314[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -726,7 +735,7 @@
     <tableColumn id="1" xr3:uid="{36F17566-CFEC-4201-BC32-CDFBEE168785}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{7FAF1644-E0BB-494D-A054-1BEBE28A02F9}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FA86084E-4629-4BD7-A80C-6229B8D80F65}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{5EBDFC1E-8AA4-45D3-B7A3-F1E8D0317C06}" name="%Chance" dataDxfId="16" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{5EBDFC1E-8AA4-45D3-B7A3-F1E8D0317C06}" name="%Chance" dataDxfId="17" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378915[[#This Row],[Rate]]/SUM(Table1378915[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -744,7 +753,7 @@
     <tableColumn id="1" xr3:uid="{333EBB11-1697-4271-B03A-E6B773563CFE}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{66779ED5-FBDC-43B6-B577-67F38636A1F1}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FA20C3E4-336D-43FD-9C7B-B1827A771EBC}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{80EF7A8F-4364-48E9-88BC-D9BE908A8E81}" name="%Chance" dataDxfId="15" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{80EF7A8F-4364-48E9-88BC-D9BE908A8E81}" name="%Chance" dataDxfId="16" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -759,7 +768,7 @@
     <tableColumn id="1" xr3:uid="{28E027C3-6619-4F6B-B9B5-4E991BEE7169}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{83798236-E790-4DCB-9325-19CBD2933987}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FD652A42-76E9-4A8A-B64F-41F588B57CA0}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{80AE0A84-EBAE-467D-B0FF-B1661CD6F9CA}" name="%Chance" dataDxfId="14" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{80AE0A84-EBAE-467D-B0FF-B1661CD6F9CA}" name="%Chance" dataDxfId="15" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378918[[#This Row],[Rate]]/SUM(Table1378918[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -774,7 +783,7 @@
     <tableColumn id="1" xr3:uid="{5710BAA2-303B-4130-B397-9E88F263AC1A}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{749EB946-237E-4C13-8450-9CB46D681F3D}" name="Rate"/>
     <tableColumn id="7" xr3:uid="{BF90F91A-CFD2-42FC-87F6-1E7A02388275}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{29E82DC4-7FBA-46F8-A388-8832C45E81A7}" name="%Chance" dataDxfId="13" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{29E82DC4-7FBA-46F8-A388-8832C45E81A7}" name="%Chance" dataDxfId="14" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891819[[#This Row],[Rate]]/SUM(Table137891819[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -792,7 +801,7 @@
     <tableColumn id="1" xr3:uid="{DFFD549D-06AC-4FEB-9CAE-81D867FAF7DA}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{5A314CBA-65C8-411D-9F89-C9E413B3C28A}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{A94A88ED-4FF7-4BF3-AAAF-6B7F2860C1FD}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{D8F779D7-C1D3-4D6E-AE28-F4F37BF0FD4C}" name="%Chance" dataDxfId="12" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{D8F779D7-C1D3-4D6E-AE28-F4F37BF0FD4C}" name="%Chance" dataDxfId="13" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891520[[#This Row],[Rate]]/SUM(Table137891520[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -807,7 +816,7 @@
     <tableColumn id="1" xr3:uid="{BE923A95-75C9-4062-BE0B-A80844A43C74}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{8A2B068D-BA52-49A9-8B60-7C7AB68DE7AA}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{96CED9DA-94ED-4108-8E34-6799C464E382}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{B90E081D-90F4-47E6-B8F8-1845ADE3AC33}" name="%Chance" dataDxfId="11" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{B90E081D-90F4-47E6-B8F8-1845ADE3AC33}" name="%Chance" dataDxfId="12" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789181924[[#This Row],[Rate]]/SUM(Table13789181924[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -836,7 +845,7 @@
     <tableColumn id="1" xr3:uid="{381B99D4-DAE9-4E7B-B588-5D9988B19F22}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{D8C82624-656A-47EE-8246-49712DEB46B7}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{6E1B10DB-484A-43C3-8696-EC6E862B4D4A}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{8A8DD7D9-1F12-4887-B5AA-12E962C2FD48}" name="%Chance" dataDxfId="10" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{8A8DD7D9-1F12-4887-B5AA-12E962C2FD48}" name="%Chance" dataDxfId="11" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378915202[[#This Row],[Rate]]/SUM(Table1378915202[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -851,7 +860,7 @@
     <tableColumn id="1" xr3:uid="{5FC31BA1-4AF3-430A-A419-59C22C2155C5}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{BC88DEB0-09FB-4E75-B113-7CDE256B8E17}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{6C6C351D-AFB0-4A3F-BC2D-CDE5D9A11B25}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{733DAD33-07B1-4A54-BBE0-B3212B512175}" name="%Chance" dataDxfId="9" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{733DAD33-07B1-4A54-BBE0-B3212B512175}" name="%Chance" dataDxfId="10" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -866,7 +875,7 @@
     <tableColumn id="1" xr3:uid="{9C5387E8-4E0B-43FC-BD7B-7307A5B89A6C}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{000E006A-A8FF-4DD8-84CA-E745617C159E}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{89D8EF85-04D9-47B6-81E8-ECDC97E127CD}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{67DA4D60-8692-4B89-85F1-E0CA987870E6}" name="%Chance" dataDxfId="8" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{67DA4D60-8692-4B89-85F1-E0CA987870E6}" name="%Chance" dataDxfId="9" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -881,7 +890,7 @@
     <tableColumn id="1" xr3:uid="{4039683D-C0FB-4D66-BC6D-675C507599A7}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{03A60152-6173-4E33-8950-C35B5FC16A06}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{36A0463A-B432-4BFA-8A69-778F0DEAA5D7}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{FB468FC3-8F5C-492C-974E-7C915391756C}" name="%Chance" dataDxfId="7" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{FB468FC3-8F5C-492C-974E-7C915391756C}" name="%Chance" dataDxfId="8" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913147812[[#This Row],[Rate]]/SUM(Table1378913147812[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -896,7 +905,7 @@
     <tableColumn id="1" xr3:uid="{C7425F1C-2EEC-47EF-8EEA-2729F06AB5D7}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{F68B8B21-141F-4D1E-AE8D-C39F60F40661}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{AE893BD6-A2B4-4341-B14D-732457C70734}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{9BAE9F73-4344-4F6B-B023-47346A450C9A}" name="%Chance" dataDxfId="6" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{9BAE9F73-4344-4F6B-B023-47346A450C9A}" name="%Chance" dataDxfId="7" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913147821[[#This Row],[Rate]]/SUM(Table1378913147821[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -911,7 +920,7 @@
     <tableColumn id="1" xr3:uid="{8A85DF3A-D6E1-47B2-8031-3ED58E50442B}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{A6B2698E-D7F5-4268-ADEE-28368193C73D}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{A8C7BC54-2D72-4EE8-8416-69B0CBFA5C7C}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{6B37498E-D212-4D73-9EA8-5B4204FE2DB6}" name="%Chance" dataDxfId="5" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{6B37498E-D212-4D73-9EA8-5B4204FE2DB6}" name="%Chance" dataDxfId="6" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891314782127[[#This Row],[Rate]]/SUM(Table137891314782127[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -926,8 +935,23 @@
     <tableColumn id="1" xr3:uid="{BFA06CB8-AFDA-477E-8D35-3A0B782861F2}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{0FED4EB3-D389-4101-8A88-ADC5BE7312EE}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{B9E7BE51-E6ED-49F9-9BC0-DC78F235C1A1}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{90B4F952-41ED-4A3F-BA28-4E18C69C9CB2}" name="%Chance" dataDxfId="0" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{90B4F952-41ED-4A3F-BA28-4E18C69C9CB2}" name="%Chance" dataDxfId="5" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789131478212726[[#This Row],[Rate]]/SUM(Table13789131478212726[Rate])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{805D609C-F773-4352-929F-7591DF503E52}" name="Table1378913147821272628" displayName="Table1378913147821272628" ref="K106:N108" totalsRowShown="0">
+  <autoFilter ref="K106:N108" xr:uid="{805D609C-F773-4352-929F-7591DF503E52}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{FD93C367-5371-4629-8715-65AB53B5CCF5}" name="ItemID"/>
+    <tableColumn id="2" xr3:uid="{6B0ECF8E-746B-49A5-9641-829EE054D5E2}" name="Rate"/>
+    <tableColumn id="6" xr3:uid="{DD1AD1BC-2359-4573-B394-7289D8BC48E3}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{C8A311C8-D7DF-4A5E-90FB-58E98FF4E04C}" name="%Chance" dataDxfId="4" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table1378913147821272628[[#This Row],[Rate]]/SUM(Table1378913147821272628[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1564,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FEB0EF-3316-4CF7-BB73-CA3D5C3FEAE1}">
   <dimension ref="C4:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2084,18 +2108,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K6:K27">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",K6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",K6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L27">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",L6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",L6)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2110,10 +2134,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB88C1E5-D251-4818-A177-3044F90F9570}">
-  <dimension ref="B2:X103"/>
+  <dimension ref="B2:X108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="R100" sqref="R100:R101"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="R100" sqref="R100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3283,10 +3307,58 @@
         <v>0.23809523809523808</v>
       </c>
     </row>
+    <row r="105" spans="11:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="K105" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+    </row>
+    <row r="106" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K106" t="s">
+        <v>0</v>
+      </c>
+      <c r="L106" t="s">
+        <v>2</v>
+      </c>
+      <c r="M106" t="s">
+        <v>1</v>
+      </c>
+      <c r="N106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K107" t="s">
+        <v>144</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107" s="4">
+        <f>Table1378913147821272628[[#This Row],[Rate]]/SUM(Table1378913147821272628[Rate])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="108" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K108" t="s">
+        <v>133</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="N108" s="3">
+        <f>Table1378913147821272628[[#This Row],[Rate]]/SUM(Table1378913147821272628[Rate])</f>
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="16">
+  <tableParts count="17">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -3303,6 +3375,7 @@
     <tablePart r:id="rId14"/>
     <tablePart r:id="rId15"/>
     <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
--- a/pack_world_game/design/Packs Items Tables.xlsx
+++ b/pack_world_game/design/Packs Items Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\pack_world\pack_world_game\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC2A204-300C-4CC0-83C6-DEA1C5147BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA837BA5-40DA-4ED1-8F2D-8067797125D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="147">
   <si>
     <t>ItemID</t>
   </si>
@@ -473,6 +473,12 @@
   </si>
   <si>
     <t>TileClam</t>
+  </si>
+  <si>
+    <t>PotionFire</t>
+  </si>
+  <si>
+    <t>Burn through all connected grass, destroying it and creating charcoal.</t>
   </si>
 </sst>
 </file>
@@ -1025,8 +1031,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{708B6843-66CB-49E9-9AE4-D34A26BF374A}" name="Table4" displayName="Table4" ref="D5:E23" totalsRowShown="0">
-  <autoFilter ref="D5:E23" xr:uid="{708B6843-66CB-49E9-9AE4-D34A26BF374A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{708B6843-66CB-49E9-9AE4-D34A26BF374A}" name="Table4" displayName="Table4" ref="D5:E24" totalsRowShown="0">
+  <autoFilter ref="D5:E24" xr:uid="{708B6843-66CB-49E9-9AE4-D34A26BF374A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{39852490-B26C-4425-98C9-6963CD28703C}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{2EAF4B5B-2BB6-4FE7-9972-BAD5406BE8F4}" name="Descriptiopn"/>
@@ -1301,7 +1307,7 @@
   <dimension ref="D4:I44"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+      <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,14 +1595,14 @@
   <dimension ref="C4:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="60.28515625" customWidth="1"/>
+    <col min="5" max="5" width="68" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="64.28515625" customWidth="1"/>
     <col min="10" max="10" width="8.5703125" customWidth="1"/>
@@ -2051,6 +2057,12 @@
       </c>
     </row>
     <row r="24" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" t="s">
+        <v>146</v>
+      </c>
       <c r="H24" t="s">
         <v>121</v>
       </c>

--- a/pack_world_game/design/Packs Items Tables.xlsx
+++ b/pack_world_game/design/Packs Items Tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\pack_world\pack_world_game\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA837BA5-40DA-4ED1-8F2D-8067797125D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C26CD83-E0CA-4BA7-9EB8-E777D2811D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="151">
   <si>
     <t>ItemID</t>
   </si>
@@ -322,9 +322,6 @@
     <t>MudDog</t>
   </si>
   <si>
-    <t>Reduces cooldown of grass tiles. Adds poop to grass tile drop table.</t>
-  </si>
-  <si>
     <t>Frog</t>
   </si>
   <si>
@@ -400,15 +397,9 @@
     <t>MudPig</t>
   </si>
   <si>
-    <t>Roots around and finds potion supplies</t>
-  </si>
-  <si>
     <t>MudFish</t>
   </si>
   <si>
-    <t>Placed in water. Automatically harvests dirt tiles.</t>
-  </si>
-  <si>
     <t>Pearl</t>
   </si>
   <si>
@@ -424,9 +415,6 @@
     <t>Spring</t>
   </si>
   <si>
-    <t>Placed on dirt. Doubles dropes of surrounding soil tiles.</t>
-  </si>
-  <si>
     <t>Mud</t>
   </si>
   <si>
@@ -479,6 +467,30 @@
   </si>
   <si>
     <t>Burn through all connected grass, destroying it and creating charcoal.</t>
+  </si>
+  <si>
+    <t>Crab</t>
+  </si>
+  <si>
+    <t>Automatically harvests anything adjacent to itself on dirt.</t>
+  </si>
+  <si>
+    <t>Placed on dirt. Doubles drops of surrounding soil tiles.</t>
+  </si>
+  <si>
+    <t>MudHenge</t>
+  </si>
+  <si>
+    <t>Gives MudHearts but destroys itself and all adjacent tiles when harvested..</t>
+  </si>
+  <si>
+    <t>Automatically harvests grass tiles. Melts after 2 days.</t>
+  </si>
+  <si>
+    <t>Roots around and finds potion supplies. Melts after 2 days.</t>
+  </si>
+  <si>
+    <t>Placed in water. Automatically gives dirt tiles. Melts after 2 days. Gives double drops if adjacent to mud.</t>
   </si>
 </sst>
 </file>
@@ -555,7 +567,87 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -672,8 +764,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5DD264DE-D047-45F6-A8AA-15A47977664C}" name="Table46" displayName="Table46" ref="H5:M27" totalsRowShown="0">
-  <autoFilter ref="H5:M27" xr:uid="{5DD264DE-D047-45F6-A8AA-15A47977664C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5DD264DE-D047-45F6-A8AA-15A47977664C}" name="Table46" displayName="Table46" ref="H5:M29" totalsRowShown="0">
+  <autoFilter ref="H5:M29" xr:uid="{5DD264DE-D047-45F6-A8AA-15A47977664C}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{997C8B3F-F0E6-4E58-9D23-D135F012BA96}" name="TileID"/>
     <tableColumn id="2" xr3:uid="{C06A2FFF-D8A0-4374-BC0C-74CE8667732D}" name="Descriptiopn"/>
@@ -693,7 +785,7 @@
     <tableColumn id="1" xr3:uid="{5FD88E56-EE50-4E96-AF7E-14BF06E4B5D5}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{45FE54DB-459E-467E-AEFD-A964A6E0ACBE}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{F7B36C6D-249B-4C8F-AD9A-FE1BA8D7EA5F}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{F15086BD-3ABF-42E8-AD67-1A721BE8BDB3}" name="%Chance" dataDxfId="20" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{F15086BD-3ABF-42E8-AD67-1A721BE8BDB3}" name="%Chance" dataDxfId="28" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789[[#This Row],[Rate]]/SUM(Table13789[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -708,7 +800,7 @@
     <tableColumn id="1" xr3:uid="{B45D3A7A-5A1F-44F3-AEE5-F5F07020D270}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{8D0A6B32-E6FD-4FEB-BD6B-C5D482407A4D}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{BFC03E2E-52F7-4DCD-8C1C-A21D751C7908}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{C0196799-3FEE-40C1-A925-239F70EFBC90}" name="%Chance" dataDxfId="19" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{C0196799-3FEE-40C1-A925-239F70EFBC90}" name="%Chance" dataDxfId="27" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913[[#This Row],[Rate]]/SUM(Table1378913[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -723,7 +815,7 @@
     <tableColumn id="1" xr3:uid="{22D67FFD-FBB4-459B-A50A-FD89B7CA47EA}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{ABA1E863-6768-496A-992C-D3ACAA40AD3E}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{21B42FB6-D1C6-45EA-99F9-B424D331BD57}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{5F1A8B4E-B55C-46A2-AA78-2705E90B792F}" name="%Chance" dataDxfId="18" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{5F1A8B4E-B55C-46A2-AA78-2705E90B792F}" name="%Chance" dataDxfId="26" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891314[[#This Row],[Rate]]/SUM(Table137891314[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -741,7 +833,7 @@
     <tableColumn id="1" xr3:uid="{36F17566-CFEC-4201-BC32-CDFBEE168785}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{7FAF1644-E0BB-494D-A054-1BEBE28A02F9}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FA86084E-4629-4BD7-A80C-6229B8D80F65}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{5EBDFC1E-8AA4-45D3-B7A3-F1E8D0317C06}" name="%Chance" dataDxfId="17" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{5EBDFC1E-8AA4-45D3-B7A3-F1E8D0317C06}" name="%Chance" dataDxfId="25" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378915[[#This Row],[Rate]]/SUM(Table1378915[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -759,7 +851,7 @@
     <tableColumn id="1" xr3:uid="{333EBB11-1697-4271-B03A-E6B773563CFE}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{66779ED5-FBDC-43B6-B577-67F38636A1F1}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FA20C3E4-336D-43FD-9C7B-B1827A771EBC}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{80EF7A8F-4364-48E9-88BC-D9BE908A8E81}" name="%Chance" dataDxfId="16" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{80EF7A8F-4364-48E9-88BC-D9BE908A8E81}" name="%Chance" dataDxfId="24" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -774,7 +866,7 @@
     <tableColumn id="1" xr3:uid="{28E027C3-6619-4F6B-B9B5-4E991BEE7169}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{83798236-E790-4DCB-9325-19CBD2933987}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FD652A42-76E9-4A8A-B64F-41F588B57CA0}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{80AE0A84-EBAE-467D-B0FF-B1661CD6F9CA}" name="%Chance" dataDxfId="15" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{80AE0A84-EBAE-467D-B0FF-B1661CD6F9CA}" name="%Chance" dataDxfId="23" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378918[[#This Row],[Rate]]/SUM(Table1378918[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -789,7 +881,7 @@
     <tableColumn id="1" xr3:uid="{5710BAA2-303B-4130-B397-9E88F263AC1A}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{749EB946-237E-4C13-8450-9CB46D681F3D}" name="Rate"/>
     <tableColumn id="7" xr3:uid="{BF90F91A-CFD2-42FC-87F6-1E7A02388275}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{29E82DC4-7FBA-46F8-A388-8832C45E81A7}" name="%Chance" dataDxfId="14" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{29E82DC4-7FBA-46F8-A388-8832C45E81A7}" name="%Chance" dataDxfId="22" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891819[[#This Row],[Rate]]/SUM(Table137891819[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -807,7 +899,7 @@
     <tableColumn id="1" xr3:uid="{DFFD549D-06AC-4FEB-9CAE-81D867FAF7DA}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{5A314CBA-65C8-411D-9F89-C9E413B3C28A}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{A94A88ED-4FF7-4BF3-AAAF-6B7F2860C1FD}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{D8F779D7-C1D3-4D6E-AE28-F4F37BF0FD4C}" name="%Chance" dataDxfId="13" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{D8F779D7-C1D3-4D6E-AE28-F4F37BF0FD4C}" name="%Chance" dataDxfId="21" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891520[[#This Row],[Rate]]/SUM(Table137891520[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -822,7 +914,7 @@
     <tableColumn id="1" xr3:uid="{BE923A95-75C9-4062-BE0B-A80844A43C74}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{8A2B068D-BA52-49A9-8B60-7C7AB68DE7AA}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{96CED9DA-94ED-4108-8E34-6799C464E382}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{B90E081D-90F4-47E6-B8F8-1845ADE3AC33}" name="%Chance" dataDxfId="12" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{B90E081D-90F4-47E6-B8F8-1845ADE3AC33}" name="%Chance" dataDxfId="20" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789181924[[#This Row],[Rate]]/SUM(Table13789181924[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -851,7 +943,7 @@
     <tableColumn id="1" xr3:uid="{381B99D4-DAE9-4E7B-B588-5D9988B19F22}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{D8C82624-656A-47EE-8246-49712DEB46B7}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{6E1B10DB-484A-43C3-8696-EC6E862B4D4A}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{8A8DD7D9-1F12-4887-B5AA-12E962C2FD48}" name="%Chance" dataDxfId="11" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{8A8DD7D9-1F12-4887-B5AA-12E962C2FD48}" name="%Chance" dataDxfId="19" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378915202[[#This Row],[Rate]]/SUM(Table1378915202[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -866,7 +958,7 @@
     <tableColumn id="1" xr3:uid="{5FC31BA1-4AF3-430A-A419-59C22C2155C5}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{BC88DEB0-09FB-4E75-B113-7CDE256B8E17}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{6C6C351D-AFB0-4A3F-BC2D-CDE5D9A11B25}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{733DAD33-07B1-4A54-BBE0-B3212B512175}" name="%Chance" dataDxfId="10" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{733DAD33-07B1-4A54-BBE0-B3212B512175}" name="%Chance" dataDxfId="18" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -881,7 +973,7 @@
     <tableColumn id="1" xr3:uid="{9C5387E8-4E0B-43FC-BD7B-7307A5B89A6C}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{000E006A-A8FF-4DD8-84CA-E745617C159E}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{89D8EF85-04D9-47B6-81E8-ECDC97E127CD}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{67DA4D60-8692-4B89-85F1-E0CA987870E6}" name="%Chance" dataDxfId="9" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{67DA4D60-8692-4B89-85F1-E0CA987870E6}" name="%Chance" dataDxfId="17" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -896,7 +988,7 @@
     <tableColumn id="1" xr3:uid="{4039683D-C0FB-4D66-BC6D-675C507599A7}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{03A60152-6173-4E33-8950-C35B5FC16A06}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{36A0463A-B432-4BFA-8A69-778F0DEAA5D7}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{FB468FC3-8F5C-492C-974E-7C915391756C}" name="%Chance" dataDxfId="8" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{FB468FC3-8F5C-492C-974E-7C915391756C}" name="%Chance" dataDxfId="16" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913147812[[#This Row],[Rate]]/SUM(Table1378913147812[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -911,7 +1003,7 @@
     <tableColumn id="1" xr3:uid="{C7425F1C-2EEC-47EF-8EEA-2729F06AB5D7}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{F68B8B21-141F-4D1E-AE8D-C39F60F40661}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{AE893BD6-A2B4-4341-B14D-732457C70734}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{9BAE9F73-4344-4F6B-B023-47346A450C9A}" name="%Chance" dataDxfId="7" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{9BAE9F73-4344-4F6B-B023-47346A450C9A}" name="%Chance" dataDxfId="15" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913147821[[#This Row],[Rate]]/SUM(Table1378913147821[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -926,7 +1018,7 @@
     <tableColumn id="1" xr3:uid="{8A85DF3A-D6E1-47B2-8031-3ED58E50442B}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{A6B2698E-D7F5-4268-ADEE-28368193C73D}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{A8C7BC54-2D72-4EE8-8416-69B0CBFA5C7C}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{6B37498E-D212-4D73-9EA8-5B4204FE2DB6}" name="%Chance" dataDxfId="6" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{6B37498E-D212-4D73-9EA8-5B4204FE2DB6}" name="%Chance" dataDxfId="14" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891314782127[[#This Row],[Rate]]/SUM(Table137891314782127[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -941,7 +1033,7 @@
     <tableColumn id="1" xr3:uid="{BFA06CB8-AFDA-477E-8D35-3A0B782861F2}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{0FED4EB3-D389-4101-8A88-ADC5BE7312EE}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{B9E7BE51-E6ED-49F9-9BC0-DC78F235C1A1}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{90B4F952-41ED-4A3F-BA28-4E18C69C9CB2}" name="%Chance" dataDxfId="5" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{90B4F952-41ED-4A3F-BA28-4E18C69C9CB2}" name="%Chance" dataDxfId="13" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789131478212726[[#This Row],[Rate]]/SUM(Table13789131478212726[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -956,7 +1048,7 @@
     <tableColumn id="1" xr3:uid="{FD93C367-5371-4629-8715-65AB53B5CCF5}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{6B0ECF8E-746B-49A5-9641-829EE054D5E2}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{DD1AD1BC-2359-4573-B394-7289D8BC48E3}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{C8A311C8-D7DF-4A5E-90FB-58E98FF4E04C}" name="%Chance" dataDxfId="4" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{C8A311C8-D7DF-4A5E-90FB-58E98FF4E04C}" name="%Chance" dataDxfId="12" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913147821272628[[#This Row],[Rate]]/SUM(Table1378913147821272628[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1445,7 +1537,7 @@
     </row>
     <row r="24" spans="6:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F24" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.25">
@@ -1466,7 +1558,7 @@
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -1474,7 +1566,7 @@
     </row>
     <row r="28" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1490,7 +1582,7 @@
     </row>
     <row r="30" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1498,7 +1590,7 @@
     </row>
     <row r="32" spans="6:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F32" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.25">
@@ -1511,7 +1603,7 @@
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1519,7 +1611,7 @@
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1527,7 +1619,7 @@
     </row>
     <row r="37" spans="6:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F37" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="6:7" x14ac:dyDescent="0.25">
@@ -1569,7 +1661,7 @@
     </row>
     <row r="44" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G44">
         <v>10</v>
@@ -1592,10 +1684,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FEB0EF-3316-4CF7-BB73-CA3D5C3FEAE1}">
-  <dimension ref="C4:M27"/>
+  <dimension ref="C4:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,7 +1696,7 @@
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="68" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="64.28515625" customWidth="1"/>
+    <col min="9" max="9" width="95.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5703125" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -1912,10 +2004,10 @@
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" t="s">
         <v>103</v>
-      </c>
-      <c r="E17" t="s">
-        <v>104</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
@@ -1938,16 +2030,16 @@
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" t="s">
         <v>105</v>
-      </c>
-      <c r="E18" t="s">
-        <v>106</v>
       </c>
       <c r="H18" t="s">
         <v>84</v>
       </c>
       <c r="I18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J18" t="s">
         <v>53</v>
@@ -1961,10 +2053,10 @@
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" t="s">
         <v>107</v>
-      </c>
-      <c r="E19" t="s">
-        <v>108</v>
       </c>
       <c r="H19" t="s">
         <v>91</v>
@@ -1984,16 +2076,16 @@
     </row>
     <row r="20" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" t="s">
         <v>109</v>
-      </c>
-      <c r="E20" t="s">
-        <v>110</v>
       </c>
       <c r="H20" t="s">
         <v>93</v>
       </c>
       <c r="I20" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="J20" t="s">
         <v>53</v>
@@ -2007,16 +2099,16 @@
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" t="s">
         <v>111</v>
       </c>
-      <c r="E21" t="s">
-        <v>112</v>
-      </c>
       <c r="H21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J21" t="s">
         <v>53</v>
@@ -2030,52 +2122,52 @@
     </row>
     <row r="22" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H22" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22" t="s">
         <v>117</v>
-      </c>
-      <c r="I22" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="23" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
         <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I23" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E24" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I24" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="4:13" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K25" t="s">
         <v>52</v>
@@ -2086,10 +2178,10 @@
     </row>
     <row r="26" spans="4:13" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I26" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="K26" t="s">
         <v>52</v>
@@ -2100,10 +2192,10 @@
     </row>
     <row r="27" spans="4:13" x14ac:dyDescent="0.25">
       <c r="H27" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I27" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J27" t="s">
         <v>53</v>
@@ -2115,23 +2207,57 @@
         <v>52</v>
       </c>
       <c r="M27" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>143</v>
+      </c>
+      <c r="I28" t="s">
+        <v>144</v>
+      </c>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+      <c r="K28" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>146</v>
+      </c>
+      <c r="I29" t="s">
+        <v>147</v>
+      </c>
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
+      <c r="K29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K6:K27">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Y">
+  <conditionalFormatting sqref="K6:K29">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",K6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",K6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L27">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Y">
+  <conditionalFormatting sqref="L6:L29">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",L6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",L6)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2148,7 +2274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB88C1E5-D251-4818-A177-3044F90F9570}">
   <dimension ref="B2:X108"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
+    <sheetView topLeftCell="A53" workbookViewId="0">
       <selection activeCell="R100" sqref="R100"/>
     </sheetView>
   </sheetViews>
@@ -2673,7 +2799,7 @@
     </row>
     <row r="47" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L47">
         <v>5</v>
@@ -2718,7 +2844,7 @@
     </row>
     <row r="50" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L50">
         <v>0.5</v>
@@ -2733,7 +2859,7 @@
     </row>
     <row r="51" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K51" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L51">
         <v>10</v>
@@ -2748,7 +2874,7 @@
     </row>
     <row r="52" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L52">
         <v>5</v>
@@ -3027,7 +3153,7 @@
     </row>
     <row r="78" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -3111,7 +3237,7 @@
     </row>
     <row r="86" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E86" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -3147,7 +3273,7 @@
     </row>
     <row r="90" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="K90" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
@@ -3183,7 +3309,7 @@
     </row>
     <row r="93" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K93" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L93">
         <v>10</v>
@@ -3198,7 +3324,7 @@
     </row>
     <row r="94" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K94" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L94">
         <v>1</v>
@@ -3213,7 +3339,7 @@
     </row>
     <row r="95" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K95" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L95">
         <v>5</v>
@@ -3225,7 +3351,7 @@
     </row>
     <row r="97" spans="11:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="K97" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
@@ -3246,7 +3372,7 @@
     </row>
     <row r="99" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K99" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L99">
         <v>1</v>
@@ -3261,7 +3387,7 @@
     </row>
     <row r="100" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K100" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L100">
         <v>5</v>
@@ -3276,7 +3402,7 @@
     </row>
     <row r="101" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K101" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L101">
         <v>5</v>
@@ -3291,7 +3417,7 @@
     </row>
     <row r="102" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K102" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L102">
         <v>5</v>
@@ -3306,7 +3432,7 @@
     </row>
     <row r="103" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K103" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L103">
         <v>5</v>
@@ -3321,7 +3447,7 @@
     </row>
     <row r="105" spans="11:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="K105" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
@@ -3342,7 +3468,7 @@
     </row>
     <row r="107" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K107" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L107">
         <v>1</v>
@@ -3357,7 +3483,7 @@
     </row>
     <row r="108" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K108" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L108">
         <v>1</v>

--- a/pack_world_game/design/Packs Items Tables.xlsx
+++ b/pack_world_game/design/Packs Items Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\pack_world\pack_world_game\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C26CD83-E0CA-4BA7-9EB8-E777D2811D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFC9655-230B-4322-A0E7-9FCC20734221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pack Cost" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="152">
   <si>
     <t>ItemID</t>
   </si>
@@ -491,6 +491,9 @@
   </si>
   <si>
     <t>Placed in water. Automatically gives dirt tiles. Melts after 2 days. Gives double drops if adjacent to mud.</t>
+  </si>
+  <si>
+    <t>TileSpring</t>
   </si>
 </sst>
 </file>
@@ -567,87 +570,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -785,7 +708,7 @@
     <tableColumn id="1" xr3:uid="{5FD88E56-EE50-4E96-AF7E-14BF06E4B5D5}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{45FE54DB-459E-467E-AEFD-A964A6E0ACBE}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{F7B36C6D-249B-4C8F-AD9A-FE1BA8D7EA5F}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{F15086BD-3ABF-42E8-AD67-1A721BE8BDB3}" name="%Chance" dataDxfId="28" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{F15086BD-3ABF-42E8-AD67-1A721BE8BDB3}" name="%Chance" dataDxfId="20" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789[[#This Row],[Rate]]/SUM(Table13789[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -800,7 +723,7 @@
     <tableColumn id="1" xr3:uid="{B45D3A7A-5A1F-44F3-AEE5-F5F07020D270}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{8D0A6B32-E6FD-4FEB-BD6B-C5D482407A4D}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{BFC03E2E-52F7-4DCD-8C1C-A21D751C7908}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{C0196799-3FEE-40C1-A925-239F70EFBC90}" name="%Chance" dataDxfId="27" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{C0196799-3FEE-40C1-A925-239F70EFBC90}" name="%Chance" dataDxfId="19" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913[[#This Row],[Rate]]/SUM(Table1378913[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -815,7 +738,7 @@
     <tableColumn id="1" xr3:uid="{22D67FFD-FBB4-459B-A50A-FD89B7CA47EA}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{ABA1E863-6768-496A-992C-D3ACAA40AD3E}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{21B42FB6-D1C6-45EA-99F9-B424D331BD57}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{5F1A8B4E-B55C-46A2-AA78-2705E90B792F}" name="%Chance" dataDxfId="26" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{5F1A8B4E-B55C-46A2-AA78-2705E90B792F}" name="%Chance" dataDxfId="18" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891314[[#This Row],[Rate]]/SUM(Table137891314[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -833,7 +756,7 @@
     <tableColumn id="1" xr3:uid="{36F17566-CFEC-4201-BC32-CDFBEE168785}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{7FAF1644-E0BB-494D-A054-1BEBE28A02F9}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FA86084E-4629-4BD7-A80C-6229B8D80F65}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{5EBDFC1E-8AA4-45D3-B7A3-F1E8D0317C06}" name="%Chance" dataDxfId="25" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{5EBDFC1E-8AA4-45D3-B7A3-F1E8D0317C06}" name="%Chance" dataDxfId="17" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378915[[#This Row],[Rate]]/SUM(Table1378915[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -851,7 +774,7 @@
     <tableColumn id="1" xr3:uid="{333EBB11-1697-4271-B03A-E6B773563CFE}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{66779ED5-FBDC-43B6-B577-67F38636A1F1}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FA20C3E4-336D-43FD-9C7B-B1827A771EBC}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{80EF7A8F-4364-48E9-88BC-D9BE908A8E81}" name="%Chance" dataDxfId="24" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{80EF7A8F-4364-48E9-88BC-D9BE908A8E81}" name="%Chance" dataDxfId="16" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -866,7 +789,7 @@
     <tableColumn id="1" xr3:uid="{28E027C3-6619-4F6B-B9B5-4E991BEE7169}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{83798236-E790-4DCB-9325-19CBD2933987}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FD652A42-76E9-4A8A-B64F-41F588B57CA0}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{80AE0A84-EBAE-467D-B0FF-B1661CD6F9CA}" name="%Chance" dataDxfId="23" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{80AE0A84-EBAE-467D-B0FF-B1661CD6F9CA}" name="%Chance" dataDxfId="15" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378918[[#This Row],[Rate]]/SUM(Table1378918[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -881,7 +804,7 @@
     <tableColumn id="1" xr3:uid="{5710BAA2-303B-4130-B397-9E88F263AC1A}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{749EB946-237E-4C13-8450-9CB46D681F3D}" name="Rate"/>
     <tableColumn id="7" xr3:uid="{BF90F91A-CFD2-42FC-87F6-1E7A02388275}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{29E82DC4-7FBA-46F8-A388-8832C45E81A7}" name="%Chance" dataDxfId="22" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{29E82DC4-7FBA-46F8-A388-8832C45E81A7}" name="%Chance" dataDxfId="14" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891819[[#This Row],[Rate]]/SUM(Table137891819[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -899,7 +822,7 @@
     <tableColumn id="1" xr3:uid="{DFFD549D-06AC-4FEB-9CAE-81D867FAF7DA}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{5A314CBA-65C8-411D-9F89-C9E413B3C28A}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{A94A88ED-4FF7-4BF3-AAAF-6B7F2860C1FD}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{D8F779D7-C1D3-4D6E-AE28-F4F37BF0FD4C}" name="%Chance" dataDxfId="21" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{D8F779D7-C1D3-4D6E-AE28-F4F37BF0FD4C}" name="%Chance" dataDxfId="13" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891520[[#This Row],[Rate]]/SUM(Table137891520[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -914,7 +837,7 @@
     <tableColumn id="1" xr3:uid="{BE923A95-75C9-4062-BE0B-A80844A43C74}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{8A2B068D-BA52-49A9-8B60-7C7AB68DE7AA}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{96CED9DA-94ED-4108-8E34-6799C464E382}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{B90E081D-90F4-47E6-B8F8-1845ADE3AC33}" name="%Chance" dataDxfId="20" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{B90E081D-90F4-47E6-B8F8-1845ADE3AC33}" name="%Chance" dataDxfId="12" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789181924[[#This Row],[Rate]]/SUM(Table13789181924[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -943,7 +866,7 @@
     <tableColumn id="1" xr3:uid="{381B99D4-DAE9-4E7B-B588-5D9988B19F22}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{D8C82624-656A-47EE-8246-49712DEB46B7}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{6E1B10DB-484A-43C3-8696-EC6E862B4D4A}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{8A8DD7D9-1F12-4887-B5AA-12E962C2FD48}" name="%Chance" dataDxfId="19" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{8A8DD7D9-1F12-4887-B5AA-12E962C2FD48}" name="%Chance" dataDxfId="11" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378915202[[#This Row],[Rate]]/SUM(Table1378915202[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -958,7 +881,7 @@
     <tableColumn id="1" xr3:uid="{5FC31BA1-4AF3-430A-A419-59C22C2155C5}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{BC88DEB0-09FB-4E75-B113-7CDE256B8E17}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{6C6C351D-AFB0-4A3F-BC2D-CDE5D9A11B25}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{733DAD33-07B1-4A54-BBE0-B3212B512175}" name="%Chance" dataDxfId="18" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{733DAD33-07B1-4A54-BBE0-B3212B512175}" name="%Chance" dataDxfId="10" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -973,7 +896,7 @@
     <tableColumn id="1" xr3:uid="{9C5387E8-4E0B-43FC-BD7B-7307A5B89A6C}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{000E006A-A8FF-4DD8-84CA-E745617C159E}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{89D8EF85-04D9-47B6-81E8-ECDC97E127CD}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{67DA4D60-8692-4B89-85F1-E0CA987870E6}" name="%Chance" dataDxfId="17" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{67DA4D60-8692-4B89-85F1-E0CA987870E6}" name="%Chance" dataDxfId="9" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -988,7 +911,7 @@
     <tableColumn id="1" xr3:uid="{4039683D-C0FB-4D66-BC6D-675C507599A7}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{03A60152-6173-4E33-8950-C35B5FC16A06}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{36A0463A-B432-4BFA-8A69-778F0DEAA5D7}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{FB468FC3-8F5C-492C-974E-7C915391756C}" name="%Chance" dataDxfId="16" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{FB468FC3-8F5C-492C-974E-7C915391756C}" name="%Chance" dataDxfId="8" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913147812[[#This Row],[Rate]]/SUM(Table1378913147812[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1003,7 +926,7 @@
     <tableColumn id="1" xr3:uid="{C7425F1C-2EEC-47EF-8EEA-2729F06AB5D7}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{F68B8B21-141F-4D1E-AE8D-C39F60F40661}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{AE893BD6-A2B4-4341-B14D-732457C70734}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{9BAE9F73-4344-4F6B-B023-47346A450C9A}" name="%Chance" dataDxfId="15" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{9BAE9F73-4344-4F6B-B023-47346A450C9A}" name="%Chance" dataDxfId="7" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913147821[[#This Row],[Rate]]/SUM(Table1378913147821[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1018,7 +941,7 @@
     <tableColumn id="1" xr3:uid="{8A85DF3A-D6E1-47B2-8031-3ED58E50442B}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{A6B2698E-D7F5-4268-ADEE-28368193C73D}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{A8C7BC54-2D72-4EE8-8416-69B0CBFA5C7C}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{6B37498E-D212-4D73-9EA8-5B4204FE2DB6}" name="%Chance" dataDxfId="14" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{6B37498E-D212-4D73-9EA8-5B4204FE2DB6}" name="%Chance" dataDxfId="6" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891314782127[[#This Row],[Rate]]/SUM(Table137891314782127[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1033,7 +956,7 @@
     <tableColumn id="1" xr3:uid="{BFA06CB8-AFDA-477E-8D35-3A0B782861F2}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{0FED4EB3-D389-4101-8A88-ADC5BE7312EE}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{B9E7BE51-E6ED-49F9-9BC0-DC78F235C1A1}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{90B4F952-41ED-4A3F-BA28-4E18C69C9CB2}" name="%Chance" dataDxfId="13" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{90B4F952-41ED-4A3F-BA28-4E18C69C9CB2}" name="%Chance" dataDxfId="5" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789131478212726[[#This Row],[Rate]]/SUM(Table13789131478212726[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1042,13 +965,13 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{805D609C-F773-4352-929F-7591DF503E52}" name="Table1378913147821272628" displayName="Table1378913147821272628" ref="K106:N108" totalsRowShown="0">
-  <autoFilter ref="K106:N108" xr:uid="{805D609C-F773-4352-929F-7591DF503E52}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{805D609C-F773-4352-929F-7591DF503E52}" name="Table1378913147821272628" displayName="Table1378913147821272628" ref="K106:N110" totalsRowShown="0">
+  <autoFilter ref="K106:N110" xr:uid="{805D609C-F773-4352-929F-7591DF503E52}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{FD93C367-5371-4629-8715-65AB53B5CCF5}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{6B0ECF8E-746B-49A5-9641-829EE054D5E2}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{DD1AD1BC-2359-4573-B394-7289D8BC48E3}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{C8A311C8-D7DF-4A5E-90FB-58E98FF4E04C}" name="%Chance" dataDxfId="12" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{C8A311C8-D7DF-4A5E-90FB-58E98FF4E04C}" name="%Chance" dataDxfId="4" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913147821272628[[#This Row],[Rate]]/SUM(Table1378913147821272628[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1686,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FEB0EF-3316-4CF7-BB73-CA3D5C3FEAE1}">
   <dimension ref="C4:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26:M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,18 +2169,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K6:K29">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",K6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",K6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L29">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",L6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",L6)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2272,10 +2195,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB88C1E5-D251-4818-A177-3044F90F9570}">
-  <dimension ref="B2:X108"/>
+  <dimension ref="B2:X110"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="R100" sqref="R100"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="R93" sqref="R93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3478,7 +3401,7 @@
       </c>
       <c r="N107" s="4">
         <f>Table1378913147821272628[[#This Row],[Rate]]/SUM(Table1378913147821272628[Rate])</f>
-        <v>0.5</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="108" spans="11:14" x14ac:dyDescent="0.25">
@@ -3486,11 +3409,44 @@
         <v>129</v>
       </c>
       <c r="L108">
+        <v>3</v>
+      </c>
+      <c r="M108">
         <v>1</v>
       </c>
       <c r="N108" s="3">
         <f>Table1378913147821272628[[#This Row],[Rate]]/SUM(Table1378913147821272628[Rate])</f>
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="109" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K109" t="s">
+        <v>151</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109" s="3">
+        <f>Table1378913147821272628[[#This Row],[Rate]]/SUM(Table1378913147821272628[Rate])</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="110" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K110" t="s">
+        <v>79</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110" s="3">
+        <f>Table1378913147821272628[[#This Row],[Rate]]/SUM(Table1378913147821272628[Rate])</f>
+        <v>0.16666666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/pack_world_game/design/Packs Items Tables.xlsx
+++ b/pack_world_game/design/Packs Items Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\pack_world\pack_world_game\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFC9655-230B-4322-A0E7-9FCC20734221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1E2C03-4E89-4E47-A1B4-8489F986037C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2197,8 +2197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB88C1E5-D251-4818-A177-3044F90F9570}">
   <dimension ref="B2:X110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="R93" sqref="R93"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/pack_world_game/design/Packs Items Tables.xlsx
+++ b/pack_world_game/design/Packs Items Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\pack_world\pack_world_game\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1E2C03-4E89-4E47-A1B4-8489F986037C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6F761C-3971-491F-9D38-44CED439CECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pack Cost" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="152">
   <si>
     <t>ItemID</t>
   </si>
@@ -421,12 +421,6 @@
     <t>MorningDew</t>
   </si>
   <si>
-    <t>MudCave</t>
-  </si>
-  <si>
-    <t>Slowly produces mud babies.</t>
-  </si>
-  <si>
     <t>TileWater</t>
   </si>
   <si>
@@ -472,9 +466,6 @@
     <t>Crab</t>
   </si>
   <si>
-    <t>Automatically harvests anything adjacent to itself on dirt.</t>
-  </si>
-  <si>
     <t>Placed on dirt. Doubles drops of surrounding soil tiles.</t>
   </si>
   <si>
@@ -494,6 +485,15 @@
   </si>
   <si>
     <t>TileSpring</t>
+  </si>
+  <si>
+    <t>Automatically harvests anything adjacent to itself.</t>
+  </si>
+  <si>
+    <t>Kelp</t>
+  </si>
+  <si>
+    <t>Does nothing but gives home for sea creatures.</t>
   </si>
 </sst>
 </file>
@@ -1609,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FEB0EF-3316-4CF7-BB73-CA3D5C3FEAE1}">
   <dimension ref="C4:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26:M26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2008,7 +2008,7 @@
         <v>93</v>
       </c>
       <c r="I20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J20" t="s">
         <v>53</v>
@@ -2068,26 +2068,26 @@
         <v>118</v>
       </c>
       <c r="I23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H24" t="s">
         <v>119</v>
       </c>
       <c r="I24" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="4:13" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I25" t="s">
         <v>123</v>
@@ -2104,7 +2104,7 @@
         <v>124</v>
       </c>
       <c r="I26" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K26" t="s">
         <v>52</v>
@@ -2115,10 +2115,10 @@
     </row>
     <row r="27" spans="4:13" x14ac:dyDescent="0.25">
       <c r="H27" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="I27" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="J27" t="s">
         <v>53</v>
@@ -2127,10 +2127,7 @@
         <v>52</v>
       </c>
       <c r="L27" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.25">
@@ -2144,44 +2141,33 @@
         <v>53</v>
       </c>
       <c r="K28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" t="s">
         <v>52</v>
-      </c>
-      <c r="L28" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I29" t="s">
-        <v>147</v>
-      </c>
-      <c r="J29" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="K29" t="s">
+        <v>52</v>
+      </c>
+      <c r="L29" t="s">
         <v>20</v>
       </c>
-      <c r="L29" t="s">
-        <v>52</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K6:K29">
+  <conditionalFormatting sqref="K6:L29">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",K6)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",K6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L29">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",L6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="N">
-      <formula>NOT(ISERROR(SEARCH("N",L6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2197,8 +2183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB88C1E5-D251-4818-A177-3044F90F9570}">
   <dimension ref="B2:X110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2782,7 +2768,7 @@
     </row>
     <row r="51" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K51" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L51">
         <v>10</v>
@@ -3196,7 +3182,7 @@
     </row>
     <row r="90" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="K90" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
@@ -3232,7 +3218,7 @@
     </row>
     <row r="93" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K93" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L93">
         <v>10</v>
@@ -3247,7 +3233,7 @@
     </row>
     <row r="94" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K94" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L94">
         <v>1</v>
@@ -3262,7 +3248,7 @@
     </row>
     <row r="95" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K95" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L95">
         <v>5</v>
@@ -3274,7 +3260,7 @@
     </row>
     <row r="97" spans="11:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="K97" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
@@ -3295,7 +3281,7 @@
     </row>
     <row r="99" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K99" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L99">
         <v>1</v>
@@ -3310,7 +3296,7 @@
     </row>
     <row r="100" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K100" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L100">
         <v>5</v>
@@ -3325,7 +3311,7 @@
     </row>
     <row r="101" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K101" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L101">
         <v>5</v>
@@ -3340,7 +3326,7 @@
     </row>
     <row r="102" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K102" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L102">
         <v>5</v>
@@ -3355,7 +3341,7 @@
     </row>
     <row r="103" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K103" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L103">
         <v>5</v>
@@ -3370,7 +3356,7 @@
     </row>
     <row r="105" spans="11:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="K105" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
@@ -3391,7 +3377,7 @@
     </row>
     <row r="107" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K107" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L107">
         <v>1</v>
@@ -3406,7 +3392,7 @@
     </row>
     <row r="108" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K108" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L108">
         <v>3</v>
@@ -3421,7 +3407,7 @@
     </row>
     <row r="109" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K109" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L109">
         <v>1</v>

--- a/pack_world_game/design/Packs Items Tables.xlsx
+++ b/pack_world_game/design/Packs Items Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\pack_world\pack_world_game\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6F761C-3971-491F-9D38-44CED439CECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06660675-62C7-4CAD-AEAB-5FA3DDFD61C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pack Cost" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="153">
   <si>
     <t>ItemID</t>
   </si>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t>Does nothing but gives home for sea creatures.</t>
+  </si>
+  <si>
+    <t>TileKelp</t>
   </si>
 </sst>
 </file>
@@ -965,8 +968,8 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{805D609C-F773-4352-929F-7591DF503E52}" name="Table1378913147821272628" displayName="Table1378913147821272628" ref="K106:N110" totalsRowShown="0">
-  <autoFilter ref="K106:N110" xr:uid="{805D609C-F773-4352-929F-7591DF503E52}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{805D609C-F773-4352-929F-7591DF503E52}" name="Table1378913147821272628" displayName="Table1378913147821272628" ref="K106:N111" totalsRowShown="0">
+  <autoFilter ref="K106:N111" xr:uid="{805D609C-F773-4352-929F-7591DF503E52}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{FD93C367-5371-4629-8715-65AB53B5CCF5}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{6B0ECF8E-746B-49A5-9641-829EE054D5E2}" name="Rate"/>
@@ -1609,7 +1612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FEB0EF-3316-4CF7-BB73-CA3D5C3FEAE1}">
   <dimension ref="C4:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
@@ -2181,10 +2184,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB88C1E5-D251-4818-A177-3044F90F9570}">
-  <dimension ref="B2:X110"/>
+  <dimension ref="B2:X111"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="N111" sqref="N111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3387,7 +3390,7 @@
       </c>
       <c r="N107" s="4">
         <f>Table1378913147821272628[[#This Row],[Rate]]/SUM(Table1378913147821272628[Rate])</f>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="108" spans="11:14" x14ac:dyDescent="0.25">
@@ -3402,7 +3405,7 @@
       </c>
       <c r="N108" s="3">
         <f>Table1378913147821272628[[#This Row],[Rate]]/SUM(Table1378913147821272628[Rate])</f>
-        <v>0.5</v>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="109" spans="11:14" x14ac:dyDescent="0.25">
@@ -3417,7 +3420,7 @@
       </c>
       <c r="N109" s="3">
         <f>Table1378913147821272628[[#This Row],[Rate]]/SUM(Table1378913147821272628[Rate])</f>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="110" spans="11:14" x14ac:dyDescent="0.25">
@@ -3432,7 +3435,22 @@
       </c>
       <c r="N110" s="3">
         <f>Table1378913147821272628[[#This Row],[Rate]]/SUM(Table1378913147821272628[Rate])</f>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="111" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K111" t="s">
+        <v>152</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111" s="3">
+        <f>Table1378913147821272628[[#This Row],[Rate]]/SUM(Table1378913147821272628[Rate])</f>
+        <v>0.14285714285714285</v>
       </c>
     </row>
   </sheetData>

--- a/pack_world_game/design/Packs Items Tables.xlsx
+++ b/pack_world_game/design/Packs Items Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\pack_world\pack_world_game\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06660675-62C7-4CAD-AEAB-5FA3DDFD61C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A173B6-46CC-4E46-B8E3-0621A633A7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pack Cost" sheetId="6" r:id="rId1"/>
@@ -316,9 +316,6 @@
     <t>Goblin</t>
   </si>
   <si>
-    <t>Placed on caves. Doubles the amount of gold dropped.</t>
-  </si>
-  <si>
     <t>MudDog</t>
   </si>
   <si>
@@ -475,9 +472,6 @@
     <t>Gives MudHearts but destroys itself and all adjacent tiles when harvested..</t>
   </si>
   <si>
-    <t>Automatically harvests grass tiles. Melts after 2 days.</t>
-  </si>
-  <si>
     <t>Roots around and finds potion supplies. Melts after 2 days.</t>
   </si>
   <si>
@@ -497,6 +491,12 @@
   </si>
   <si>
     <t>TileKelp</t>
+  </si>
+  <si>
+    <t>Automatically harvests tiles in an area. Melts after 2 days.</t>
+  </si>
+  <si>
+    <t>Placed on caves. Doubles the amount dropped.</t>
   </si>
 </sst>
 </file>
@@ -573,27 +573,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -711,7 +691,7 @@
     <tableColumn id="1" xr3:uid="{5FD88E56-EE50-4E96-AF7E-14BF06E4B5D5}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{45FE54DB-459E-467E-AEFD-A964A6E0ACBE}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{F7B36C6D-249B-4C8F-AD9A-FE1BA8D7EA5F}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{F15086BD-3ABF-42E8-AD67-1A721BE8BDB3}" name="%Chance" dataDxfId="20" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{F15086BD-3ABF-42E8-AD67-1A721BE8BDB3}" name="%Chance" dataDxfId="18" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789[[#This Row],[Rate]]/SUM(Table13789[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -726,7 +706,7 @@
     <tableColumn id="1" xr3:uid="{B45D3A7A-5A1F-44F3-AEE5-F5F07020D270}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{8D0A6B32-E6FD-4FEB-BD6B-C5D482407A4D}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{BFC03E2E-52F7-4DCD-8C1C-A21D751C7908}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{C0196799-3FEE-40C1-A925-239F70EFBC90}" name="%Chance" dataDxfId="19" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{C0196799-3FEE-40C1-A925-239F70EFBC90}" name="%Chance" dataDxfId="17" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913[[#This Row],[Rate]]/SUM(Table1378913[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -741,7 +721,7 @@
     <tableColumn id="1" xr3:uid="{22D67FFD-FBB4-459B-A50A-FD89B7CA47EA}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{ABA1E863-6768-496A-992C-D3ACAA40AD3E}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{21B42FB6-D1C6-45EA-99F9-B424D331BD57}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{5F1A8B4E-B55C-46A2-AA78-2705E90B792F}" name="%Chance" dataDxfId="18" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{5F1A8B4E-B55C-46A2-AA78-2705E90B792F}" name="%Chance" dataDxfId="16" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891314[[#This Row],[Rate]]/SUM(Table137891314[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -759,7 +739,7 @@
     <tableColumn id="1" xr3:uid="{36F17566-CFEC-4201-BC32-CDFBEE168785}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{7FAF1644-E0BB-494D-A054-1BEBE28A02F9}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FA86084E-4629-4BD7-A80C-6229B8D80F65}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{5EBDFC1E-8AA4-45D3-B7A3-F1E8D0317C06}" name="%Chance" dataDxfId="17" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{5EBDFC1E-8AA4-45D3-B7A3-F1E8D0317C06}" name="%Chance" dataDxfId="15" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378915[[#This Row],[Rate]]/SUM(Table1378915[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -777,7 +757,7 @@
     <tableColumn id="1" xr3:uid="{333EBB11-1697-4271-B03A-E6B773563CFE}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{66779ED5-FBDC-43B6-B577-67F38636A1F1}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FA20C3E4-336D-43FD-9C7B-B1827A771EBC}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{80EF7A8F-4364-48E9-88BC-D9BE908A8E81}" name="%Chance" dataDxfId="16" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{80EF7A8F-4364-48E9-88BC-D9BE908A8E81}" name="%Chance" dataDxfId="14" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -792,7 +772,7 @@
     <tableColumn id="1" xr3:uid="{28E027C3-6619-4F6B-B9B5-4E991BEE7169}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{83798236-E790-4DCB-9325-19CBD2933987}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FD652A42-76E9-4A8A-B64F-41F588B57CA0}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{80AE0A84-EBAE-467D-B0FF-B1661CD6F9CA}" name="%Chance" dataDxfId="15" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{80AE0A84-EBAE-467D-B0FF-B1661CD6F9CA}" name="%Chance" dataDxfId="13" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378918[[#This Row],[Rate]]/SUM(Table1378918[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -807,7 +787,7 @@
     <tableColumn id="1" xr3:uid="{5710BAA2-303B-4130-B397-9E88F263AC1A}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{749EB946-237E-4C13-8450-9CB46D681F3D}" name="Rate"/>
     <tableColumn id="7" xr3:uid="{BF90F91A-CFD2-42FC-87F6-1E7A02388275}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{29E82DC4-7FBA-46F8-A388-8832C45E81A7}" name="%Chance" dataDxfId="14" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{29E82DC4-7FBA-46F8-A388-8832C45E81A7}" name="%Chance" dataDxfId="12" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891819[[#This Row],[Rate]]/SUM(Table137891819[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -825,7 +805,7 @@
     <tableColumn id="1" xr3:uid="{DFFD549D-06AC-4FEB-9CAE-81D867FAF7DA}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{5A314CBA-65C8-411D-9F89-C9E413B3C28A}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{A94A88ED-4FF7-4BF3-AAAF-6B7F2860C1FD}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{D8F779D7-C1D3-4D6E-AE28-F4F37BF0FD4C}" name="%Chance" dataDxfId="13" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{D8F779D7-C1D3-4D6E-AE28-F4F37BF0FD4C}" name="%Chance" dataDxfId="11" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891520[[#This Row],[Rate]]/SUM(Table137891520[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -840,7 +820,7 @@
     <tableColumn id="1" xr3:uid="{BE923A95-75C9-4062-BE0B-A80844A43C74}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{8A2B068D-BA52-49A9-8B60-7C7AB68DE7AA}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{96CED9DA-94ED-4108-8E34-6799C464E382}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{B90E081D-90F4-47E6-B8F8-1845ADE3AC33}" name="%Chance" dataDxfId="12" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{B90E081D-90F4-47E6-B8F8-1845ADE3AC33}" name="%Chance" dataDxfId="10" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789181924[[#This Row],[Rate]]/SUM(Table13789181924[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -869,7 +849,7 @@
     <tableColumn id="1" xr3:uid="{381B99D4-DAE9-4E7B-B588-5D9988B19F22}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{D8C82624-656A-47EE-8246-49712DEB46B7}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{6E1B10DB-484A-43C3-8696-EC6E862B4D4A}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{8A8DD7D9-1F12-4887-B5AA-12E962C2FD48}" name="%Chance" dataDxfId="11" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{8A8DD7D9-1F12-4887-B5AA-12E962C2FD48}" name="%Chance" dataDxfId="9" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378915202[[#This Row],[Rate]]/SUM(Table1378915202[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -884,7 +864,7 @@
     <tableColumn id="1" xr3:uid="{5FC31BA1-4AF3-430A-A419-59C22C2155C5}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{BC88DEB0-09FB-4E75-B113-7CDE256B8E17}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{6C6C351D-AFB0-4A3F-BC2D-CDE5D9A11B25}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{733DAD33-07B1-4A54-BBE0-B3212B512175}" name="%Chance" dataDxfId="10" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{733DAD33-07B1-4A54-BBE0-B3212B512175}" name="%Chance" dataDxfId="8" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -899,7 +879,7 @@
     <tableColumn id="1" xr3:uid="{9C5387E8-4E0B-43FC-BD7B-7307A5B89A6C}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{000E006A-A8FF-4DD8-84CA-E745617C159E}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{89D8EF85-04D9-47B6-81E8-ECDC97E127CD}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{67DA4D60-8692-4B89-85F1-E0CA987870E6}" name="%Chance" dataDxfId="9" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{67DA4D60-8692-4B89-85F1-E0CA987870E6}" name="%Chance" dataDxfId="7" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -914,7 +894,7 @@
     <tableColumn id="1" xr3:uid="{4039683D-C0FB-4D66-BC6D-675C507599A7}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{03A60152-6173-4E33-8950-C35B5FC16A06}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{36A0463A-B432-4BFA-8A69-778F0DEAA5D7}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{FB468FC3-8F5C-492C-974E-7C915391756C}" name="%Chance" dataDxfId="8" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{FB468FC3-8F5C-492C-974E-7C915391756C}" name="%Chance" dataDxfId="6" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913147812[[#This Row],[Rate]]/SUM(Table1378913147812[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -929,7 +909,7 @@
     <tableColumn id="1" xr3:uid="{C7425F1C-2EEC-47EF-8EEA-2729F06AB5D7}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{F68B8B21-141F-4D1E-AE8D-C39F60F40661}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{AE893BD6-A2B4-4341-B14D-732457C70734}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{9BAE9F73-4344-4F6B-B023-47346A450C9A}" name="%Chance" dataDxfId="7" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{9BAE9F73-4344-4F6B-B023-47346A450C9A}" name="%Chance" dataDxfId="5" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913147821[[#This Row],[Rate]]/SUM(Table1378913147821[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -944,7 +924,7 @@
     <tableColumn id="1" xr3:uid="{8A85DF3A-D6E1-47B2-8031-3ED58E50442B}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{A6B2698E-D7F5-4268-ADEE-28368193C73D}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{A8C7BC54-2D72-4EE8-8416-69B0CBFA5C7C}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{6B37498E-D212-4D73-9EA8-5B4204FE2DB6}" name="%Chance" dataDxfId="6" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{6B37498E-D212-4D73-9EA8-5B4204FE2DB6}" name="%Chance" dataDxfId="4" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891314782127[[#This Row],[Rate]]/SUM(Table137891314782127[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -959,7 +939,7 @@
     <tableColumn id="1" xr3:uid="{BFA06CB8-AFDA-477E-8D35-3A0B782861F2}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{0FED4EB3-D389-4101-8A88-ADC5BE7312EE}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{B9E7BE51-E6ED-49F9-9BC0-DC78F235C1A1}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{90B4F952-41ED-4A3F-BA28-4E18C69C9CB2}" name="%Chance" dataDxfId="5" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{90B4F952-41ED-4A3F-BA28-4E18C69C9CB2}" name="%Chance" dataDxfId="3" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789131478212726[[#This Row],[Rate]]/SUM(Table13789131478212726[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -974,7 +954,7 @@
     <tableColumn id="1" xr3:uid="{FD93C367-5371-4629-8715-65AB53B5CCF5}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{6B0ECF8E-746B-49A5-9641-829EE054D5E2}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{DD1AD1BC-2359-4573-B394-7289D8BC48E3}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{C8A311C8-D7DF-4A5E-90FB-58E98FF4E04C}" name="%Chance" dataDxfId="4" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{C8A311C8-D7DF-4A5E-90FB-58E98FF4E04C}" name="%Chance" dataDxfId="2" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913147821272628[[#This Row],[Rate]]/SUM(Table1378913147821272628[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1463,7 +1443,7 @@
     </row>
     <row r="24" spans="6:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F24" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.25">
@@ -1484,7 +1464,7 @@
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -1492,7 +1472,7 @@
     </row>
     <row r="28" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1508,7 +1488,7 @@
     </row>
     <row r="30" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1516,7 +1496,7 @@
     </row>
     <row r="32" spans="6:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F32" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.25">
@@ -1529,7 +1509,7 @@
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1537,7 +1517,7 @@
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1545,7 +1525,7 @@
     </row>
     <row r="37" spans="6:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F37" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="6:7" x14ac:dyDescent="0.25">
@@ -1587,7 +1567,7 @@
     </row>
     <row r="44" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G44">
         <v>10</v>
@@ -1612,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FEB0EF-3316-4CF7-BB73-CA3D5C3FEAE1}">
   <dimension ref="C4:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1930,10 +1910,10 @@
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" t="s">
         <v>102</v>
-      </c>
-      <c r="E17" t="s">
-        <v>103</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
@@ -1956,16 +1936,16 @@
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" t="s">
         <v>104</v>
-      </c>
-      <c r="E18" t="s">
-        <v>105</v>
       </c>
       <c r="H18" t="s">
         <v>84</v>
       </c>
       <c r="I18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J18" t="s">
         <v>53</v>
@@ -1979,16 +1959,16 @@
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" t="s">
         <v>106</v>
-      </c>
-      <c r="E19" t="s">
-        <v>107</v>
       </c>
       <c r="H19" t="s">
         <v>91</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="J19" t="s">
         <v>53</v>
@@ -2002,16 +1982,16 @@
     </row>
     <row r="20" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" t="s">
         <v>108</v>
       </c>
-      <c r="E20" t="s">
-        <v>109</v>
-      </c>
       <c r="H20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I20" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="J20" t="s">
         <v>53</v>
@@ -2025,16 +2005,16 @@
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" t="s">
         <v>110</v>
       </c>
-      <c r="E21" t="s">
-        <v>111</v>
-      </c>
       <c r="H21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J21" t="s">
         <v>53</v>
@@ -2048,52 +2028,52 @@
     </row>
     <row r="22" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" t="s">
         <v>121</v>
       </c>
-      <c r="E22" t="s">
-        <v>122</v>
-      </c>
       <c r="H22" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" t="s">
         <v>116</v>
-      </c>
-      <c r="I22" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="23" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E23" t="s">
         <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" t="s">
         <v>139</v>
       </c>
-      <c r="E24" t="s">
-        <v>140</v>
-      </c>
       <c r="H24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="4:13" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K25" t="s">
         <v>52</v>
@@ -2104,10 +2084,10 @@
     </row>
     <row r="26" spans="4:13" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K26" t="s">
         <v>52</v>
@@ -2118,10 +2098,10 @@
     </row>
     <row r="27" spans="4:13" x14ac:dyDescent="0.25">
       <c r="H27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J27" t="s">
         <v>53</v>
@@ -2135,10 +2115,10 @@
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
+        <v>142</v>
+      </c>
+      <c r="I28" t="s">
         <v>143</v>
-      </c>
-      <c r="I28" t="s">
-        <v>144</v>
       </c>
       <c r="J28" t="s">
         <v>53</v>
@@ -2152,10 +2132,10 @@
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I29" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K29" t="s">
         <v>52</v>
@@ -2166,10 +2146,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K6:L29">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",K6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",K6)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2186,7 +2166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB88C1E5-D251-4818-A177-3044F90F9570}">
   <dimension ref="B2:X111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+    <sheetView topLeftCell="A74" workbookViewId="0">
       <selection activeCell="N111" sqref="N111"/>
     </sheetView>
   </sheetViews>
@@ -2711,7 +2691,7 @@
     </row>
     <row r="47" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L47">
         <v>5</v>
@@ -2756,7 +2736,7 @@
     </row>
     <row r="50" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L50">
         <v>0.5</v>
@@ -2771,7 +2751,7 @@
     </row>
     <row r="51" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L51">
         <v>10</v>
@@ -2786,7 +2766,7 @@
     </row>
     <row r="52" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L52">
         <v>5</v>
@@ -3065,7 +3045,7 @@
     </row>
     <row r="78" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -3149,7 +3129,7 @@
     </row>
     <row r="86" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E86" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -3185,7 +3165,7 @@
     </row>
     <row r="90" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="K90" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
@@ -3221,7 +3201,7 @@
     </row>
     <row r="93" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K93" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L93">
         <v>10</v>
@@ -3236,7 +3216,7 @@
     </row>
     <row r="94" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K94" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L94">
         <v>1</v>
@@ -3251,7 +3231,7 @@
     </row>
     <row r="95" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K95" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L95">
         <v>5</v>
@@ -3263,7 +3243,7 @@
     </row>
     <row r="97" spans="11:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="K97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
@@ -3284,7 +3264,7 @@
     </row>
     <row r="99" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K99" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L99">
         <v>1</v>
@@ -3299,7 +3279,7 @@
     </row>
     <row r="100" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K100" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L100">
         <v>5</v>
@@ -3314,7 +3294,7 @@
     </row>
     <row r="101" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K101" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L101">
         <v>5</v>
@@ -3329,7 +3309,7 @@
     </row>
     <row r="102" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K102" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L102">
         <v>5</v>
@@ -3344,7 +3324,7 @@
     </row>
     <row r="103" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K103" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L103">
         <v>5</v>
@@ -3359,7 +3339,7 @@
     </row>
     <row r="105" spans="11:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="K105" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
@@ -3380,7 +3360,7 @@
     </row>
     <row r="107" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K107" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L107">
         <v>1</v>
@@ -3395,7 +3375,7 @@
     </row>
     <row r="108" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K108" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L108">
         <v>3</v>
@@ -3410,7 +3390,7 @@
     </row>
     <row r="109" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K109" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L109">
         <v>1</v>
@@ -3440,7 +3420,7 @@
     </row>
     <row r="111" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K111" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L111">
         <v>1</v>

--- a/pack_world_game/design/Packs Items Tables.xlsx
+++ b/pack_world_game/design/Packs Items Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\pack_world\pack_world_game\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A173B6-46CC-4E46-B8E3-0621A633A7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B1651E-D305-41D4-A3BE-8228BB79F314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pack Cost" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="155">
   <si>
     <t>ItemID</t>
   </si>
@@ -497,6 +497,12 @@
   </si>
   <si>
     <t>Placed on caves. Doubles the amount dropped.</t>
+  </si>
+  <si>
+    <t>MudHeart</t>
+  </si>
+  <si>
+    <t>TileMudHenge</t>
   </si>
 </sst>
 </file>
@@ -573,7 +579,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="20">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -593,6 +599,9 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -691,7 +700,7 @@
     <tableColumn id="1" xr3:uid="{5FD88E56-EE50-4E96-AF7E-14BF06E4B5D5}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{45FE54DB-459E-467E-AEFD-A964A6E0ACBE}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{F7B36C6D-249B-4C8F-AD9A-FE1BA8D7EA5F}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{F15086BD-3ABF-42E8-AD67-1A721BE8BDB3}" name="%Chance" dataDxfId="18" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{F15086BD-3ABF-42E8-AD67-1A721BE8BDB3}" name="%Chance" dataDxfId="19" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789[[#This Row],[Rate]]/SUM(Table13789[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -706,7 +715,7 @@
     <tableColumn id="1" xr3:uid="{B45D3A7A-5A1F-44F3-AEE5-F5F07020D270}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{8D0A6B32-E6FD-4FEB-BD6B-C5D482407A4D}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{BFC03E2E-52F7-4DCD-8C1C-A21D751C7908}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{C0196799-3FEE-40C1-A925-239F70EFBC90}" name="%Chance" dataDxfId="17" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{C0196799-3FEE-40C1-A925-239F70EFBC90}" name="%Chance" dataDxfId="18" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913[[#This Row],[Rate]]/SUM(Table1378913[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -721,7 +730,7 @@
     <tableColumn id="1" xr3:uid="{22D67FFD-FBB4-459B-A50A-FD89B7CA47EA}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{ABA1E863-6768-496A-992C-D3ACAA40AD3E}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{21B42FB6-D1C6-45EA-99F9-B424D331BD57}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{5F1A8B4E-B55C-46A2-AA78-2705E90B792F}" name="%Chance" dataDxfId="16" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{5F1A8B4E-B55C-46A2-AA78-2705E90B792F}" name="%Chance" dataDxfId="17" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891314[[#This Row],[Rate]]/SUM(Table137891314[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -739,7 +748,7 @@
     <tableColumn id="1" xr3:uid="{36F17566-CFEC-4201-BC32-CDFBEE168785}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{7FAF1644-E0BB-494D-A054-1BEBE28A02F9}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FA86084E-4629-4BD7-A80C-6229B8D80F65}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{5EBDFC1E-8AA4-45D3-B7A3-F1E8D0317C06}" name="%Chance" dataDxfId="15" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{5EBDFC1E-8AA4-45D3-B7A3-F1E8D0317C06}" name="%Chance" dataDxfId="16" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378915[[#This Row],[Rate]]/SUM(Table1378915[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -757,7 +766,7 @@
     <tableColumn id="1" xr3:uid="{333EBB11-1697-4271-B03A-E6B773563CFE}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{66779ED5-FBDC-43B6-B577-67F38636A1F1}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FA20C3E4-336D-43FD-9C7B-B1827A771EBC}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{80EF7A8F-4364-48E9-88BC-D9BE908A8E81}" name="%Chance" dataDxfId="14" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{80EF7A8F-4364-48E9-88BC-D9BE908A8E81}" name="%Chance" dataDxfId="15" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891516[[#This Row],[Rate]]/SUM(Table137891516[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -772,7 +781,7 @@
     <tableColumn id="1" xr3:uid="{28E027C3-6619-4F6B-B9B5-4E991BEE7169}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{83798236-E790-4DCB-9325-19CBD2933987}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{FD652A42-76E9-4A8A-B64F-41F588B57CA0}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{80AE0A84-EBAE-467D-B0FF-B1661CD6F9CA}" name="%Chance" dataDxfId="13" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{80AE0A84-EBAE-467D-B0FF-B1661CD6F9CA}" name="%Chance" dataDxfId="14" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378918[[#This Row],[Rate]]/SUM(Table1378918[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -787,7 +796,7 @@
     <tableColumn id="1" xr3:uid="{5710BAA2-303B-4130-B397-9E88F263AC1A}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{749EB946-237E-4C13-8450-9CB46D681F3D}" name="Rate"/>
     <tableColumn id="7" xr3:uid="{BF90F91A-CFD2-42FC-87F6-1E7A02388275}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{29E82DC4-7FBA-46F8-A388-8832C45E81A7}" name="%Chance" dataDxfId="12" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{29E82DC4-7FBA-46F8-A388-8832C45E81A7}" name="%Chance" dataDxfId="13" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891819[[#This Row],[Rate]]/SUM(Table137891819[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -805,7 +814,7 @@
     <tableColumn id="1" xr3:uid="{DFFD549D-06AC-4FEB-9CAE-81D867FAF7DA}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{5A314CBA-65C8-411D-9F89-C9E413B3C28A}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{A94A88ED-4FF7-4BF3-AAAF-6B7F2860C1FD}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{D8F779D7-C1D3-4D6E-AE28-F4F37BF0FD4C}" name="%Chance" dataDxfId="11" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{D8F779D7-C1D3-4D6E-AE28-F4F37BF0FD4C}" name="%Chance" dataDxfId="12" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891520[[#This Row],[Rate]]/SUM(Table137891520[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -820,7 +829,7 @@
     <tableColumn id="1" xr3:uid="{BE923A95-75C9-4062-BE0B-A80844A43C74}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{8A2B068D-BA52-49A9-8B60-7C7AB68DE7AA}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{96CED9DA-94ED-4108-8E34-6799C464E382}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{B90E081D-90F4-47E6-B8F8-1845ADE3AC33}" name="%Chance" dataDxfId="10" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{B90E081D-90F4-47E6-B8F8-1845ADE3AC33}" name="%Chance" dataDxfId="11" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789181924[[#This Row],[Rate]]/SUM(Table13789181924[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -849,7 +858,7 @@
     <tableColumn id="1" xr3:uid="{381B99D4-DAE9-4E7B-B588-5D9988B19F22}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{D8C82624-656A-47EE-8246-49712DEB46B7}" name="Rate"/>
     <tableColumn id="4" xr3:uid="{6E1B10DB-484A-43C3-8696-EC6E862B4D4A}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{8A8DD7D9-1F12-4887-B5AA-12E962C2FD48}" name="%Chance" dataDxfId="9" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{8A8DD7D9-1F12-4887-B5AA-12E962C2FD48}" name="%Chance" dataDxfId="10" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378915202[[#This Row],[Rate]]/SUM(Table1378915202[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -864,7 +873,7 @@
     <tableColumn id="1" xr3:uid="{5FC31BA1-4AF3-430A-A419-59C22C2155C5}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{BC88DEB0-09FB-4E75-B113-7CDE256B8E17}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{6C6C351D-AFB0-4A3F-BC2D-CDE5D9A11B25}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{733DAD33-07B1-4A54-BBE0-B3212B512175}" name="%Chance" dataDxfId="8" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{733DAD33-07B1-4A54-BBE0-B3212B512175}" name="%Chance" dataDxfId="9" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913147[[#This Row],[Rate]]/SUM(Table1378913147[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -879,7 +888,7 @@
     <tableColumn id="1" xr3:uid="{9C5387E8-4E0B-43FC-BD7B-7307A5B89A6C}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{000E006A-A8FF-4DD8-84CA-E745617C159E}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{89D8EF85-04D9-47B6-81E8-ECDC97E127CD}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{67DA4D60-8692-4B89-85F1-E0CA987870E6}" name="%Chance" dataDxfId="7" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{67DA4D60-8692-4B89-85F1-E0CA987870E6}" name="%Chance" dataDxfId="8" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789131478[[#This Row],[Rate]]/SUM(Table13789131478[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -894,7 +903,7 @@
     <tableColumn id="1" xr3:uid="{4039683D-C0FB-4D66-BC6D-675C507599A7}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{03A60152-6173-4E33-8950-C35B5FC16A06}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{36A0463A-B432-4BFA-8A69-778F0DEAA5D7}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{FB468FC3-8F5C-492C-974E-7C915391756C}" name="%Chance" dataDxfId="6" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{FB468FC3-8F5C-492C-974E-7C915391756C}" name="%Chance" dataDxfId="7" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913147812[[#This Row],[Rate]]/SUM(Table1378913147812[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -909,7 +918,7 @@
     <tableColumn id="1" xr3:uid="{C7425F1C-2EEC-47EF-8EEA-2729F06AB5D7}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{F68B8B21-141F-4D1E-AE8D-C39F60F40661}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{AE893BD6-A2B4-4341-B14D-732457C70734}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{9BAE9F73-4344-4F6B-B023-47346A450C9A}" name="%Chance" dataDxfId="5" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{9BAE9F73-4344-4F6B-B023-47346A450C9A}" name="%Chance" dataDxfId="6" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913147821[[#This Row],[Rate]]/SUM(Table1378913147821[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -918,13 +927,13 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{68A8B6DB-FDE9-4434-8654-5BDDEB7DC6D7}" name="Table137891314782127" displayName="Table137891314782127" ref="K91:N95" totalsRowShown="0">
-  <autoFilter ref="K91:N95" xr:uid="{68A8B6DB-FDE9-4434-8654-5BDDEB7DC6D7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{68A8B6DB-FDE9-4434-8654-5BDDEB7DC6D7}" name="Table137891314782127" displayName="Table137891314782127" ref="K91:N96" totalsRowShown="0">
+  <autoFilter ref="K91:N96" xr:uid="{68A8B6DB-FDE9-4434-8654-5BDDEB7DC6D7}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{8A85DF3A-D6E1-47B2-8031-3ED58E50442B}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{A6B2698E-D7F5-4268-ADEE-28368193C73D}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{A8C7BC54-2D72-4EE8-8416-69B0CBFA5C7C}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{6B37498E-D212-4D73-9EA8-5B4204FE2DB6}" name="%Chance" dataDxfId="4" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{6B37498E-D212-4D73-9EA8-5B4204FE2DB6}" name="%Chance" dataDxfId="5" dataCellStyle="Percent">
       <calculatedColumnFormula>Table137891314782127[[#This Row],[Rate]]/SUM(Table137891314782127[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -933,13 +942,13 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{373286D0-C1A1-42AB-AA04-FAF94452B876}" name="Table13789131478212726" displayName="Table13789131478212726" ref="K98:N103" totalsRowShown="0">
-  <autoFilter ref="K98:N103" xr:uid="{373286D0-C1A1-42AB-AA04-FAF94452B876}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{373286D0-C1A1-42AB-AA04-FAF94452B876}" name="Table13789131478212726" displayName="Table13789131478212726" ref="K99:N104" totalsRowShown="0">
+  <autoFilter ref="K99:N104" xr:uid="{373286D0-C1A1-42AB-AA04-FAF94452B876}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{BFA06CB8-AFDA-477E-8D35-3A0B782861F2}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{0FED4EB3-D389-4101-8A88-ADC5BE7312EE}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{B9E7BE51-E6ED-49F9-9BC0-DC78F235C1A1}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{90B4F952-41ED-4A3F-BA28-4E18C69C9CB2}" name="%Chance" dataDxfId="3" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{90B4F952-41ED-4A3F-BA28-4E18C69C9CB2}" name="%Chance" dataDxfId="4" dataCellStyle="Percent">
       <calculatedColumnFormula>Table13789131478212726[[#This Row],[Rate]]/SUM(Table13789131478212726[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -948,14 +957,29 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{805D609C-F773-4352-929F-7591DF503E52}" name="Table1378913147821272628" displayName="Table1378913147821272628" ref="K106:N111" totalsRowShown="0">
-  <autoFilter ref="K106:N111" xr:uid="{805D609C-F773-4352-929F-7591DF503E52}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{805D609C-F773-4352-929F-7591DF503E52}" name="Table1378913147821272628" displayName="Table1378913147821272628" ref="K107:N113" totalsRowShown="0">
+  <autoFilter ref="K107:N113" xr:uid="{805D609C-F773-4352-929F-7591DF503E52}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{FD93C367-5371-4629-8715-65AB53B5CCF5}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{6B0ECF8E-746B-49A5-9641-829EE054D5E2}" name="Rate"/>
     <tableColumn id="6" xr3:uid="{DD1AD1BC-2359-4573-B394-7289D8BC48E3}" name="Count"/>
-    <tableColumn id="3" xr3:uid="{C8A311C8-D7DF-4A5E-90FB-58E98FF4E04C}" name="%Chance" dataDxfId="2" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{C8A311C8-D7DF-4A5E-90FB-58E98FF4E04C}" name="%Chance" dataDxfId="3" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1378913147821272628[[#This Row],[Rate]]/SUM(Table1378913147821272628[Rate])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{DF21502F-2E66-4E0D-B8CA-408C65ABB790}" name="Table137891314782127262829" displayName="Table137891314782127262829" ref="K116:N119" totalsRowShown="0">
+  <autoFilter ref="K116:N119" xr:uid="{DF21502F-2E66-4E0D-B8CA-408C65ABB790}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{06BE292F-6EB6-4038-9B30-C18C877E09FD}" name="ItemID"/>
+    <tableColumn id="2" xr3:uid="{810C56DD-4156-4F04-93CD-EC64E2096B27}" name="Rate"/>
+    <tableColumn id="6" xr3:uid="{60231306-A7FF-4DB8-A05D-CA7EB23BCEEF}" name="Count"/>
+    <tableColumn id="3" xr3:uid="{36F75C54-F80A-4311-A483-00E3CE335A9E}" name="%Chance" dataDxfId="2" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table137891314782127262829[[#This Row],[Rate]]/SUM(Table137891314782127262829[Rate])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1592,7 +1616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FEB0EF-3316-4CF7-BB73-CA3D5C3FEAE1}">
   <dimension ref="C4:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -2164,10 +2188,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB88C1E5-D251-4818-A177-3044F90F9570}">
-  <dimension ref="B2:X111"/>
+  <dimension ref="B2:X121"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="N111" sqref="N111"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="Q106" sqref="Q106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3196,7 +3220,7 @@
       </c>
       <c r="N92" s="4">
         <f>Table137891314782127[[#This Row],[Rate]]/SUM(Table137891314782127[Rate])</f>
-        <v>0.38461538461538464</v>
+        <v>0.34482758620689657</v>
       </c>
     </row>
     <row r="93" spans="5:14" x14ac:dyDescent="0.25">
@@ -3211,90 +3235,93 @@
       </c>
       <c r="N93" s="3">
         <f>Table137891314782127[[#This Row],[Rate]]/SUM(Table137891314782127[Rate])</f>
-        <v>0.38461538461538464</v>
+        <v>0.34482758620689657</v>
       </c>
     </row>
     <row r="94" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K94" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="L94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M94">
         <v>1</v>
       </c>
       <c r="N94" s="3">
         <f>Table137891314782127[[#This Row],[Rate]]/SUM(Table137891314782127[Rate])</f>
-        <v>3.8461538461538464E-2</v>
+        <v>0.10344827586206896</v>
       </c>
     </row>
     <row r="95" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K95" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L95">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
       </c>
       <c r="N95" s="3">
         <f>Table137891314782127[[#This Row],[Rate]]/SUM(Table137891314782127[Rate])</f>
-        <v>0.19230769230769232</v>
-      </c>
-    </row>
-    <row r="97" spans="11:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="K97" s="1" t="s">
+        <v>3.4482758620689655E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="K96" t="s">
+        <v>129</v>
+      </c>
+      <c r="L96">
+        <v>5</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96" s="3">
+        <f>Table137891314782127[[#This Row],[Rate]]/SUM(Table137891314782127[Rate])</f>
+        <v>0.17241379310344829</v>
+      </c>
+    </row>
+    <row r="98" spans="11:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="K98" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-    </row>
-    <row r="98" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K98" t="s">
-        <v>0</v>
-      </c>
-      <c r="L98" t="s">
-        <v>2</v>
-      </c>
-      <c r="M98" t="s">
-        <v>1</v>
-      </c>
-      <c r="N98" t="s">
-        <v>4</v>
-      </c>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
     </row>
     <row r="99" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K99" t="s">
+        <v>0</v>
+      </c>
+      <c r="L99" t="s">
+        <v>2</v>
+      </c>
+      <c r="M99" t="s">
+        <v>1</v>
+      </c>
+      <c r="N99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K100" t="s">
         <v>131</v>
       </c>
-      <c r="L99">
-        <v>1</v>
-      </c>
-      <c r="M99">
-        <v>1</v>
-      </c>
-      <c r="N99" s="4">
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100" s="4">
         <f>Table13789131478212726[[#This Row],[Rate]]/SUM(Table13789131478212726[Rate])</f>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="100" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K100" t="s">
-        <v>132</v>
-      </c>
-      <c r="L100">
-        <v>5</v>
-      </c>
-      <c r="M100">
-        <v>1</v>
-      </c>
-      <c r="N100" s="3">
-        <f>Table13789131478212726[[#This Row],[Rate]]/SUM(Table13789131478212726[Rate])</f>
-        <v>0.23809523809523808</v>
-      </c>
-    </row>
     <row r="101" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K101" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L101">
         <v>5</v>
@@ -3309,7 +3336,7 @@
     </row>
     <row r="102" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K102" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L102">
         <v>5</v>
@@ -3324,7 +3351,7 @@
     </row>
     <row r="103" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K103" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L103">
         <v>5</v>
@@ -3337,75 +3364,75 @@
         <v>0.23809523809523808</v>
       </c>
     </row>
-    <row r="105" spans="11:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="K105" s="1" t="s">
+    <row r="104" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K104" t="s">
+        <v>135</v>
+      </c>
+      <c r="L104">
+        <v>5</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104" s="3">
+        <f>Table13789131478212726[[#This Row],[Rate]]/SUM(Table13789131478212726[Rate])</f>
+        <v>0.23809523809523808</v>
+      </c>
+    </row>
+    <row r="106" spans="11:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="K106" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
-    </row>
-    <row r="106" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K106" t="s">
-        <v>0</v>
-      </c>
-      <c r="L106" t="s">
-        <v>2</v>
-      </c>
-      <c r="M106" t="s">
-        <v>1</v>
-      </c>
-      <c r="N106" t="s">
-        <v>4</v>
-      </c>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
     </row>
     <row r="107" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K107" t="s">
-        <v>137</v>
-      </c>
-      <c r="L107">
-        <v>1</v>
-      </c>
-      <c r="M107">
-        <v>1</v>
-      </c>
-      <c r="N107" s="4">
-        <f>Table1378913147821272628[[#This Row],[Rate]]/SUM(Table1378913147821272628[Rate])</f>
-        <v>0.14285714285714285</v>
+        <v>0</v>
+      </c>
+      <c r="L107" t="s">
+        <v>2</v>
+      </c>
+      <c r="M107" t="s">
+        <v>1</v>
+      </c>
+      <c r="N107" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K108" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="L108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M108">
         <v>1</v>
       </c>
-      <c r="N108" s="3">
+      <c r="N108" s="4">
         <f>Table1378913147821272628[[#This Row],[Rate]]/SUM(Table1378913147821272628[Rate])</f>
-        <v>0.42857142857142855</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="109" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K109" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="L109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M109">
         <v>1</v>
       </c>
       <c r="N109" s="3">
         <f>Table1378913147821272628[[#This Row],[Rate]]/SUM(Table1378913147821272628[Rate])</f>
-        <v>0.14285714285714285</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="110" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K110" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="L110">
         <v>1</v>
@@ -3415,12 +3442,12 @@
       </c>
       <c r="N110" s="3">
         <f>Table1378913147821272628[[#This Row],[Rate]]/SUM(Table1378913147821272628[Rate])</f>
-        <v>0.14285714285714285</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="111" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K111" t="s">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="L111">
         <v>1</v>
@@ -3430,13 +3457,115 @@
       </c>
       <c r="N111" s="3">
         <f>Table1378913147821272628[[#This Row],[Rate]]/SUM(Table1378913147821272628[Rate])</f>
-        <v>0.14285714285714285</v>
-      </c>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="112" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K112" t="s">
+        <v>154</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112" s="3">
+        <f>Table1378913147821272628[[#This Row],[Rate]]/SUM(Table1378913147821272628[Rate])</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="113" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K113" t="s">
+        <v>150</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113" s="3">
+        <f>Table1378913147821272628[[#This Row],[Rate]]/SUM(Table1378913147821272628[Rate])</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="115" spans="11:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="K115" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+    </row>
+    <row r="116" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K116" t="s">
+        <v>0</v>
+      </c>
+      <c r="L116" t="s">
+        <v>2</v>
+      </c>
+      <c r="M116" t="s">
+        <v>1</v>
+      </c>
+      <c r="N116" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K117" t="s">
+        <v>153</v>
+      </c>
+      <c r="L117">
+        <v>10</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117" s="4">
+        <f>Table137891314782127262829[[#This Row],[Rate]]/SUM(Table137891314782127262829[Rate])</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="118" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K118" t="s">
+        <v>153</v>
+      </c>
+      <c r="L118">
+        <v>5</v>
+      </c>
+      <c r="M118">
+        <v>2</v>
+      </c>
+      <c r="N118" s="3">
+        <f>Table137891314782127262829[[#This Row],[Rate]]/SUM(Table137891314782127262829[Rate])</f>
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="119" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K119" t="s">
+        <v>153</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>3</v>
+      </c>
+      <c r="N119" s="3">
+        <f>Table137891314782127262829[[#This Row],[Rate]]/SUM(Table137891314782127262829[Rate])</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="N120" s="3"/>
+    </row>
+    <row r="121" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="N121" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="17">
+  <tableParts count="18">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -3454,6 +3583,7 @@
     <tablePart r:id="rId15"/>
     <tablePart r:id="rId16"/>
     <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>
--- a/pack_world_game/design/Packs Items Tables.xlsx
+++ b/pack_world_game/design/Packs Items Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\pack_world\pack_world_game\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B1651E-D305-41D4-A3BE-8228BB79F314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F9C1F1-92F3-4C20-B274-4B9A38DE8603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pack Cost" sheetId="6" r:id="rId1"/>
@@ -316,9 +316,6 @@
     <t>Goblin</t>
   </si>
   <si>
-    <t>MudDog</t>
-  </si>
-  <si>
     <t>Frog</t>
   </si>
   <si>
@@ -503,6 +500,9 @@
   </si>
   <si>
     <t>TileMudHenge</t>
+  </si>
+  <si>
+    <t>MudChicken</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="24" spans="6:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F24" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.25">
@@ -1488,7 +1488,7 @@
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="28" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="30" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="32" spans="6:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F32" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.25">
@@ -1533,7 +1533,7 @@
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="37" spans="6:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F37" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="6:7" x14ac:dyDescent="0.25">
@@ -1591,7 +1591,7 @@
     </row>
     <row r="44" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G44">
         <v>10</v>
@@ -1616,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FEB0EF-3316-4CF7-BB73-CA3D5C3FEAE1}">
   <dimension ref="C4:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1934,10 +1934,10 @@
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" t="s">
         <v>101</v>
-      </c>
-      <c r="E17" t="s">
-        <v>102</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
@@ -1960,16 +1960,16 @@
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" t="s">
         <v>103</v>
-      </c>
-      <c r="E18" t="s">
-        <v>104</v>
       </c>
       <c r="H18" t="s">
         <v>84</v>
       </c>
       <c r="I18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J18" t="s">
         <v>53</v>
@@ -1983,16 +1983,16 @@
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" t="s">
         <v>105</v>
-      </c>
-      <c r="E19" t="s">
-        <v>106</v>
       </c>
       <c r="H19" t="s">
         <v>91</v>
       </c>
       <c r="I19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J19" t="s">
         <v>53</v>
@@ -2006,16 +2006,16 @@
     </row>
     <row r="20" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" t="s">
         <v>107</v>
       </c>
-      <c r="E20" t="s">
-        <v>108</v>
-      </c>
       <c r="H20" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="I20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J20" t="s">
         <v>53</v>
@@ -2029,16 +2029,16 @@
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" t="s">
         <v>109</v>
       </c>
-      <c r="E21" t="s">
-        <v>110</v>
-      </c>
       <c r="H21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J21" t="s">
         <v>53</v>
@@ -2052,52 +2052,52 @@
     </row>
     <row r="22" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" t="s">
         <v>120</v>
       </c>
-      <c r="E22" t="s">
-        <v>121</v>
-      </c>
       <c r="H22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" t="s">
         <v>115</v>
-      </c>
-      <c r="I22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="23" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E23" t="s">
         <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" t="s">
         <v>138</v>
       </c>
-      <c r="E24" t="s">
-        <v>139</v>
-      </c>
       <c r="H24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="4:13" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K25" t="s">
         <v>52</v>
@@ -2108,10 +2108,10 @@
     </row>
     <row r="26" spans="4:13" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K26" t="s">
         <v>52</v>
@@ -2122,10 +2122,10 @@
     </row>
     <row r="27" spans="4:13" x14ac:dyDescent="0.25">
       <c r="H27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J27" t="s">
         <v>53</v>
@@ -2139,10 +2139,10 @@
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
+        <v>141</v>
+      </c>
+      <c r="I28" t="s">
         <v>142</v>
-      </c>
-      <c r="I28" t="s">
-        <v>143</v>
       </c>
       <c r="J28" t="s">
         <v>53</v>
@@ -2156,10 +2156,10 @@
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
+        <v>147</v>
+      </c>
+      <c r="I29" t="s">
         <v>148</v>
-      </c>
-      <c r="I29" t="s">
-        <v>149</v>
       </c>
       <c r="K29" t="s">
         <v>52</v>
@@ -2190,7 +2190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB88C1E5-D251-4818-A177-3044F90F9570}">
   <dimension ref="B2:X121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A63" workbookViewId="0">
       <selection activeCell="Q106" sqref="Q106"/>
     </sheetView>
   </sheetViews>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="47" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L47">
         <v>5</v>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="50" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L50">
         <v>0.5</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="51" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L51">
         <v>10</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="52" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L52">
         <v>5</v>
@@ -3069,7 +3069,7 @@
     </row>
     <row r="78" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="86" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="E86" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="90" spans="5:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="K90" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="93" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K93" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L93">
         <v>10</v>
@@ -3240,7 +3240,7 @@
     </row>
     <row r="94" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L94">
         <v>3</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="95" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K95" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L95">
         <v>1</v>
@@ -3270,7 +3270,7 @@
     </row>
     <row r="96" spans="5:14" x14ac:dyDescent="0.25">
       <c r="K96" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L96">
         <v>5</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="98" spans="11:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="K98" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="100" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K100" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L100">
         <v>1</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="101" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K101" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L101">
         <v>5</v>
@@ -3336,7 +3336,7 @@
     </row>
     <row r="102" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K102" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L102">
         <v>5</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="103" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K103" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L103">
         <v>5</v>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="104" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K104" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L104">
         <v>5</v>
@@ -3381,7 +3381,7 @@
     </row>
     <row r="106" spans="11:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="K106" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="108" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K108" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L108">
         <v>1</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="109" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K109" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L109">
         <v>3</v>
@@ -3432,7 +3432,7 @@
     </row>
     <row r="110" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K110" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L110">
         <v>1</v>
@@ -3462,7 +3462,7 @@
     </row>
     <row r="112" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K112" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L112">
         <v>1</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="113" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K113" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L113">
         <v>1</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="115" spans="11:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="K115" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="117" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K117" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L117">
         <v>10</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="118" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K118" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L118">
         <v>5</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="119" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K119" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L119">
         <v>1</v>
